--- a/results/combinedresults/dqbf19.xlsx
+++ b/results/combinedresults/dqbf19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD2148-804B-B746-A8C4-24DED0BE2EBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF3254-4978-1240-B596-F43BA01552EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="726">
   <si>
     <t>tool</t>
   </si>
@@ -744,6 +744,1473 @@
   </si>
   <si>
     <t>OUT OF MEMORY</t>
+  </si>
+  <si>
+    <t>qbf-mode.dqbf19</t>
+  </si>
+  <si>
+    <t>3.850147013</t>
+  </si>
+  <si>
+    <t>3.896639734506607</t>
+  </si>
+  <si>
+    <t>81.891328</t>
+  </si>
+  <si>
+    <t>2.103766078</t>
+  </si>
+  <si>
+    <t>2.138812333345413</t>
+  </si>
+  <si>
+    <t>63.021055999999994</t>
+  </si>
+  <si>
+    <t>94.316604832</t>
+  </si>
+  <si>
+    <t>94.29953447729349</t>
+  </si>
+  <si>
+    <t>1240.170496</t>
+  </si>
+  <si>
+    <t>363.784924185</t>
+  </si>
+  <si>
+    <t>363.5630350448191</t>
+  </si>
+  <si>
+    <t>4000.002048</t>
+  </si>
+  <si>
+    <t>0.619636456</t>
+  </si>
+  <si>
+    <t>0.6756446771323681</t>
+  </si>
+  <si>
+    <t>42.7008</t>
+  </si>
+  <si>
+    <t>0.687247243</t>
+  </si>
+  <si>
+    <t>0.7471887171268463</t>
+  </si>
+  <si>
+    <t>45.981696</t>
+  </si>
+  <si>
+    <t>258.378230301</t>
+  </si>
+  <si>
+    <t>258.2444831803441</t>
+  </si>
+  <si>
+    <t>383.929474426</t>
+  </si>
+  <si>
+    <t>383.70639170333743</t>
+  </si>
+  <si>
+    <t>400.002716512</t>
+  </si>
+  <si>
+    <t>399.85102916508913</t>
+  </si>
+  <si>
+    <t>390.092151479</t>
+  </si>
+  <si>
+    <t>389.9146490469575</t>
+  </si>
+  <si>
+    <t>307.877499629</t>
+  </si>
+  <si>
+    <t>307.6946355625987</t>
+  </si>
+  <si>
+    <t>189.305582651</t>
+  </si>
+  <si>
+    <t>189.21065824478865</t>
+  </si>
+  <si>
+    <t>540.64964934</t>
+  </si>
+  <si>
+    <t>540.3147822953761</t>
+  </si>
+  <si>
+    <t>402.749889453</t>
+  </si>
+  <si>
+    <t>402.5228883586824</t>
+  </si>
+  <si>
+    <t>290.609720216</t>
+  </si>
+  <si>
+    <t>290.4906893745065</t>
+  </si>
+  <si>
+    <t>536.591186952</t>
+  </si>
+  <si>
+    <t>536.2509455122054</t>
+  </si>
+  <si>
+    <t>495.008788303</t>
+  </si>
+  <si>
+    <t>494.67964259162545</t>
+  </si>
+  <si>
+    <t>313.381990453</t>
+  </si>
+  <si>
+    <t>313.21089885383844</t>
+  </si>
+  <si>
+    <t>427.133560267</t>
+  </si>
+  <si>
+    <t>426.90685868263245</t>
+  </si>
+  <si>
+    <t>302.493637602</t>
+  </si>
+  <si>
+    <t>302.34691321849823</t>
+  </si>
+  <si>
+    <t>296.692171912</t>
+  </si>
+  <si>
+    <t>296.5385424308479</t>
+  </si>
+  <si>
+    <t>482.731079714</t>
+  </si>
+  <si>
+    <t>482.4387713856995</t>
+  </si>
+  <si>
+    <t>514.501354889</t>
+  </si>
+  <si>
+    <t>514.1746468357742</t>
+  </si>
+  <si>
+    <t>488.422109188</t>
+  </si>
+  <si>
+    <t>488.12267814949155</t>
+  </si>
+  <si>
+    <t>451.049891024</t>
+  </si>
+  <si>
+    <t>450.7706648223102</t>
+  </si>
+  <si>
+    <t>74.995600559</t>
+  </si>
+  <si>
+    <t>74.97850686684251</t>
+  </si>
+  <si>
+    <t>1581.11744</t>
+  </si>
+  <si>
+    <t>206.349514693</t>
+  </si>
+  <si>
+    <t>206.2826642692089</t>
+  </si>
+  <si>
+    <t>186.180285897</t>
+  </si>
+  <si>
+    <t>186.10688962042332</t>
+  </si>
+  <si>
+    <t>0.266390425</t>
+  </si>
+  <si>
+    <t>0.31464958563447</t>
+  </si>
+  <si>
+    <t>38.113279999999996</t>
+  </si>
+  <si>
+    <t>74.436498626</t>
+  </si>
+  <si>
+    <t>74.44566550478339</t>
+  </si>
+  <si>
+    <t>1007.128576</t>
+  </si>
+  <si>
+    <t>74.104011149</t>
+  </si>
+  <si>
+    <t>74.09071989357471</t>
+  </si>
+  <si>
+    <t>994.418688</t>
+  </si>
+  <si>
+    <t>78.178922658</t>
+  </si>
+  <si>
+    <t>78.17055943980813</t>
+  </si>
+  <si>
+    <t>1141.460992</t>
+  </si>
+  <si>
+    <t>294.187674971</t>
+  </si>
+  <si>
+    <t>294.0587344504893</t>
+  </si>
+  <si>
+    <t>465.463225382</t>
+  </si>
+  <si>
+    <t>465.1784211024642</t>
+  </si>
+  <si>
+    <t>279.321339221</t>
+  </si>
+  <si>
+    <t>279.1785325668752</t>
+  </si>
+  <si>
+    <t>304.416859128</t>
+  </si>
+  <si>
+    <t>304.2504996806383</t>
+  </si>
+  <si>
+    <t>324.293205504</t>
+  </si>
+  <si>
+    <t>324.1106389760971</t>
+  </si>
+  <si>
+    <t>415.276248058</t>
+  </si>
+  <si>
+    <t>415.0465144626796</t>
+  </si>
+  <si>
+    <t>276.720250223</t>
+  </si>
+  <si>
+    <t>276.60264744609594</t>
+  </si>
+  <si>
+    <t>325.67919331</t>
+  </si>
+  <si>
+    <t>325.47869358211756</t>
+  </si>
+  <si>
+    <t>345.095028885</t>
+  </si>
+  <si>
+    <t>344.890759896487</t>
+  </si>
+  <si>
+    <t>262.119562118</t>
+  </si>
+  <si>
+    <t>261.98261201381683</t>
+  </si>
+  <si>
+    <t>310.719219044</t>
+  </si>
+  <si>
+    <t>310.5546818934381</t>
+  </si>
+  <si>
+    <t>366.22811199</t>
+  </si>
+  <si>
+    <t>365.99864987656474</t>
+  </si>
+  <si>
+    <t>282.417090121</t>
+  </si>
+  <si>
+    <t>282.2986540533602</t>
+  </si>
+  <si>
+    <t>357.817124159</t>
+  </si>
+  <si>
+    <t>357.9986705519259</t>
+  </si>
+  <si>
+    <t>338.513942518</t>
+  </si>
+  <si>
+    <t>338.3260812610388</t>
+  </si>
+  <si>
+    <t>309.167248226</t>
+  </si>
+  <si>
+    <t>309.0024832673371</t>
+  </si>
+  <si>
+    <t>277.524388783</t>
+  </si>
+  <si>
+    <t>277.37072575092316</t>
+  </si>
+  <si>
+    <t>369.327821035</t>
+  </si>
+  <si>
+    <t>369.1785059981048</t>
+  </si>
+  <si>
+    <t>343.413425939</t>
+  </si>
+  <si>
+    <t>343.2226463034749</t>
+  </si>
+  <si>
+    <t>333.462001946</t>
+  </si>
+  <si>
+    <t>333.27677915617824</t>
+  </si>
+  <si>
+    <t>459.591630746</t>
+  </si>
+  <si>
+    <t>459.29192440211773</t>
+  </si>
+  <si>
+    <t>442.407065977</t>
+  </si>
+  <si>
+    <t>442.1230862289667</t>
+  </si>
+  <si>
+    <t>308.631894415</t>
+  </si>
+  <si>
+    <t>308.442844837904</t>
+  </si>
+  <si>
+    <t>426.736331844</t>
+  </si>
+  <si>
+    <t>426.53837629035115</t>
+  </si>
+  <si>
+    <t>437.597840302</t>
+  </si>
+  <si>
+    <t>437.33826588094234</t>
+  </si>
+  <si>
+    <t>272.865955312</t>
+  </si>
+  <si>
+    <t>272.71439127251506</t>
+  </si>
+  <si>
+    <t>351.937795106</t>
+  </si>
+  <si>
+    <t>351.7227345407009</t>
+  </si>
+  <si>
+    <t>292.81259018</t>
+  </si>
+  <si>
+    <t>292.638623457402</t>
+  </si>
+  <si>
+    <t>299.704790952</t>
+  </si>
+  <si>
+    <t>299.5308148674667</t>
+  </si>
+  <si>
+    <t>240.36122087</t>
+  </si>
+  <si>
+    <t>240.25851694121957</t>
+  </si>
+  <si>
+    <t>552.080646297</t>
+  </si>
+  <si>
+    <t>551.7906200811267</t>
+  </si>
+  <si>
+    <t>485.697243537</t>
+  </si>
+  <si>
+    <t>485.402673214674</t>
+  </si>
+  <si>
+    <t>410.917795197</t>
+  </si>
+  <si>
+    <t>410.6664200387895</t>
+  </si>
+  <si>
+    <t>544.333479382</t>
+  </si>
+  <si>
+    <t>543.9946511350572</t>
+  </si>
+  <si>
+    <t>386.360365075</t>
+  </si>
+  <si>
+    <t>386.1385626718402</t>
+  </si>
+  <si>
+    <t>281.341674087</t>
+  </si>
+  <si>
+    <t>281.1946754157543</t>
+  </si>
+  <si>
+    <t>314.977875323</t>
+  </si>
+  <si>
+    <t>314.7946533858776</t>
+  </si>
+  <si>
+    <t>408.205946178</t>
+  </si>
+  <si>
+    <t>407.9468594864011</t>
+  </si>
+  <si>
+    <t>424.849411601</t>
+  </si>
+  <si>
+    <t>424.5705899745226</t>
+  </si>
+  <si>
+    <t>209.453477881</t>
+  </si>
+  <si>
+    <t>209.35456535965204</t>
+  </si>
+  <si>
+    <t>257.76296918</t>
+  </si>
+  <si>
+    <t>257.66666224598885</t>
+  </si>
+  <si>
+    <t>248.143387379</t>
+  </si>
+  <si>
+    <t>248.01039019227028</t>
+  </si>
+  <si>
+    <t>4.545523789</t>
+  </si>
+  <si>
+    <t>4.574673119932413</t>
+  </si>
+  <si>
+    <t>201.56416</t>
+  </si>
+  <si>
+    <t>311.787523914</t>
+  </si>
+  <si>
+    <t>311.61067812889814</t>
+  </si>
+  <si>
+    <t>224.949636387</t>
+  </si>
+  <si>
+    <t>224.83618311956525</t>
+  </si>
+  <si>
+    <t>0.362373161</t>
+  </si>
+  <si>
+    <t>0.4105933681130409</t>
+  </si>
+  <si>
+    <t>40.472576</t>
+  </si>
+  <si>
+    <t>371.31435997</t>
+  </si>
+  <si>
+    <t>371.13056752830744</t>
+  </si>
+  <si>
+    <t>405.619323825</t>
+  </si>
+  <si>
+    <t>405.38247994706035</t>
+  </si>
+  <si>
+    <t>87.25645778</t>
+  </si>
+  <si>
+    <t>87.24257637560368</t>
+  </si>
+  <si>
+    <t>1234.014208</t>
+  </si>
+  <si>
+    <t>85.21804055</t>
+  </si>
+  <si>
+    <t>85.19436708465219</t>
+  </si>
+  <si>
+    <t>1193.1197439999999</t>
+  </si>
+  <si>
+    <t>430.166904802</t>
+  </si>
+  <si>
+    <t>429.91037333384156</t>
+  </si>
+  <si>
+    <t>322.681894827</t>
+  </si>
+  <si>
+    <t>322.50640109553933</t>
+  </si>
+  <si>
+    <t>577.764511054</t>
+  </si>
+  <si>
+    <t>577.3904926516116</t>
+  </si>
+  <si>
+    <t>247.24971838</t>
+  </si>
+  <si>
+    <t>247.1185510121286</t>
+  </si>
+  <si>
+    <t>441.645704119</t>
+  </si>
+  <si>
+    <t>441.4345963411033</t>
+  </si>
+  <si>
+    <t>9.856915663</t>
+  </si>
+  <si>
+    <t>9.914464425295591</t>
+  </si>
+  <si>
+    <t>88.055808</t>
+  </si>
+  <si>
+    <t>355.99217449</t>
+  </si>
+  <si>
+    <t>355.7795657478273</t>
+  </si>
+  <si>
+    <t>301.760785859</t>
+  </si>
+  <si>
+    <t>301.5825078524649</t>
+  </si>
+  <si>
+    <t>197.261726431</t>
+  </si>
+  <si>
+    <t>197.1663735471666</t>
+  </si>
+  <si>
+    <t>420.114809656</t>
+  </si>
+  <si>
+    <t>419.854438457638</t>
+  </si>
+  <si>
+    <t>366.783781398</t>
+  </si>
+  <si>
+    <t>366.55392122268677</t>
+  </si>
+  <si>
+    <t>146.73046376</t>
+  </si>
+  <si>
+    <t>146.68256429210305</t>
+  </si>
+  <si>
+    <t>2408.542208</t>
+  </si>
+  <si>
+    <t>10.165560138</t>
+  </si>
+  <si>
+    <t>10.234682373702526</t>
+  </si>
+  <si>
+    <t>93.691904</t>
+  </si>
+  <si>
+    <t>333.286161158</t>
+  </si>
+  <si>
+    <t>333.0906086526811</t>
+  </si>
+  <si>
+    <t>362.664635514</t>
+  </si>
+  <si>
+    <t>362.5065797790885</t>
+  </si>
+  <si>
+    <t>195.182464818</t>
+  </si>
+  <si>
+    <t>195.09860640019178</t>
+  </si>
+  <si>
+    <t>224.872457794</t>
+  </si>
+  <si>
+    <t>224.76260609924793</t>
+  </si>
+  <si>
+    <t>206.852431834</t>
+  </si>
+  <si>
+    <t>206.79436236992478</t>
+  </si>
+  <si>
+    <t>214.984256507</t>
+  </si>
+  <si>
+    <t>214.8744542375207</t>
+  </si>
+  <si>
+    <t>249.66782094</t>
+  </si>
+  <si>
+    <t>249.5425317361951</t>
+  </si>
+  <si>
+    <t>220.094654464</t>
+  </si>
+  <si>
+    <t>219.97866655513644</t>
+  </si>
+  <si>
+    <t>283.74899208</t>
+  </si>
+  <si>
+    <t>283.5944633819163</t>
+  </si>
+  <si>
+    <t>389.904033446</t>
+  </si>
+  <si>
+    <t>389.7184304818511</t>
+  </si>
+  <si>
+    <t>312.45461024</t>
+  </si>
+  <si>
+    <t>312.26666643097997</t>
+  </si>
+  <si>
+    <t>560.415077003</t>
+  </si>
+  <si>
+    <t>560.0504069626331</t>
+  </si>
+  <si>
+    <t>374.08868376</t>
+  </si>
+  <si>
+    <t>373.85071448236704</t>
+  </si>
+  <si>
+    <t>272.517337988</t>
+  </si>
+  <si>
+    <t>272.3786454871297</t>
+  </si>
+  <si>
+    <t>233.139900854</t>
+  </si>
+  <si>
+    <t>233.01844723150134</t>
+  </si>
+  <si>
+    <t>354.576242598</t>
+  </si>
+  <si>
+    <t>354.37852143868804</t>
+  </si>
+  <si>
+    <t>269.403839095</t>
+  </si>
+  <si>
+    <t>269.2905545979738</t>
+  </si>
+  <si>
+    <t>212.701331999</t>
+  </si>
+  <si>
+    <t>212.58656403794885</t>
+  </si>
+  <si>
+    <t>254.983085355</t>
+  </si>
+  <si>
+    <t>254.85044898092747</t>
+  </si>
+  <si>
+    <t>225.396472781</t>
+  </si>
+  <si>
+    <t>225.27467093989253</t>
+  </si>
+  <si>
+    <t>209.468122665</t>
+  </si>
+  <si>
+    <t>209.36249408125877</t>
+  </si>
+  <si>
+    <t>200.471753223</t>
+  </si>
+  <si>
+    <t>200.3786523602903</t>
+  </si>
+  <si>
+    <t>257.772347674</t>
+  </si>
+  <si>
+    <t>257.67439198866487</t>
+  </si>
+  <si>
+    <t>188.841674832</t>
+  </si>
+  <si>
+    <t>188.762456741184</t>
+  </si>
+  <si>
+    <t>221.915828143</t>
+  </si>
+  <si>
+    <t>221.81442704424262</t>
+  </si>
+  <si>
+    <t>348.583489953</t>
+  </si>
+  <si>
+    <t>348.37864466011524</t>
+  </si>
+  <si>
+    <t>338.406183769</t>
+  </si>
+  <si>
+    <t>338.20643451064825</t>
+  </si>
+  <si>
+    <t>369.724364794</t>
+  </si>
+  <si>
+    <t>369.5147105380893</t>
+  </si>
+  <si>
+    <t>337.419457862</t>
+  </si>
+  <si>
+    <t>337.23449401184916</t>
+  </si>
+  <si>
+    <t>211.603878589</t>
+  </si>
+  <si>
+    <t>211.5345592945814</t>
+  </si>
+  <si>
+    <t>209.246500047</t>
+  </si>
+  <si>
+    <t>209.15451577305794</t>
+  </si>
+  <si>
+    <t>201.715337005</t>
+  </si>
+  <si>
+    <t>201.61468421667814</t>
+  </si>
+  <si>
+    <t>94.485327462</t>
+  </si>
+  <si>
+    <t>94.49060956761241</t>
+  </si>
+  <si>
+    <t>1801.8140159999998</t>
+  </si>
+  <si>
+    <t>14.708619793</t>
+  </si>
+  <si>
+    <t>14.738539725542068</t>
+  </si>
+  <si>
+    <t>143.62624</t>
+  </si>
+  <si>
+    <t>240.850607115</t>
+  </si>
+  <si>
+    <t>240.73059725388885</t>
+  </si>
+  <si>
+    <t>385.827370855</t>
+  </si>
+  <si>
+    <t>385.5866888165474</t>
+  </si>
+  <si>
+    <t>182.422168639</t>
+  </si>
+  <si>
+    <t>182.36267447844148</t>
+  </si>
+  <si>
+    <t>213.659816383</t>
+  </si>
+  <si>
+    <t>213.54636868834496</t>
+  </si>
+  <si>
+    <t>142.580299141</t>
+  </si>
+  <si>
+    <t>142.53851732239127</t>
+  </si>
+  <si>
+    <t>316.110765837</t>
+  </si>
+  <si>
+    <t>315.91453355923295</t>
+  </si>
+  <si>
+    <t>155.170148265</t>
+  </si>
+  <si>
+    <t>155.10649740695953</t>
+  </si>
+  <si>
+    <t>235.443890175</t>
+  </si>
+  <si>
+    <t>235.36437171325088</t>
+  </si>
+  <si>
+    <t>1389.330432</t>
+  </si>
+  <si>
+    <t>882.210116291</t>
+  </si>
+  <si>
+    <t>881.6104895286262</t>
+  </si>
+  <si>
+    <t>71.989677011</t>
+  </si>
+  <si>
+    <t>71.98247392475605</t>
+  </si>
+  <si>
+    <t>1356.8286719999999</t>
+  </si>
+  <si>
+    <t>503.699274106</t>
+  </si>
+  <si>
+    <t>503.3704296760261</t>
+  </si>
+  <si>
+    <t>711.915498908</t>
+  </si>
+  <si>
+    <t>711.4343737475574</t>
+  </si>
+  <si>
+    <t>3140.97664</t>
+  </si>
+  <si>
+    <t>325.60828714</t>
+  </si>
+  <si>
+    <t>325.41862135380507</t>
+  </si>
+  <si>
+    <t>559.876021998</t>
+  </si>
+  <si>
+    <t>559.514598056674</t>
+  </si>
+  <si>
+    <t>34.951404721</t>
+  </si>
+  <si>
+    <t>34.98655153438449</t>
+  </si>
+  <si>
+    <t>706.1872639999999</t>
+  </si>
+  <si>
+    <t>754.022526189</t>
+  </si>
+  <si>
+    <t>753.630662444979</t>
+  </si>
+  <si>
+    <t>901.888715212</t>
+  </si>
+  <si>
+    <t>901.2745689749718</t>
+  </si>
+  <si>
+    <t>3260.1169919999998</t>
+  </si>
+  <si>
+    <t>35.03136516</t>
+  </si>
+  <si>
+    <t>35.07033611088991</t>
+  </si>
+  <si>
+    <t>706.1913599999999</t>
+  </si>
+  <si>
+    <t>87.057759471</t>
+  </si>
+  <si>
+    <t>87.04644389823079</t>
+  </si>
+  <si>
+    <t>1267.437568</t>
+  </si>
+  <si>
+    <t>236.643269482</t>
+  </si>
+  <si>
+    <t>236.5065815038979</t>
+  </si>
+  <si>
+    <t>1381.994496</t>
+  </si>
+  <si>
+    <t>331.668217001</t>
+  </si>
+  <si>
+    <t>331.48262003064156</t>
+  </si>
+  <si>
+    <t>44.0937539</t>
+  </si>
+  <si>
+    <t>44.11047278344631</t>
+  </si>
+  <si>
+    <t>880.648192</t>
+  </si>
+  <si>
+    <t>89.333355552</t>
+  </si>
+  <si>
+    <t>89.33452639356256</t>
+  </si>
+  <si>
+    <t>1547.5630079999999</t>
+  </si>
+  <si>
+    <t>4.981532337</t>
+  </si>
+  <si>
+    <t>5.030413813889027</t>
+  </si>
+  <si>
+    <t>136.552448</t>
+  </si>
+  <si>
+    <t>44.318619388</t>
+  </si>
+  <si>
+    <t>44.33052909374237</t>
+  </si>
+  <si>
+    <t>0.898642734</t>
+  </si>
+  <si>
+    <t>0.9545028284192085</t>
+  </si>
+  <si>
+    <t>58.040319999999994</t>
+  </si>
+  <si>
+    <t>0.838557449</t>
+  </si>
+  <si>
+    <t>0.9064439721405506</t>
+  </si>
+  <si>
+    <t>57.38496</t>
+  </si>
+  <si>
+    <t>2.312063946</t>
+  </si>
+  <si>
+    <t>2.3428104408085346</t>
+  </si>
+  <si>
+    <t>69.705728</t>
+  </si>
+  <si>
+    <t>80.068951938</t>
+  </si>
+  <si>
+    <t>80.06650965288281</t>
+  </si>
+  <si>
+    <t>1630.138368</t>
+  </si>
+  <si>
+    <t>648.105948858</t>
+  </si>
+  <si>
+    <t>647.6906219385564</t>
+  </si>
+  <si>
+    <t>901.694831075</t>
+  </si>
+  <si>
+    <t>901.0986405350268</t>
+  </si>
+  <si>
+    <t>529.068032</t>
+  </si>
+  <si>
+    <t>451.39183956</t>
+  </si>
+  <si>
+    <t>451.32233672216535</t>
+  </si>
+  <si>
+    <t>446.755596111</t>
+  </si>
+  <si>
+    <t>446.5025257579982</t>
+  </si>
+  <si>
+    <t>15.164808551</t>
+  </si>
+  <si>
+    <t>15.19441419839859</t>
+  </si>
+  <si>
+    <t>380.60851199999996</t>
+  </si>
+  <si>
+    <t>152.782047187</t>
+  </si>
+  <si>
+    <t>152.71456958726048</t>
+  </si>
+  <si>
+    <t>1514.508288</t>
+  </si>
+  <si>
+    <t>323.017735721</t>
+  </si>
+  <si>
+    <t>322.838557548821</t>
+  </si>
+  <si>
+    <t>339.657243712</t>
+  </si>
+  <si>
+    <t>339.46649646386504</t>
+  </si>
+  <si>
+    <t>226.197907651</t>
+  </si>
+  <si>
+    <t>226.08325453475118</t>
+  </si>
+  <si>
+    <t>210.82858903</t>
+  </si>
+  <si>
+    <t>210.7506287097931</t>
+  </si>
+  <si>
+    <t>175.100209027</t>
+  </si>
+  <si>
+    <t>175.0223766863346</t>
+  </si>
+  <si>
+    <t>206.133296045</t>
+  </si>
+  <si>
+    <t>206.02637051418424</t>
+  </si>
+  <si>
+    <t>213.124265656</t>
+  </si>
+  <si>
+    <t>213.05048583447933</t>
+  </si>
+  <si>
+    <t>178.866250228</t>
+  </si>
+  <si>
+    <t>178.79048178717494</t>
+  </si>
+  <si>
+    <t>192.400006709</t>
+  </si>
+  <si>
+    <t>192.30643766745925</t>
+  </si>
+  <si>
+    <t>222.137029732</t>
+  </si>
+  <si>
+    <t>222.01053665950894</t>
+  </si>
+  <si>
+    <t>223.245654948</t>
+  </si>
+  <si>
+    <t>223.14267633110285</t>
+  </si>
+  <si>
+    <t>185.447685728</t>
+  </si>
+  <si>
+    <t>185.35468631982803</t>
+  </si>
+  <si>
+    <t>180.114965791</t>
+  </si>
+  <si>
+    <t>180.04251696169376</t>
+  </si>
+  <si>
+    <t>261.74283136</t>
+  </si>
+  <si>
+    <t>261.64242696389556</t>
+  </si>
+  <si>
+    <t>216.1297312</t>
+  </si>
+  <si>
+    <t>216.01559337973595</t>
+  </si>
+  <si>
+    <t>251.526238133</t>
+  </si>
+  <si>
+    <t>251.3867233581841</t>
+  </si>
+  <si>
+    <t>201.429149395</t>
+  </si>
+  <si>
+    <t>201.32244912534952</t>
+  </si>
+  <si>
+    <t>166.861103493</t>
+  </si>
+  <si>
+    <t>166.80262742564082</t>
+  </si>
+  <si>
+    <t>229.711909125</t>
+  </si>
+  <si>
+    <t>229.59460985288024</t>
+  </si>
+  <si>
+    <t>350.702569603</t>
+  </si>
+  <si>
+    <t>350.50254764407873</t>
+  </si>
+  <si>
+    <t>225.047136889</t>
+  </si>
+  <si>
+    <t>224.97058738023043</t>
+  </si>
+  <si>
+    <t>208.607931636</t>
+  </si>
+  <si>
+    <t>208.5065098889172</t>
+  </si>
+  <si>
+    <t>257.150134663</t>
+  </si>
+  <si>
+    <t>257.00249363482</t>
+  </si>
+  <si>
+    <t>258.205261006</t>
+  </si>
+  <si>
+    <t>258.0745668709278</t>
+  </si>
+  <si>
+    <t>261.244324537</t>
+  </si>
+  <si>
+    <t>261.09856048971415</t>
+  </si>
+  <si>
+    <t>337.727949661</t>
+  </si>
+  <si>
+    <t>337.5904787816107</t>
+  </si>
+  <si>
+    <t>255.818225884</t>
+  </si>
+  <si>
+    <t>255.70559567585588</t>
+  </si>
+  <si>
+    <t>307.124384239</t>
+  </si>
+  <si>
+    <t>306.94645197317004</t>
+  </si>
+  <si>
+    <t>342.644999301</t>
+  </si>
+  <si>
+    <t>342.43464186787605</t>
+  </si>
+  <si>
+    <t>293.514635026</t>
+  </si>
+  <si>
+    <t>293.3386881388724</t>
+  </si>
+  <si>
+    <t>345.094298743</t>
+  </si>
+  <si>
+    <t>344.89057897403836</t>
+  </si>
+  <si>
+    <t>335.032422784</t>
+  </si>
+  <si>
+    <t>334.83038944005966</t>
+  </si>
+  <si>
+    <t>334.925818297</t>
+  </si>
+  <si>
+    <t>334.80251708999276</t>
+  </si>
+  <si>
+    <t>422.563493557</t>
+  </si>
+  <si>
+    <t>422.3185141608119</t>
+  </si>
+  <si>
+    <t>314.301161008</t>
+  </si>
+  <si>
+    <t>314.12251192703843</t>
+  </si>
+  <si>
+    <t>155.390236363</t>
+  </si>
+  <si>
+    <t>155.32270059734583</t>
+  </si>
+  <si>
+    <t>93.717290326</t>
+  </si>
+  <si>
+    <t>93.70649425312877</t>
+  </si>
+  <si>
+    <t>2342.617088</t>
+  </si>
+  <si>
+    <t>49.473560309</t>
+  </si>
+  <si>
+    <t>49.4866245649755</t>
+  </si>
+  <si>
+    <t>1271.894016</t>
+  </si>
+  <si>
+    <t>ERROR (2)</t>
+  </si>
+  <si>
+    <t>5.602110664</t>
+  </si>
+  <si>
+    <t>5.642641998827457</t>
+  </si>
+  <si>
+    <t>70.75430399999999</t>
+  </si>
+  <si>
+    <t>96.204281425</t>
+  </si>
+  <si>
+    <t>96.18664776906371</t>
+  </si>
+  <si>
+    <t>2146.537472</t>
+  </si>
+  <si>
+    <t>178.808169366</t>
+  </si>
+  <si>
+    <t>178.7344089858234</t>
+  </si>
+  <si>
+    <t>179.800988995</t>
+  </si>
+  <si>
+    <t>179.70659842342138</t>
+  </si>
+  <si>
+    <t>148.405981168</t>
+  </si>
+  <si>
+    <t>148.37840519472957</t>
+  </si>
+  <si>
+    <t>184.631609344</t>
+  </si>
+  <si>
+    <t>184.55404449999332</t>
+  </si>
+  <si>
+    <t>189.795223887</t>
+  </si>
+  <si>
+    <t>189.69056056439877</t>
+  </si>
+  <si>
+    <t>293.042166391</t>
+  </si>
+  <si>
+    <t>292.8744096159935</t>
+  </si>
+  <si>
+    <t>201.017043258</t>
+  </si>
+  <si>
+    <t>200.97035209462047</t>
+  </si>
+  <si>
+    <t>198.007560231</t>
+  </si>
+  <si>
+    <t>197.9105514921248</t>
+  </si>
+  <si>
+    <t>191.625641689</t>
+  </si>
+  <si>
+    <t>191.67464865371585</t>
+  </si>
+  <si>
+    <t>159.997067595</t>
+  </si>
+  <si>
+    <t>159.92257740721107</t>
+  </si>
+  <si>
+    <t>170.030729682</t>
+  </si>
+  <si>
+    <t>169.94647021591663</t>
+  </si>
+  <si>
+    <t>194.731146695</t>
+  </si>
+  <si>
+    <t>194.68271551281214</t>
+  </si>
+  <si>
+    <t>210.88002713</t>
+  </si>
+  <si>
+    <t>210.77224197983742</t>
+  </si>
+  <si>
+    <t>163.410251995</t>
+  </si>
+  <si>
+    <t>163.32236217334867</t>
+  </si>
+  <si>
+    <t>151.408041255</t>
+  </si>
+  <si>
+    <t>151.35439602285624</t>
+  </si>
+  <si>
+    <t>152.358739687</t>
+  </si>
+  <si>
+    <t>152.28264424577355</t>
+  </si>
+  <si>
+    <t>258.933538106</t>
+  </si>
+  <si>
+    <t>258.7865254506469</t>
+  </si>
+  <si>
+    <t>167.825845343</t>
+  </si>
+  <si>
+    <t>167.7383811287582</t>
+  </si>
+  <si>
+    <t>iProver v3.1 (CASC-27)</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1073,9 +2540,11 @@
     <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,8 +2572,20 @@
       <c r="I1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K1" t="s">
+        <v>725</v>
+      </c>
+      <c r="L1" t="s">
+        <v>725</v>
+      </c>
+      <c r="M1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1132,8 +2613,20 @@
       <c r="I2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1161,8 +2654,20 @@
       <c r="I3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1190,8 +2695,20 @@
       <c r="I4">
         <v>1721.22521599999</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" t="s">
+        <v>239</v>
+      </c>
+      <c r="M4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1219,8 +2736,20 @@
       <c r="I5">
         <v>1611.9193599999901</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" t="s">
+        <v>242</v>
+      </c>
+      <c r="M5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1248,8 +2777,20 @@
       <c r="I6">
         <v>1773.7850879999901</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1277,8 +2818,20 @@
       <c r="I7">
         <v>1904.074752</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1306,8 +2859,20 @@
       <c r="I8">
         <v>1792.7864319999901</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1335,8 +2900,20 @@
       <c r="I9">
         <v>1489.362944</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" t="s">
+        <v>254</v>
+      </c>
+      <c r="M9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1364,8 +2941,20 @@
       <c r="I10">
         <v>1176.8832</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1393,8 +2982,20 @@
       <c r="I11">
         <v>1125.0974719999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K11" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" t="s">
+        <v>259</v>
+      </c>
+      <c r="M11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1422,8 +3023,20 @@
       <c r="I12">
         <v>1348.726784</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" t="s">
+        <v>261</v>
+      </c>
+      <c r="M12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1451,8 +3064,20 @@
       <c r="I13">
         <v>761.24569599999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" t="s">
+        <v>263</v>
+      </c>
+      <c r="M13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1480,8 +3105,20 @@
       <c r="I14">
         <v>1585.9671039999901</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" t="s">
+        <v>265</v>
+      </c>
+      <c r="M14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1509,8 +3146,20 @@
       <c r="I15">
         <v>954.449919999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" t="s">
+        <v>267</v>
+      </c>
+      <c r="M15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1538,8 +3187,20 @@
       <c r="I16">
         <v>1369.300992</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +3228,20 @@
       <c r="I17">
         <v>1169.2892159999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" t="s">
+        <v>270</v>
+      </c>
+      <c r="L17" t="s">
+        <v>271</v>
+      </c>
+      <c r="M17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1596,8 +3269,20 @@
       <c r="I18">
         <v>1009.639424</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" t="s">
+        <v>272</v>
+      </c>
+      <c r="L18" t="s">
+        <v>273</v>
+      </c>
+      <c r="M18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1625,8 +3310,20 @@
       <c r="I19">
         <v>1196.0238079999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1654,8 +3351,20 @@
       <c r="I20">
         <v>951.7056</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" t="s">
+        <v>276</v>
+      </c>
+      <c r="L20" t="s">
+        <v>277</v>
+      </c>
+      <c r="M20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1683,8 +3392,20 @@
       <c r="I21">
         <v>1213.9806719999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>236</v>
+      </c>
+      <c r="K21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" t="s">
+        <v>279</v>
+      </c>
+      <c r="M21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1712,8 +3433,20 @@
       <c r="I22">
         <v>1092.2188799999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22" t="s">
+        <v>281</v>
+      </c>
+      <c r="M22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1741,8 +3474,20 @@
       <c r="I23">
         <v>1246.220288</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" t="s">
+        <v>283</v>
+      </c>
+      <c r="M23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1770,8 +3515,20 @@
       <c r="I24">
         <v>916.31206399999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>284</v>
+      </c>
+      <c r="L24" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1799,8 +3556,20 @@
       <c r="I25">
         <v>1596.575744</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1828,8 +3597,20 @@
       <c r="I26">
         <v>2102.259712</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>288</v>
+      </c>
+      <c r="L26" t="s">
+        <v>289</v>
+      </c>
+      <c r="M26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1857,8 +3638,20 @@
       <c r="I27">
         <v>2132.668416</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
+        <v>291</v>
+      </c>
+      <c r="M27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1886,8 +3679,20 @@
       <c r="I28">
         <v>1339.6787199999901</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>292</v>
+      </c>
+      <c r="L28" t="s">
+        <v>293</v>
+      </c>
+      <c r="M28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1915,8 +3720,20 @@
       <c r="I29">
         <v>1011.474432</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" t="s">
+        <v>295</v>
+      </c>
+      <c r="M29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1944,8 +3761,20 @@
       <c r="I30">
         <v>496.82432</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" t="s">
+        <v>297</v>
+      </c>
+      <c r="L30" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1973,8 +3802,20 @@
       <c r="I31">
         <v>800.69836799999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>299</v>
+      </c>
+      <c r="L31" t="s">
+        <v>300</v>
+      </c>
+      <c r="M31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2002,8 +3843,20 @@
       <c r="I32">
         <v>7.7332479999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>302</v>
+      </c>
+      <c r="M32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2031,8 +3884,20 @@
       <c r="I33">
         <v>274.45247999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +3925,20 @@
       <c r="I34">
         <v>384.61030399999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2089,8 +3966,20 @@
       <c r="I35">
         <v>722.58764799999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2118,8 +4007,20 @@
       <c r="I36">
         <v>768.97894399999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2147,8 +4048,20 @@
       <c r="I37">
         <v>807.26425599999902</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2176,8 +4089,20 @@
       <c r="I38">
         <v>1541.6565759999901</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>236</v>
+      </c>
+      <c r="K38" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s">
+        <v>318</v>
+      </c>
+      <c r="M38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2205,8 +4130,20 @@
       <c r="I39">
         <v>1329.979392</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2234,8 +4171,20 @@
       <c r="I40">
         <v>1540.8742399999901</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>236</v>
+      </c>
+      <c r="K40" t="s">
+        <v>321</v>
+      </c>
+      <c r="L40" t="s">
+        <v>322</v>
+      </c>
+      <c r="M40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2263,8 +4212,20 @@
       <c r="I41">
         <v>1285.148672</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2292,8 +4253,20 @@
       <c r="I42">
         <v>1017.638912</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s">
+        <v>326</v>
+      </c>
+      <c r="M42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2321,8 +4294,20 @@
       <c r="I43">
         <v>792.17868799999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>236</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2350,8 +4335,20 @@
       <c r="I44">
         <v>956.54707199999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>236</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2379,8 +4376,20 @@
       <c r="I45">
         <v>962.06028799999899</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" t="s">
+        <v>236</v>
+      </c>
+      <c r="K45" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2408,8 +4417,20 @@
       <c r="I46">
         <v>847.63033599999903</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>236</v>
+      </c>
+      <c r="K46" t="s">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s">
+        <v>334</v>
+      </c>
+      <c r="M46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2437,8 +4458,20 @@
       <c r="I47">
         <v>868.33971199999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" t="s">
+        <v>236</v>
+      </c>
+      <c r="K47" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2466,8 +4499,20 @@
       <c r="I48">
         <v>593.22367999999994</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>236</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2495,8 +4540,20 @@
       <c r="I49">
         <v>1341.247488</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
+        <v>236</v>
+      </c>
+      <c r="K49" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2524,8 +4581,20 @@
       <c r="I50">
         <v>1269.1455999999901</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" t="s">
+        <v>236</v>
+      </c>
+      <c r="K50" t="s">
+        <v>341</v>
+      </c>
+      <c r="L50" t="s">
+        <v>342</v>
+      </c>
+      <c r="M50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -2553,8 +4622,20 @@
       <c r="I51">
         <v>1208.6026239999901</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
+        <v>236</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -2582,8 +4663,20 @@
       <c r="I52">
         <v>1676.5378559999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>236</v>
+      </c>
+      <c r="K52" t="s">
+        <v>345</v>
+      </c>
+      <c r="L52" t="s">
+        <v>346</v>
+      </c>
+      <c r="M52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -2611,8 +4704,20 @@
       <c r="I53">
         <v>966.38156799999899</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>236</v>
+      </c>
+      <c r="K53" t="s">
+        <v>347</v>
+      </c>
+      <c r="L53" t="s">
+        <v>348</v>
+      </c>
+      <c r="M53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -2640,8 +4745,20 @@
       <c r="I54">
         <v>912.91238399999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" t="s">
+        <v>349</v>
+      </c>
+      <c r="L54" t="s">
+        <v>350</v>
+      </c>
+      <c r="M54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -2669,8 +4786,20 @@
       <c r="I55">
         <v>1471.13983999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>236</v>
+      </c>
+      <c r="K55" t="s">
+        <v>351</v>
+      </c>
+      <c r="L55" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +4827,20 @@
       <c r="I56">
         <v>1787.9326719999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>236</v>
+      </c>
+      <c r="K56" t="s">
+        <v>353</v>
+      </c>
+      <c r="L56" t="s">
+        <v>354</v>
+      </c>
+      <c r="M56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2727,8 +4868,20 @@
       <c r="I57">
         <v>1449.5170559999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" t="s">
+        <v>355</v>
+      </c>
+      <c r="L57" t="s">
+        <v>356</v>
+      </c>
+      <c r="M57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2756,8 +4909,20 @@
       <c r="I58">
         <v>1225.6051199999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>236</v>
+      </c>
+      <c r="K58" t="s">
+        <v>357</v>
+      </c>
+      <c r="L58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2785,8 +4950,20 @@
       <c r="I59">
         <v>1312.9277439999901</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
+        <v>236</v>
+      </c>
+      <c r="K59" t="s">
+        <v>359</v>
+      </c>
+      <c r="L59" t="s">
+        <v>360</v>
+      </c>
+      <c r="M59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2814,8 +4991,20 @@
       <c r="I60">
         <v>1302.843392</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" t="s">
+        <v>236</v>
+      </c>
+      <c r="K60" t="s">
+        <v>361</v>
+      </c>
+      <c r="L60" t="s">
+        <v>362</v>
+      </c>
+      <c r="M60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -2843,8 +5032,20 @@
       <c r="I61">
         <v>543.41222399999901</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>236</v>
+      </c>
+      <c r="K61" t="s">
+        <v>363</v>
+      </c>
+      <c r="L61" t="s">
+        <v>364</v>
+      </c>
+      <c r="M61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -2872,8 +5073,20 @@
       <c r="I62">
         <v>772.90700800000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
+        <v>236</v>
+      </c>
+      <c r="K62" t="s">
+        <v>365</v>
+      </c>
+      <c r="L62" t="s">
+        <v>366</v>
+      </c>
+      <c r="M62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -2901,8 +5114,20 @@
       <c r="I63">
         <v>969.92051199999901</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
+        <v>236</v>
+      </c>
+      <c r="K63" t="s">
+        <v>367</v>
+      </c>
+      <c r="L63" t="s">
+        <v>368</v>
+      </c>
+      <c r="M63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -2930,8 +5155,20 @@
       <c r="I64">
         <v>1221.9637760000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
+        <v>236</v>
+      </c>
+      <c r="K64" t="s">
+        <v>369</v>
+      </c>
+      <c r="L64" t="s">
+        <v>370</v>
+      </c>
+      <c r="M64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2959,8 +5196,20 @@
       <c r="I65">
         <v>1401.2661759999901</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
+        <v>236</v>
+      </c>
+      <c r="K65" t="s">
+        <v>371</v>
+      </c>
+      <c r="L65" t="s">
+        <v>372</v>
+      </c>
+      <c r="M65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2988,8 +5237,20 @@
       <c r="I66">
         <v>1216.5160959999901</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
+        <v>236</v>
+      </c>
+      <c r="K66" t="s">
+        <v>373</v>
+      </c>
+      <c r="L66" t="s">
+        <v>374</v>
+      </c>
+      <c r="M66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3017,8 +5278,20 @@
       <c r="I67">
         <v>1098.113024</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>236</v>
+      </c>
+      <c r="K67" t="s">
+        <v>375</v>
+      </c>
+      <c r="L67" t="s">
+        <v>376</v>
+      </c>
+      <c r="M67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3046,8 +5319,20 @@
       <c r="I68">
         <v>1400.233984</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>236</v>
+      </c>
+      <c r="K68" t="s">
+        <v>377</v>
+      </c>
+      <c r="L68" t="s">
+        <v>378</v>
+      </c>
+      <c r="M68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3075,8 +5360,20 @@
       <c r="I69">
         <v>688.51302399999997</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>236</v>
+      </c>
+      <c r="K69" t="s">
+        <v>379</v>
+      </c>
+      <c r="L69" t="s">
+        <v>380</v>
+      </c>
+      <c r="M69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3104,8 +5401,20 @@
       <c r="I70">
         <v>999.80083199999899</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>236</v>
+      </c>
+      <c r="K70" t="s">
+        <v>381</v>
+      </c>
+      <c r="L70" t="s">
+        <v>382</v>
+      </c>
+      <c r="M70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3133,8 +5442,20 @@
       <c r="I71">
         <v>1116.9832959999901</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
+        <v>236</v>
+      </c>
+      <c r="K71" t="s">
+        <v>383</v>
+      </c>
+      <c r="L71" t="s">
+        <v>384</v>
+      </c>
+      <c r="M71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3162,8 +5483,20 @@
       <c r="I72">
         <v>1815.0768639999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
+        <v>236</v>
+      </c>
+      <c r="K72" t="s">
+        <v>385</v>
+      </c>
+      <c r="L72" t="s">
+        <v>386</v>
+      </c>
+      <c r="M72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3191,8 +5524,20 @@
       <c r="I73">
         <v>794.67724799999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
+        <v>236</v>
+      </c>
+      <c r="K73" t="s">
+        <v>387</v>
+      </c>
+      <c r="L73" t="s">
+        <v>388</v>
+      </c>
+      <c r="M73" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3220,8 +5565,20 @@
       <c r="I74">
         <v>1325.387776</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
+        <v>236</v>
+      </c>
+      <c r="K74" t="s">
+        <v>389</v>
+      </c>
+      <c r="L74" t="s">
+        <v>390</v>
+      </c>
+      <c r="M74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3249,8 +5606,20 @@
       <c r="I75">
         <v>804.11033599999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>236</v>
+      </c>
+      <c r="K75" t="s">
+        <v>391</v>
+      </c>
+      <c r="L75" t="s">
+        <v>392</v>
+      </c>
+      <c r="M75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3278,8 +5647,20 @@
       <c r="I76">
         <v>2014.2940159999901</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" t="s">
+        <v>236</v>
+      </c>
+      <c r="K76" t="s">
+        <v>393</v>
+      </c>
+      <c r="L76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3307,8 +5688,20 @@
       <c r="I77">
         <v>2225.3117440000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" t="s">
+        <v>236</v>
+      </c>
+      <c r="K77" t="s">
+        <v>395</v>
+      </c>
+      <c r="L77" t="s">
+        <v>396</v>
+      </c>
+      <c r="M77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3336,8 +5729,20 @@
       <c r="I78">
         <v>145.87904</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" t="s">
+        <v>397</v>
+      </c>
+      <c r="L78" t="s">
+        <v>398</v>
+      </c>
+      <c r="M78" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3365,8 +5770,20 @@
       <c r="I79">
         <v>931.07814399999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" t="s">
+        <v>400</v>
+      </c>
+      <c r="L79" t="s">
+        <v>401</v>
+      </c>
+      <c r="M79" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3394,8 +5811,20 @@
       <c r="I80">
         <v>1127.600128</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" t="s">
+        <v>236</v>
+      </c>
+      <c r="K80" t="s">
+        <v>402</v>
+      </c>
+      <c r="L80" t="s">
+        <v>403</v>
+      </c>
+      <c r="M80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3423,8 +5852,20 @@
       <c r="I81">
         <v>22.278143999999902</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" t="s">
+        <v>234</v>
+      </c>
+      <c r="K81" t="s">
+        <v>404</v>
+      </c>
+      <c r="L81" t="s">
+        <v>405</v>
+      </c>
+      <c r="M81" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3452,8 +5893,20 @@
       <c r="I82">
         <v>1541.115904</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" t="s">
+        <v>236</v>
+      </c>
+      <c r="K82" t="s">
+        <v>407</v>
+      </c>
+      <c r="L82" t="s">
+        <v>408</v>
+      </c>
+      <c r="M82" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3481,8 +5934,20 @@
       <c r="I83">
         <v>1510.989824</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
+        <v>236</v>
+      </c>
+      <c r="K83" t="s">
+        <v>409</v>
+      </c>
+      <c r="L83" t="s">
+        <v>410</v>
+      </c>
+      <c r="M83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3510,8 +5975,20 @@
       <c r="I84">
         <v>1031.053312</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
+        <v>234</v>
+      </c>
+      <c r="K84" t="s">
+        <v>411</v>
+      </c>
+      <c r="L84" t="s">
+        <v>412</v>
+      </c>
+      <c r="M84" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -3539,8 +6016,20 @@
       <c r="I85">
         <v>1034.6700799999901</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
+        <v>234</v>
+      </c>
+      <c r="K85" t="s">
+        <v>414</v>
+      </c>
+      <c r="L85" t="s">
+        <v>415</v>
+      </c>
+      <c r="M85" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3568,8 +6057,20 @@
       <c r="I86">
         <v>1528.930304</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
+        <v>236</v>
+      </c>
+      <c r="K86" t="s">
+        <v>417</v>
+      </c>
+      <c r="L86" t="s">
+        <v>418</v>
+      </c>
+      <c r="M86" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3597,8 +6098,20 @@
       <c r="I87">
         <v>1720.3036159999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
+        <v>236</v>
+      </c>
+      <c r="K87" t="s">
+        <v>419</v>
+      </c>
+      <c r="L87" t="s">
+        <v>420</v>
+      </c>
+      <c r="M87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -3626,8 +6139,20 @@
       <c r="I88">
         <v>886.42355199999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
+        <v>236</v>
+      </c>
+      <c r="K88" t="s">
+        <v>421</v>
+      </c>
+      <c r="L88" t="s">
+        <v>422</v>
+      </c>
+      <c r="M88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -3655,8 +6180,20 @@
       <c r="I89">
         <v>2929.9752960000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
+        <v>236</v>
+      </c>
+      <c r="K89" t="s">
+        <v>423</v>
+      </c>
+      <c r="L89" t="s">
+        <v>424</v>
+      </c>
+      <c r="M89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -3684,8 +6221,20 @@
       <c r="I90">
         <v>1660.3996159999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
+        <v>236</v>
+      </c>
+      <c r="K90" t="s">
+        <v>425</v>
+      </c>
+      <c r="L90" t="s">
+        <v>426</v>
+      </c>
+      <c r="M90" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -3713,8 +6262,20 @@
       <c r="I91">
         <v>1290.5144319999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
+        <v>235</v>
+      </c>
+      <c r="K91" t="s">
+        <v>427</v>
+      </c>
+      <c r="L91" t="s">
+        <v>428</v>
+      </c>
+      <c r="M91" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -3742,8 +6303,20 @@
       <c r="I92">
         <v>897.62201599999901</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" t="s">
+        <v>236</v>
+      </c>
+      <c r="K92" t="s">
+        <v>430</v>
+      </c>
+      <c r="L92" t="s">
+        <v>431</v>
+      </c>
+      <c r="M92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3771,8 +6344,20 @@
       <c r="I93">
         <v>1714.0162559999901</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" t="s">
+        <v>236</v>
+      </c>
+      <c r="K93" t="s">
+        <v>432</v>
+      </c>
+      <c r="L93" t="s">
+        <v>433</v>
+      </c>
+      <c r="M93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3800,8 +6385,20 @@
       <c r="I94">
         <v>1504.436224</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
+        <v>236</v>
+      </c>
+      <c r="K94" t="s">
+        <v>434</v>
+      </c>
+      <c r="L94" t="s">
+        <v>435</v>
+      </c>
+      <c r="M94" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -3829,8 +6426,20 @@
       <c r="I95">
         <v>2282.856448</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" t="s">
+        <v>236</v>
+      </c>
+      <c r="K95" t="s">
+        <v>436</v>
+      </c>
+      <c r="L95" t="s">
+        <v>437</v>
+      </c>
+      <c r="M95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -3858,8 +6467,20 @@
       <c r="I96">
         <v>1795.0105599999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" t="s">
+        <v>236</v>
+      </c>
+      <c r="K96" t="s">
+        <v>438</v>
+      </c>
+      <c r="L96" t="s">
+        <v>439</v>
+      </c>
+      <c r="M96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -3887,8 +6508,20 @@
       <c r="I97">
         <v>13.369344</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
+        <v>235</v>
+      </c>
+      <c r="K97" t="s">
+        <v>440</v>
+      </c>
+      <c r="L97" t="s">
+        <v>441</v>
+      </c>
+      <c r="M97" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -3916,8 +6549,20 @@
       <c r="I98">
         <v>208.654336</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" t="s">
+        <v>235</v>
+      </c>
+      <c r="K98" t="s">
+        <v>443</v>
+      </c>
+      <c r="L98" t="s">
+        <v>444</v>
+      </c>
+      <c r="M98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3945,8 +6590,20 @@
       <c r="I99">
         <v>835.70687999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
+        <v>236</v>
+      </c>
+      <c r="K99" t="s">
+        <v>446</v>
+      </c>
+      <c r="L99" t="s">
+        <v>447</v>
+      </c>
+      <c r="M99" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3974,8 +6631,20 @@
       <c r="I100">
         <v>1773.2608</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" t="s">
+        <v>236</v>
+      </c>
+      <c r="K100" t="s">
+        <v>448</v>
+      </c>
+      <c r="L100" t="s">
+        <v>449</v>
+      </c>
+      <c r="M100" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4003,8 +6672,20 @@
       <c r="I101">
         <v>1987.170304</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" t="s">
+        <v>236</v>
+      </c>
+      <c r="K101" t="s">
+        <v>450</v>
+      </c>
+      <c r="L101" t="s">
+        <v>451</v>
+      </c>
+      <c r="M101" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -4032,8 +6713,20 @@
       <c r="I102">
         <v>1700.9131519999901</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" t="s">
+        <v>236</v>
+      </c>
+      <c r="K102" t="s">
+        <v>452</v>
+      </c>
+      <c r="L102" t="s">
+        <v>453</v>
+      </c>
+      <c r="M102" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -4061,8 +6754,20 @@
       <c r="I103">
         <v>1866.1744639999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" t="s">
+        <v>236</v>
+      </c>
+      <c r="K103" t="s">
+        <v>454</v>
+      </c>
+      <c r="L103" t="s">
+        <v>455</v>
+      </c>
+      <c r="M103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -4090,8 +6795,20 @@
       <c r="I104">
         <v>1416.482816</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" t="s">
+        <v>236</v>
+      </c>
+      <c r="K104" t="s">
+        <v>456</v>
+      </c>
+      <c r="L104" t="s">
+        <v>457</v>
+      </c>
+      <c r="M104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -4119,8 +6836,20 @@
       <c r="I105">
         <v>1549.910016</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" t="s">
+        <v>236</v>
+      </c>
+      <c r="K105" t="s">
+        <v>458</v>
+      </c>
+      <c r="L105" t="s">
+        <v>459</v>
+      </c>
+      <c r="M105" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -4148,8 +6877,20 @@
       <c r="I106">
         <v>1765.86752</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" t="s">
+        <v>236</v>
+      </c>
+      <c r="K106" t="s">
+        <v>460</v>
+      </c>
+      <c r="L106" t="s">
+        <v>461</v>
+      </c>
+      <c r="M106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -4177,8 +6918,20 @@
       <c r="I107">
         <v>1113.7023999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" t="s">
+        <v>236</v>
+      </c>
+      <c r="K107" t="s">
+        <v>462</v>
+      </c>
+      <c r="L107" t="s">
+        <v>463</v>
+      </c>
+      <c r="M107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -4206,8 +6959,20 @@
       <c r="I108">
         <v>1446.0313599999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" t="s">
+        <v>236</v>
+      </c>
+      <c r="K108" t="s">
+        <v>464</v>
+      </c>
+      <c r="L108" t="s">
+        <v>465</v>
+      </c>
+      <c r="M108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -4235,8 +7000,20 @@
       <c r="I109">
         <v>939.905023999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" t="s">
+        <v>236</v>
+      </c>
+      <c r="K109" t="s">
+        <v>466</v>
+      </c>
+      <c r="L109" t="s">
+        <v>467</v>
+      </c>
+      <c r="M109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -4264,8 +7041,20 @@
       <c r="I110">
         <v>1513.8734079999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" t="s">
+        <v>236</v>
+      </c>
+      <c r="K110" t="s">
+        <v>468</v>
+      </c>
+      <c r="L110" t="s">
+        <v>469</v>
+      </c>
+      <c r="M110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -4293,8 +7082,20 @@
       <c r="I111">
         <v>792.70707199999902</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" t="s">
+        <v>236</v>
+      </c>
+      <c r="K111" t="s">
+        <v>470</v>
+      </c>
+      <c r="L111" t="s">
+        <v>471</v>
+      </c>
+      <c r="M111" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -4322,8 +7123,20 @@
       <c r="I112">
         <v>1501.9499519999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" t="s">
+        <v>236</v>
+      </c>
+      <c r="K112" t="s">
+        <v>472</v>
+      </c>
+      <c r="L112" t="s">
+        <v>473</v>
+      </c>
+      <c r="M112" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -4351,8 +7164,20 @@
       <c r="I113">
         <v>1395.3761279999901</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" t="s">
+        <v>236</v>
+      </c>
+      <c r="K113" t="s">
+        <v>474</v>
+      </c>
+      <c r="L113" t="s">
+        <v>475</v>
+      </c>
+      <c r="M113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -4380,8 +7205,20 @@
       <c r="I114">
         <v>967.42604799999901</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" t="s">
+        <v>236</v>
+      </c>
+      <c r="K114" t="s">
+        <v>476</v>
+      </c>
+      <c r="L114" t="s">
+        <v>477</v>
+      </c>
+      <c r="M114" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -4409,8 +7246,20 @@
       <c r="I115">
         <v>1501.94585599999</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" t="s">
+        <v>236</v>
+      </c>
+      <c r="K115" t="s">
+        <v>478</v>
+      </c>
+      <c r="L115" t="s">
+        <v>479</v>
+      </c>
+      <c r="M115" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -4438,8 +7287,20 @@
       <c r="I116">
         <v>985.52627199999995</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" t="s">
+        <v>236</v>
+      </c>
+      <c r="K116" t="s">
+        <v>480</v>
+      </c>
+      <c r="L116" t="s">
+        <v>481</v>
+      </c>
+      <c r="M116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -4467,8 +7328,20 @@
       <c r="I117">
         <v>110.092288</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" t="s">
+        <v>236</v>
+      </c>
+      <c r="K117" t="s">
+        <v>482</v>
+      </c>
+      <c r="L117" t="s">
+        <v>483</v>
+      </c>
+      <c r="M117" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -4496,8 +7369,20 @@
       <c r="I118">
         <v>1888.735232</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" t="s">
+        <v>236</v>
+      </c>
+      <c r="K118" t="s">
+        <v>484</v>
+      </c>
+      <c r="L118" t="s">
+        <v>485</v>
+      </c>
+      <c r="M118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -4525,8 +7410,20 @@
       <c r="I119">
         <v>1005.71135999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" t="s">
+        <v>236</v>
+      </c>
+      <c r="K119" t="s">
+        <v>486</v>
+      </c>
+      <c r="L119" t="s">
+        <v>487</v>
+      </c>
+      <c r="M119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -4554,8 +7451,20 @@
       <c r="I120">
         <v>1763.3075199999901</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" t="s">
+        <v>236</v>
+      </c>
+      <c r="K120" t="s">
+        <v>488</v>
+      </c>
+      <c r="L120" t="s">
+        <v>489</v>
+      </c>
+      <c r="M120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -4583,8 +7492,20 @@
       <c r="I121">
         <v>1281.0936319999901</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" t="s">
+        <v>236</v>
+      </c>
+      <c r="K121" t="s">
+        <v>490</v>
+      </c>
+      <c r="L121" t="s">
+        <v>491</v>
+      </c>
+      <c r="M121" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -4612,8 +7533,20 @@
       <c r="I122">
         <v>1365.3688319999901</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" t="s">
+        <v>236</v>
+      </c>
+      <c r="K122" t="s">
+        <v>492</v>
+      </c>
+      <c r="L122" t="s">
+        <v>493</v>
+      </c>
+      <c r="M122" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -4641,8 +7574,20 @@
       <c r="I123">
         <v>1366.6795519999901</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" t="s">
+        <v>236</v>
+      </c>
+      <c r="K123" t="s">
+        <v>494</v>
+      </c>
+      <c r="L123" t="s">
+        <v>495</v>
+      </c>
+      <c r="M123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -4670,8 +7615,20 @@
       <c r="I124">
         <v>1090.7647999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" t="s">
+        <v>236</v>
+      </c>
+      <c r="K124" t="s">
+        <v>496</v>
+      </c>
+      <c r="L124" t="s">
+        <v>497</v>
+      </c>
+      <c r="M124" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -4699,8 +7656,20 @@
       <c r="I125">
         <v>910.24588799999901</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" t="s">
+        <v>236</v>
+      </c>
+      <c r="K125" t="s">
+        <v>498</v>
+      </c>
+      <c r="L125" t="s">
+        <v>499</v>
+      </c>
+      <c r="M125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -4728,8 +7697,20 @@
       <c r="I126">
         <v>921.42387199999996</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" t="s">
+        <v>236</v>
+      </c>
+      <c r="K126" t="s">
+        <v>500</v>
+      </c>
+      <c r="L126" t="s">
+        <v>501</v>
+      </c>
+      <c r="M126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -4757,8 +7738,20 @@
       <c r="I127">
         <v>1115.27936</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" t="s">
+        <v>236</v>
+      </c>
+      <c r="K127" t="s">
+        <v>502</v>
+      </c>
+      <c r="L127" t="s">
+        <v>503</v>
+      </c>
+      <c r="M127" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -4786,8 +7779,20 @@
       <c r="I128">
         <v>1148.5798399999901</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" t="s">
+        <v>236</v>
+      </c>
+      <c r="K128" t="s">
+        <v>504</v>
+      </c>
+      <c r="L128" t="s">
+        <v>505</v>
+      </c>
+      <c r="M128" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -4815,8 +7820,20 @@
       <c r="I129">
         <v>971.48928000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" t="s">
+        <v>236</v>
+      </c>
+      <c r="K129" t="s">
+        <v>506</v>
+      </c>
+      <c r="L129" t="s">
+        <v>507</v>
+      </c>
+      <c r="M129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -4844,8 +7861,20 @@
       <c r="I130">
         <v>1314.910208</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" t="s">
+        <v>236</v>
+      </c>
+      <c r="K130" t="s">
+        <v>508</v>
+      </c>
+      <c r="L130" t="s">
+        <v>509</v>
+      </c>
+      <c r="M130" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -4873,8 +7902,20 @@
       <c r="I131">
         <v>1274.7939839999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" t="s">
+        <v>235</v>
+      </c>
+      <c r="K131" t="s">
+        <v>510</v>
+      </c>
+      <c r="L131" t="s">
+        <v>511</v>
+      </c>
+      <c r="M131" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -4902,8 +7943,20 @@
       <c r="I132">
         <v>1663.6928</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" t="s">
+        <v>235</v>
+      </c>
+      <c r="K132" t="s">
+        <v>513</v>
+      </c>
+      <c r="L132" t="s">
+        <v>514</v>
+      </c>
+      <c r="M132" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -4931,8 +7984,20 @@
       <c r="I133">
         <v>1490.2272</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" t="s">
+        <v>236</v>
+      </c>
+      <c r="K133" t="s">
+        <v>516</v>
+      </c>
+      <c r="L133" t="s">
+        <v>517</v>
+      </c>
+      <c r="M133" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -4960,8 +8025,20 @@
       <c r="I134">
         <v>1250.63168</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" t="s">
+        <v>236</v>
+      </c>
+      <c r="K134" t="s">
+        <v>518</v>
+      </c>
+      <c r="L134" t="s">
+        <v>519</v>
+      </c>
+      <c r="M134" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -4989,8 +8066,20 @@
       <c r="I135">
         <v>1668.9315839999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" t="s">
+        <v>236</v>
+      </c>
+      <c r="K135" t="s">
+        <v>520</v>
+      </c>
+      <c r="L135" t="s">
+        <v>521</v>
+      </c>
+      <c r="M135" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -5018,8 +8107,20 @@
       <c r="I136">
         <v>1755.160576</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" t="s">
+        <v>236</v>
+      </c>
+      <c r="K136" t="s">
+        <v>522</v>
+      </c>
+      <c r="L136" t="s">
+        <v>523</v>
+      </c>
+      <c r="M136" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -5047,8 +8148,20 @@
       <c r="I137">
         <v>1662.9145599999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" t="s">
+        <v>236</v>
+      </c>
+      <c r="K137" t="s">
+        <v>524</v>
+      </c>
+      <c r="L137" t="s">
+        <v>525</v>
+      </c>
+      <c r="M137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -5076,8 +8189,20 @@
       <c r="I138">
         <v>1129.582592</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" t="s">
+        <v>236</v>
+      </c>
+      <c r="K138" t="s">
+        <v>526</v>
+      </c>
+      <c r="L138" t="s">
+        <v>527</v>
+      </c>
+      <c r="M138" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -5105,8 +8230,20 @@
       <c r="I139">
         <v>1813.508096</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" t="s">
+        <v>236</v>
+      </c>
+      <c r="K139" t="s">
+        <v>528</v>
+      </c>
+      <c r="L139" t="s">
+        <v>529</v>
+      </c>
+      <c r="M139" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -5134,8 +8271,20 @@
       <c r="I140">
         <v>1558.962176</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" t="s">
+        <v>235</v>
+      </c>
+      <c r="K140" t="s">
+        <v>530</v>
+      </c>
+      <c r="L140" t="s">
+        <v>531</v>
+      </c>
+      <c r="M140" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -5163,8 +8312,20 @@
       <c r="I141">
         <v>228.04889599999899</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" t="s">
+        <v>236</v>
+      </c>
+      <c r="K141" t="s">
+        <v>533</v>
+      </c>
+      <c r="L141" t="s">
+        <v>534</v>
+      </c>
+      <c r="M141" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -5192,8 +8353,20 @@
       <c r="I142">
         <v>1076.2239999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" t="s">
+        <v>235</v>
+      </c>
+      <c r="K142" t="s">
+        <v>535</v>
+      </c>
+      <c r="L142" t="s">
+        <v>536</v>
+      </c>
+      <c r="M142" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -5221,8 +8394,20 @@
       <c r="I143">
         <v>1354.6250239999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" t="s">
+        <v>236</v>
+      </c>
+      <c r="K143" t="s">
+        <v>538</v>
+      </c>
+      <c r="L143" t="s">
+        <v>539</v>
+      </c>
+      <c r="M143" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -5250,8 +8435,20 @@
       <c r="I144">
         <v>228.04889599999899</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" t="s">
+        <v>235</v>
+      </c>
+      <c r="K144" t="s">
+        <v>540</v>
+      </c>
+      <c r="L144" t="s">
+        <v>541</v>
+      </c>
+      <c r="M144" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -5279,8 +8476,20 @@
       <c r="I145">
         <v>1917.4440959999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" t="s">
+        <v>236</v>
+      </c>
+      <c r="K145" t="s">
+        <v>543</v>
+      </c>
+      <c r="L145" t="s">
+        <v>544</v>
+      </c>
+      <c r="M145" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -5308,8 +8517,20 @@
       <c r="I146">
         <v>913.305599999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" t="s">
+        <v>236</v>
+      </c>
+      <c r="K146" t="s">
+        <v>545</v>
+      </c>
+      <c r="L146" t="s">
+        <v>546</v>
+      </c>
+      <c r="M146" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -5337,8 +8558,20 @@
       <c r="I147">
         <v>1277.423616</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" t="s">
+        <v>235</v>
+      </c>
+      <c r="K147" t="s">
+        <v>547</v>
+      </c>
+      <c r="L147" t="s">
+        <v>548</v>
+      </c>
+      <c r="M147" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -5366,8 +8599,20 @@
       <c r="I148">
         <v>2312.8842239999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" t="s">
+        <v>236</v>
+      </c>
+      <c r="K148" t="s">
+        <v>550</v>
+      </c>
+      <c r="L148" t="s">
+        <v>551</v>
+      </c>
+      <c r="M148" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -5395,8 +8640,20 @@
       <c r="I149">
         <v>2453.5285759999902</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" t="s">
+        <v>233</v>
+      </c>
+      <c r="K149" t="s">
+        <v>552</v>
+      </c>
+      <c r="L149" t="s">
+        <v>553</v>
+      </c>
+      <c r="M149" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -5424,8 +8681,20 @@
       <c r="I150">
         <v>1261.559808</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" t="s">
+        <v>235</v>
+      </c>
+      <c r="K150" t="s">
+        <v>555</v>
+      </c>
+      <c r="L150" t="s">
+        <v>556</v>
+      </c>
+      <c r="M150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -5453,8 +8722,20 @@
       <c r="I151">
         <v>1015.26732799999</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" t="s">
+        <v>235</v>
+      </c>
+      <c r="K151" t="s">
+        <v>558</v>
+      </c>
+      <c r="L151" t="s">
+        <v>559</v>
+      </c>
+      <c r="M151" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -5482,8 +8763,20 @@
       <c r="I152">
         <v>1552.5396479999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" t="s">
+        <v>235</v>
+      </c>
+      <c r="K152" t="s">
+        <v>561</v>
+      </c>
+      <c r="L152" t="s">
+        <v>562</v>
+      </c>
+      <c r="M152" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -5511,8 +8804,20 @@
       <c r="I153">
         <v>1907.7488639999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" t="s">
+        <v>236</v>
+      </c>
+      <c r="K153" t="s">
+        <v>564</v>
+      </c>
+      <c r="L153" t="s">
+        <v>565</v>
+      </c>
+      <c r="M153" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -5540,8 +8845,20 @@
       <c r="I154">
         <v>600.43263999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" t="s">
+        <v>235</v>
+      </c>
+      <c r="K154" t="s">
+        <v>566</v>
+      </c>
+      <c r="L154" t="s">
+        <v>567</v>
+      </c>
+      <c r="M154" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -5569,8 +8886,20 @@
       <c r="I155">
         <v>1005.18297599999</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" t="s">
+        <v>234</v>
+      </c>
+      <c r="K155" t="s">
+        <v>569</v>
+      </c>
+      <c r="L155" t="s">
+        <v>570</v>
+      </c>
+      <c r="M155" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -5598,8 +8927,20 @@
       <c r="I156">
         <v>13.889536</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" t="s">
+        <v>235</v>
+      </c>
+      <c r="K156" t="s">
+        <v>572</v>
+      </c>
+      <c r="L156" t="s">
+        <v>573</v>
+      </c>
+      <c r="M156" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -5627,8 +8968,20 @@
       <c r="I157">
         <v>600.43263999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" t="s">
+        <v>235</v>
+      </c>
+      <c r="K157" t="s">
+        <v>575</v>
+      </c>
+      <c r="L157" t="s">
+        <v>576</v>
+      </c>
+      <c r="M157" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -5656,8 +9009,20 @@
       <c r="I158">
         <v>115.990528</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" t="s">
+        <v>234</v>
+      </c>
+      <c r="K158" t="s">
+        <v>577</v>
+      </c>
+      <c r="L158" t="s">
+        <v>578</v>
+      </c>
+      <c r="M158" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -5685,8 +9050,20 @@
       <c r="I159">
         <v>90.300415999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" t="s">
+        <v>234</v>
+      </c>
+      <c r="K159" t="s">
+        <v>580</v>
+      </c>
+      <c r="L159" t="s">
+        <v>581</v>
+      </c>
+      <c r="M159" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -5714,8 +9091,20 @@
       <c r="I160">
         <v>68.149248</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" t="s">
+        <v>234</v>
+      </c>
+      <c r="K160" t="s">
+        <v>583</v>
+      </c>
+      <c r="L160" t="s">
+        <v>584</v>
+      </c>
+      <c r="M160" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -5743,8 +9132,20 @@
       <c r="I161">
         <v>657.96915200000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" t="s">
+        <v>235</v>
+      </c>
+      <c r="K161" t="s">
+        <v>586</v>
+      </c>
+      <c r="L161" t="s">
+        <v>587</v>
+      </c>
+      <c r="M161" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -5772,8 +9173,20 @@
       <c r="I162">
         <v>466.35007999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" t="s">
+        <v>236</v>
+      </c>
+      <c r="K162" t="s">
+        <v>589</v>
+      </c>
+      <c r="L162" t="s">
+        <v>590</v>
+      </c>
+      <c r="M162" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -5801,8 +9214,20 @@
       <c r="I163">
         <v>255.95494399999899</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" t="s">
+        <v>233</v>
+      </c>
+      <c r="K163" t="s">
+        <v>591</v>
+      </c>
+      <c r="L163" t="s">
+        <v>592</v>
+      </c>
+      <c r="M163" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -5830,8 +9255,20 @@
       <c r="I164">
         <v>1894.34265599999</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" t="s">
+        <v>236</v>
+      </c>
+      <c r="K164" t="s">
+        <v>594</v>
+      </c>
+      <c r="L164" t="s">
+        <v>595</v>
+      </c>
+      <c r="M164" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -5859,8 +9296,20 @@
       <c r="I165">
         <v>4000.0020479999998</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" t="s">
+        <v>236</v>
+      </c>
+      <c r="K165" t="s">
+        <v>596</v>
+      </c>
+      <c r="L165" t="s">
+        <v>597</v>
+      </c>
+      <c r="M165" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -5888,8 +9337,20 @@
       <c r="I166">
         <v>387.42016000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" t="s">
+        <v>234</v>
+      </c>
+      <c r="K166" t="s">
+        <v>598</v>
+      </c>
+      <c r="L166" t="s">
+        <v>599</v>
+      </c>
+      <c r="M166" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -5917,8 +9378,20 @@
       <c r="I167">
         <v>586.64550399999996</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" t="s">
+        <v>234</v>
+      </c>
+      <c r="K167" t="s">
+        <v>601</v>
+      </c>
+      <c r="L167" t="s">
+        <v>602</v>
+      </c>
+      <c r="M167" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -5946,8 +9419,20 @@
       <c r="I168">
         <v>2914.2343679999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" t="s">
+        <v>236</v>
+      </c>
+      <c r="K168" t="s">
+        <v>604</v>
+      </c>
+      <c r="L168" t="s">
+        <v>605</v>
+      </c>
+      <c r="M168" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -5975,8 +9460,20 @@
       <c r="I169">
         <v>2927.3579519999998</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" t="s">
+        <v>236</v>
+      </c>
+      <c r="K169" t="s">
+        <v>606</v>
+      </c>
+      <c r="L169" t="s">
+        <v>607</v>
+      </c>
+      <c r="M169" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -6004,8 +9501,20 @@
       <c r="I170">
         <v>3137.59744</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" t="s">
+        <v>236</v>
+      </c>
+      <c r="K170" t="s">
+        <v>608</v>
+      </c>
+      <c r="L170" t="s">
+        <v>609</v>
+      </c>
+      <c r="M170" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -6033,8 +9542,20 @@
       <c r="I171">
         <v>1970.25792</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" t="s">
+        <v>236</v>
+      </c>
+      <c r="K171" t="s">
+        <v>610</v>
+      </c>
+      <c r="L171" t="s">
+        <v>611</v>
+      </c>
+      <c r="M171" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -6062,8 +9583,20 @@
       <c r="I172">
         <v>2671.3538559999902</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" t="s">
+        <v>236</v>
+      </c>
+      <c r="K172" t="s">
+        <v>612</v>
+      </c>
+      <c r="L172" t="s">
+        <v>613</v>
+      </c>
+      <c r="M172" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -6091,8 +9624,20 @@
       <c r="I173">
         <v>2455.0932479999901</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" t="s">
+        <v>236</v>
+      </c>
+      <c r="K173" t="s">
+        <v>614</v>
+      </c>
+      <c r="L173" t="s">
+        <v>615</v>
+      </c>
+      <c r="M173" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -6120,8 +9665,20 @@
       <c r="I174">
         <v>2274.0910079999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" t="s">
+        <v>236</v>
+      </c>
+      <c r="K174" t="s">
+        <v>616</v>
+      </c>
+      <c r="L174" t="s">
+        <v>617</v>
+      </c>
+      <c r="M174" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -6149,8 +9706,20 @@
       <c r="I175">
         <v>1867.8824959999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" t="s">
+        <v>236</v>
+      </c>
+      <c r="K175" t="s">
+        <v>618</v>
+      </c>
+      <c r="L175" t="s">
+        <v>619</v>
+      </c>
+      <c r="M175" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -6178,8 +9747,20 @@
       <c r="I176">
         <v>2290.2128640000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" t="s">
+        <v>236</v>
+      </c>
+      <c r="K176" t="s">
+        <v>620</v>
+      </c>
+      <c r="L176" t="s">
+        <v>621</v>
+      </c>
+      <c r="M176" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -6207,8 +9788,20 @@
       <c r="I177">
         <v>2503.5980799999902</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" t="s">
+        <v>236</v>
+      </c>
+      <c r="K177" t="s">
+        <v>622</v>
+      </c>
+      <c r="L177" t="s">
+        <v>623</v>
+      </c>
+      <c r="M177" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -6236,8 +9829,20 @@
       <c r="I178">
         <v>2286.8049919999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" t="s">
+        <v>236</v>
+      </c>
+      <c r="K178" t="s">
+        <v>624</v>
+      </c>
+      <c r="L178" t="s">
+        <v>625</v>
+      </c>
+      <c r="M178" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -6265,8 +9870,20 @@
       <c r="I179">
         <v>1696.32563199999</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" t="s">
+        <v>236</v>
+      </c>
+      <c r="K179" t="s">
+        <v>626</v>
+      </c>
+      <c r="L179" t="s">
+        <v>627</v>
+      </c>
+      <c r="M179" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -6294,8 +9911,20 @@
       <c r="I180">
         <v>1905.6517119999901</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" t="s">
+        <v>236</v>
+      </c>
+      <c r="K180" t="s">
+        <v>628</v>
+      </c>
+      <c r="L180" t="s">
+        <v>629</v>
+      </c>
+      <c r="M180" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -6323,8 +9952,20 @@
       <c r="I181">
         <v>3213.3529599999902</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" t="s">
+        <v>236</v>
+      </c>
+      <c r="K181" t="s">
+        <v>630</v>
+      </c>
+      <c r="L181" t="s">
+        <v>631</v>
+      </c>
+      <c r="M181" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -6352,8 +9993,20 @@
       <c r="I182">
         <v>2614.8823039999902</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" t="s">
+        <v>236</v>
+      </c>
+      <c r="K182" t="s">
+        <v>632</v>
+      </c>
+      <c r="L182" t="s">
+        <v>633</v>
+      </c>
+      <c r="M182" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -6381,8 +10034,20 @@
       <c r="I183">
         <v>766.36979199999996</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" t="s">
+        <v>236</v>
+      </c>
+      <c r="K183" t="s">
+        <v>634</v>
+      </c>
+      <c r="L183" t="s">
+        <v>635</v>
+      </c>
+      <c r="M183" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -6410,8 +10075,20 @@
       <c r="I184">
         <v>928.23961599999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" t="s">
+        <v>236</v>
+      </c>
+      <c r="K184" t="s">
+        <v>636</v>
+      </c>
+      <c r="L184" t="s">
+        <v>637</v>
+      </c>
+      <c r="M184" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -6439,8 +10116,20 @@
       <c r="I185">
         <v>762.82265599999903</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" t="s">
+        <v>236</v>
+      </c>
+      <c r="K185" t="s">
+        <v>638</v>
+      </c>
+      <c r="L185" t="s">
+        <v>639</v>
+      </c>
+      <c r="M185" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -6468,8 +10157,20 @@
       <c r="I186">
         <v>620.20812799999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" t="s">
+        <v>236</v>
+      </c>
+      <c r="K186" t="s">
+        <v>640</v>
+      </c>
+      <c r="L186" t="s">
+        <v>641</v>
+      </c>
+      <c r="M186" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -6497,8 +10198,20 @@
       <c r="I187">
         <v>577.49913600000002</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" t="s">
+        <v>236</v>
+      </c>
+      <c r="K187" t="s">
+        <v>642</v>
+      </c>
+      <c r="L187" t="s">
+        <v>643</v>
+      </c>
+      <c r="M187" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -6526,8 +10239,20 @@
       <c r="I188">
         <v>598.98675200000002</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" t="s">
+        <v>236</v>
+      </c>
+      <c r="K188" t="s">
+        <v>644</v>
+      </c>
+      <c r="L188" t="s">
+        <v>645</v>
+      </c>
+      <c r="M188" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -6555,8 +10280,20 @@
       <c r="I189">
         <v>792.96921599999996</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" t="s">
+        <v>236</v>
+      </c>
+      <c r="K189" t="s">
+        <v>646</v>
+      </c>
+      <c r="L189" t="s">
+        <v>647</v>
+      </c>
+      <c r="M189" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -6584,8 +10321,20 @@
       <c r="I190">
         <v>596.61516799999902</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" t="s">
+        <v>236</v>
+      </c>
+      <c r="K190" t="s">
+        <v>648</v>
+      </c>
+      <c r="L190" t="s">
+        <v>649</v>
+      </c>
+      <c r="M190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -6613,8 +10362,20 @@
       <c r="I191">
         <v>704.89292799999998</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" t="s">
+        <v>236</v>
+      </c>
+      <c r="K191" t="s">
+        <v>650</v>
+      </c>
+      <c r="L191" t="s">
+        <v>651</v>
+      </c>
+      <c r="M191" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -6642,8 +10403,20 @@
       <c r="I192">
         <v>612.23321599999997</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" t="s">
+        <v>236</v>
+      </c>
+      <c r="K192" t="s">
+        <v>652</v>
+      </c>
+      <c r="L192" t="s">
+        <v>653</v>
+      </c>
+      <c r="M192" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -6671,8 +10444,20 @@
       <c r="I193">
         <v>786.16575999999998</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" t="s">
+        <v>236</v>
+      </c>
+      <c r="K193" t="s">
+        <v>654</v>
+      </c>
+      <c r="L193" t="s">
+        <v>655</v>
+      </c>
+      <c r="M193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -6700,8 +10485,20 @@
       <c r="I194">
         <v>623.37433599999997</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" t="s">
+        <v>236</v>
+      </c>
+      <c r="K194" t="s">
+        <v>656</v>
+      </c>
+      <c r="L194" t="s">
+        <v>657</v>
+      </c>
+      <c r="M194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -6729,8 +10526,20 @@
       <c r="I195">
         <v>659.40684799999997</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" t="s">
+        <v>236</v>
+      </c>
+      <c r="K195" t="s">
+        <v>658</v>
+      </c>
+      <c r="L195" t="s">
+        <v>659</v>
+      </c>
+      <c r="M195" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -6758,8 +10567,20 @@
       <c r="I196">
         <v>666.88614399999994</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" t="s">
+        <v>236</v>
+      </c>
+      <c r="K196" t="s">
+        <v>660</v>
+      </c>
+      <c r="L196" t="s">
+        <v>661</v>
+      </c>
+      <c r="M196" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -6787,8 +10608,20 @@
       <c r="I197">
         <v>654.86028799999997</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" t="s">
+        <v>236</v>
+      </c>
+      <c r="K197" t="s">
+        <v>662</v>
+      </c>
+      <c r="L197" t="s">
+        <v>663</v>
+      </c>
+      <c r="M197" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -6816,8 +10649,20 @@
       <c r="I198">
         <v>1033.621504</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" t="s">
+        <v>236</v>
+      </c>
+      <c r="K198" t="s">
+        <v>664</v>
+      </c>
+      <c r="L198" t="s">
+        <v>665</v>
+      </c>
+      <c r="M198" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -6845,8 +10690,20 @@
       <c r="I199">
         <v>857.85804799999903</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" t="s">
+        <v>236</v>
+      </c>
+      <c r="K199" t="s">
+        <v>666</v>
+      </c>
+      <c r="L199" t="s">
+        <v>667</v>
+      </c>
+      <c r="M199" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -6874,8 +10731,20 @@
       <c r="I200">
         <v>571.06841599999996</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" t="s">
+        <v>236</v>
+      </c>
+      <c r="K200" t="s">
+        <v>668</v>
+      </c>
+      <c r="L200" t="s">
+        <v>669</v>
+      </c>
+      <c r="M200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -6903,8 +10772,20 @@
       <c r="I201">
         <v>689.28716799999995</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" t="s">
+        <v>236</v>
+      </c>
+      <c r="K201" t="s">
+        <v>670</v>
+      </c>
+      <c r="L201" t="s">
+        <v>671</v>
+      </c>
+      <c r="M201" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -6932,8 +10813,20 @@
       <c r="I202">
         <v>735.42451199999903</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" t="s">
+        <v>236</v>
+      </c>
+      <c r="K202" t="s">
+        <v>672</v>
+      </c>
+      <c r="L202" t="s">
+        <v>673</v>
+      </c>
+      <c r="M202" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -6961,8 +10854,20 @@
       <c r="I203">
         <v>695.72198400000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" t="s">
+        <v>236</v>
+      </c>
+      <c r="K203" t="s">
+        <v>674</v>
+      </c>
+      <c r="L203" t="s">
+        <v>675</v>
+      </c>
+      <c r="M203" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -6990,8 +10895,20 @@
       <c r="I204">
         <v>823.25913600000001</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" t="s">
+        <v>235</v>
+      </c>
+      <c r="K204" t="s">
+        <v>676</v>
+      </c>
+      <c r="L204" t="s">
+        <v>677</v>
+      </c>
+      <c r="M204" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -7019,8 +10936,20 @@
       <c r="I205">
         <v>491.64287999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" t="s">
+        <v>235</v>
+      </c>
+      <c r="K205" t="s">
+        <v>679</v>
+      </c>
+      <c r="L205" t="s">
+        <v>680</v>
+      </c>
+      <c r="M205" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -7048,8 +10977,20 @@
       <c r="I206">
         <v>991.29343999999901</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" t="s">
+        <v>682</v>
+      </c>
+      <c r="K206" t="s">
+        <v>683</v>
+      </c>
+      <c r="L206" t="s">
+        <v>684</v>
+      </c>
+      <c r="M206" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -7077,8 +11018,20 @@
       <c r="I207">
         <v>659.01772799999901</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" t="s">
+        <v>235</v>
+      </c>
+      <c r="K207" t="s">
+        <v>686</v>
+      </c>
+      <c r="L207" t="s">
+        <v>687</v>
+      </c>
+      <c r="M207" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -7106,8 +11059,20 @@
       <c r="I208">
         <v>255.97951999999901</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" t="s">
+        <v>236</v>
+      </c>
+      <c r="K208" t="s">
+        <v>689</v>
+      </c>
+      <c r="L208" t="s">
+        <v>690</v>
+      </c>
+      <c r="M208" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -7135,8 +11100,20 @@
       <c r="I209">
         <v>980.27929599999902</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" t="s">
+        <v>236</v>
+      </c>
+      <c r="K209" t="s">
+        <v>691</v>
+      </c>
+      <c r="L209" t="s">
+        <v>692</v>
+      </c>
+      <c r="M209" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -7164,8 +11141,20 @@
       <c r="I210">
         <v>994.28761599999996</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" t="s">
+        <v>236</v>
+      </c>
+      <c r="K210" t="s">
+        <v>693</v>
+      </c>
+      <c r="L210" t="s">
+        <v>694</v>
+      </c>
+      <c r="M210" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -7193,8 +11182,20 @@
       <c r="I211">
         <v>775.94214399999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" t="s">
+        <v>236</v>
+      </c>
+      <c r="K211" t="s">
+        <v>695</v>
+      </c>
+      <c r="L211" t="s">
+        <v>696</v>
+      </c>
+      <c r="M211" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -7222,8 +11223,20 @@
       <c r="I212">
         <v>893.77177599999902</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" t="s">
+        <v>236</v>
+      </c>
+      <c r="K212" t="s">
+        <v>697</v>
+      </c>
+      <c r="L212" t="s">
+        <v>698</v>
+      </c>
+      <c r="M212" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -7251,8 +11264,20 @@
       <c r="I213">
         <v>426.311679999999</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" t="s">
+        <v>236</v>
+      </c>
+      <c r="K213" t="s">
+        <v>699</v>
+      </c>
+      <c r="L213" t="s">
+        <v>700</v>
+      </c>
+      <c r="M213" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -7280,8 +11305,20 @@
       <c r="I214">
         <v>695.590912</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" t="s">
+        <v>236</v>
+      </c>
+      <c r="K214" t="s">
+        <v>701</v>
+      </c>
+      <c r="L214" t="s">
+        <v>702</v>
+      </c>
+      <c r="M214" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -7309,8 +11346,20 @@
       <c r="I215">
         <v>1013.305344</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" t="s">
+        <v>236</v>
+      </c>
+      <c r="K215" t="s">
+        <v>703</v>
+      </c>
+      <c r="L215" t="s">
+        <v>704</v>
+      </c>
+      <c r="M215" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -7338,8 +11387,20 @@
       <c r="I216">
         <v>690.21286399999997</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" t="s">
+        <v>236</v>
+      </c>
+      <c r="K216" t="s">
+        <v>705</v>
+      </c>
+      <c r="L216" t="s">
+        <v>706</v>
+      </c>
+      <c r="M216" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -7367,8 +11428,20 @@
       <c r="I217">
         <v>650.37516799999901</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" t="s">
+        <v>236</v>
+      </c>
+      <c r="K217" t="s">
+        <v>707</v>
+      </c>
+      <c r="L217" t="s">
+        <v>708</v>
+      </c>
+      <c r="M217" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -7396,8 +11469,20 @@
       <c r="I218">
         <v>855.10963199999901</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" t="s">
+        <v>236</v>
+      </c>
+      <c r="K218" t="s">
+        <v>709</v>
+      </c>
+      <c r="L218" t="s">
+        <v>710</v>
+      </c>
+      <c r="M218" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -7425,8 +11510,20 @@
       <c r="I219">
         <v>605.53215999999998</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" t="s">
+        <v>236</v>
+      </c>
+      <c r="K219" t="s">
+        <v>711</v>
+      </c>
+      <c r="L219" t="s">
+        <v>712</v>
+      </c>
+      <c r="M219" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -7454,8 +11551,20 @@
       <c r="I220">
         <v>828.37094400000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" t="s">
+        <v>236</v>
+      </c>
+      <c r="K220" t="s">
+        <v>713</v>
+      </c>
+      <c r="L220" t="s">
+        <v>714</v>
+      </c>
+      <c r="M220" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -7483,8 +11592,20 @@
       <c r="I221">
         <v>751.94367999999997</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" t="s">
+        <v>236</v>
+      </c>
+      <c r="K221" t="s">
+        <v>715</v>
+      </c>
+      <c r="L221" t="s">
+        <v>716</v>
+      </c>
+      <c r="M221" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -7512,8 +11633,20 @@
       <c r="I222">
         <v>571.19948799999997</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" t="s">
+        <v>236</v>
+      </c>
+      <c r="K222" t="s">
+        <v>717</v>
+      </c>
+      <c r="L222" t="s">
+        <v>718</v>
+      </c>
+      <c r="M222" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -7541,8 +11674,20 @@
       <c r="I223">
         <v>636.08831999999995</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" t="s">
+        <v>236</v>
+      </c>
+      <c r="K223" t="s">
+        <v>719</v>
+      </c>
+      <c r="L223" t="s">
+        <v>720</v>
+      </c>
+      <c r="M223" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -7570,8 +11715,20 @@
       <c r="I224">
         <v>921.68191999999999</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" t="s">
+        <v>236</v>
+      </c>
+      <c r="K224" t="s">
+        <v>721</v>
+      </c>
+      <c r="L224" t="s">
+        <v>722</v>
+      </c>
+      <c r="M224" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -7598,6 +11755,18 @@
       </c>
       <c r="I225">
         <v>682.61887999999999</v>
+      </c>
+      <c r="J225" t="s">
+        <v>236</v>
+      </c>
+      <c r="K225" t="s">
+        <v>723</v>
+      </c>
+      <c r="L225" t="s">
+        <v>724</v>
+      </c>
+      <c r="M225" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/results/combinedresults/dqbf19.xlsx
+++ b/results/combinedresults/dqbf19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C1CEBB-ED16-DE45-A3CA-7AF378BFBE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87DE2CE-7A89-6F47-BE8C-1FDFF056F70A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15360" activeTab="2" xr2:uid="{5DD0E6D6-7882-E44F-A577-7B002FAE22A9}"/>
   </bookViews>
@@ -21436,8 +21436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130FAACC-10E2-5C4D-978B-741FB3F1F2DB}">
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="L257" sqref="L257"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/combinedresults/dqbf19.xlsx
+++ b/results/combinedresults/dqbf19.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A73CCA-8378-C14A-9159-C5C486F75AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D53FE-FA69-3A40-B78B-216275AB740F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15360" activeTab="1" xr2:uid="{5DD0E6D6-7882-E44F-A577-7B002FAE22A9}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15360" activeTab="1" xr2:uid="{5DD0E6D6-7882-E44F-A577-7B002FAE22A9}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
     <sheet name="realtime" sheetId="2" r:id="rId2"/>
     <sheet name="dqbdd" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dqbdd!$A$1:$Q$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">realtime!$A$1:$M$252</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4334" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="278">
   <si>
     <t>tool</t>
   </si>
@@ -867,6 +871,9 @@
   <si>
     <t>dCAQE 4.0.1</t>
   </si>
+  <si>
+    <t>uniquely solved (this is wrong, needs to remove DQBDD tree)</t>
+  </si>
 </sst>
 </file>
 
@@ -18185,10 +18192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E88B51B-86D8-E547-9986-F518581AF70F}">
-  <dimension ref="A1:K251"/>
+  <dimension ref="A1:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="F253" sqref="F253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18199,9 +18206,11 @@
     <col min="4" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18235,8 +18244,14 @@
       <c r="K1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18270,8 +18285,14 @@
       <c r="K2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18305,8 +18326,14 @@
       <c r="K3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -18343,8 +18370,14 @@
       <c r="K4">
         <v>901.64800969700002</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>260</v>
+      </c>
+      <c r="M4">
+        <v>901.68670359700002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -18381,8 +18414,14 @@
       <c r="K5">
         <v>901.77224028299997</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>260</v>
+      </c>
+      <c r="M5">
+        <v>901.90349689799996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -18419,8 +18458,14 @@
       <c r="K6">
         <v>901.74168997300001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>260</v>
+      </c>
+      <c r="M6">
+        <v>901.79542871900003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -18457,8 +18502,14 @@
       <c r="K7">
         <v>901.77521545800005</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M7">
+        <v>901.89486329900001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -18495,8 +18546,14 @@
       <c r="K8">
         <v>901.75694320699995</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M8">
+        <v>901.81605079200006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -18533,8 +18590,14 @@
       <c r="K9">
         <v>700.28489393899997</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>261</v>
+      </c>
+      <c r="M9">
+        <v>421.68146624600001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -18571,8 +18634,14 @@
       <c r="K10">
         <v>0.70292877600000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>258</v>
+      </c>
+      <c r="M10">
+        <v>0.45031598499999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -18609,8 +18678,14 @@
       <c r="K11">
         <v>0.35866247299999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>258</v>
+      </c>
+      <c r="M11">
+        <v>0.47832879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -18647,8 +18722,14 @@
       <c r="K12">
         <v>36.429104823000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>258</v>
+      </c>
+      <c r="M12">
+        <v>23.979405363000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -18685,8 +18766,14 @@
       <c r="K13">
         <v>35.307914566999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>260</v>
+      </c>
+      <c r="M13">
+        <v>901.74665096599995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -18723,8 +18810,14 @@
       <c r="K14">
         <v>0.106500795</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>258</v>
+      </c>
+      <c r="M14">
+        <v>9.5362682000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -18761,8 +18854,14 @@
       <c r="K15">
         <v>0.17856962000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>258</v>
+      </c>
+      <c r="M15">
+        <v>0.17877522900000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -18799,8 +18898,14 @@
       <c r="K16">
         <v>92.006030260000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>261</v>
+      </c>
+      <c r="M16">
+        <v>92.409753330000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -18837,8 +18942,14 @@
       <c r="K17">
         <v>92.989088621999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17">
+        <v>93.809883024000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -18875,8 +18986,14 @@
       <c r="K18">
         <v>92.084711827999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>261</v>
+      </c>
+      <c r="M18">
+        <v>91.721492924000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -18913,8 +19030,14 @@
       <c r="K19">
         <v>91.618017336999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>261</v>
+      </c>
+      <c r="M19">
+        <v>91.176365832000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -18951,8 +19074,14 @@
       <c r="K20">
         <v>91.741512951999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>261</v>
+      </c>
+      <c r="M20">
+        <v>90.853693308000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -18989,8 +19118,14 @@
       <c r="K21">
         <v>91.543883679999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>261</v>
+      </c>
+      <c r="M21">
+        <v>91.237849724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -19027,8 +19162,14 @@
       <c r="K22">
         <v>91.166503066999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>261</v>
+      </c>
+      <c r="M22">
+        <v>91.784116010000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -19065,8 +19206,14 @@
       <c r="K23">
         <v>91.154769763000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="s">
+        <v>261</v>
+      </c>
+      <c r="M23">
+        <v>90.638299919999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -19103,8 +19250,14 @@
       <c r="K24">
         <v>91.826081650999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>261</v>
+      </c>
+      <c r="M24">
+        <v>91.654322741000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -19141,8 +19294,14 @@
       <c r="K25">
         <v>91.700815677999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>261</v>
+      </c>
+      <c r="M25">
+        <v>91.592912287999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -19179,8 +19338,14 @@
       <c r="K26">
         <v>92.430378481000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="s">
+        <v>261</v>
+      </c>
+      <c r="M26">
+        <v>90.888190644000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -19217,8 +19382,14 @@
       <c r="K27">
         <v>91.852101795999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27">
+        <v>91.985865378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -19255,8 +19426,14 @@
       <c r="K28">
         <v>92.238658811999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>261</v>
+      </c>
+      <c r="M28">
+        <v>91.534013588999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -19293,8 +19470,14 @@
       <c r="K29">
         <v>92.366042504999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29">
+        <v>92.075464421000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -19331,8 +19514,14 @@
       <c r="K30">
         <v>91.59423323</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30">
+        <v>92.121324090000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -19369,8 +19558,14 @@
       <c r="K31">
         <v>199.18659537299999</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31">
+        <v>202.88463577600001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -19407,8 +19602,14 @@
       <c r="K32">
         <v>901.76950887099997</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32">
+        <v>165.697857863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -19445,8 +19646,14 @@
       <c r="K33">
         <v>901.64950479499998</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33">
+        <v>167.18481085499999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -19483,8 +19690,14 @@
       <c r="K34">
         <v>104.795602454</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="s">
+        <v>261</v>
+      </c>
+      <c r="M34">
+        <v>103.07008250299999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -19521,8 +19734,14 @@
       <c r="K35">
         <v>0.17829984500000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" t="s">
+        <v>258</v>
+      </c>
+      <c r="M35">
+        <v>0.161592448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -19559,8 +19778,14 @@
       <c r="K36">
         <v>118.527558399</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36">
+        <v>82.790511073000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -19597,8 +19822,14 @@
       <c r="K37">
         <v>119.502452451</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37">
+        <v>82.025603649000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -19635,8 +19866,14 @@
       <c r="K38">
         <v>2.2334657000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" t="s">
+        <v>258</v>
+      </c>
+      <c r="M38">
+        <v>2.1929276000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -19673,8 +19910,14 @@
       <c r="K39">
         <v>4.2451867999999997E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" t="s">
+        <v>258</v>
+      </c>
+      <c r="M39">
+        <v>0.137990378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -19711,8 +19954,14 @@
       <c r="K40">
         <v>4.2462120999999999E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" t="s">
+        <v>258</v>
+      </c>
+      <c r="M40">
+        <v>0.13767146299999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -19749,8 +19998,14 @@
       <c r="K41">
         <v>6.2501161999999999E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" t="s">
+        <v>260</v>
+      </c>
+      <c r="M41">
+        <v>901.56078541399995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -19787,8 +20042,14 @@
       <c r="K42">
         <v>1.2111820799999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>258</v>
+      </c>
+      <c r="M42">
+        <v>0.67040133700000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -19825,8 +20086,14 @@
       <c r="K43">
         <v>94.167303046000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43">
+        <v>93.938432625000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -19863,8 +20130,14 @@
       <c r="K44">
         <v>93.470529346000006</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44">
+        <v>90.971360128000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -19901,8 +20174,14 @@
       <c r="K45">
         <v>93.930470037999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>261</v>
+      </c>
+      <c r="M45">
+        <v>91.344669027999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -19939,8 +20218,14 @@
       <c r="K46">
         <v>94.351260838000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>261</v>
+      </c>
+      <c r="M46">
+        <v>91.160639545999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -19977,8 +20262,14 @@
       <c r="K47">
         <v>93.415116585000007</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>261</v>
+      </c>
+      <c r="M47">
+        <v>93.906236213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -20015,8 +20306,14 @@
       <c r="K48">
         <v>94.425819880999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>261</v>
+      </c>
+      <c r="M48">
+        <v>91.475795821999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -20053,8 +20350,14 @@
       <c r="K49">
         <v>94.807211766999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>261</v>
+      </c>
+      <c r="M49">
+        <v>91.791674111000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -20091,8 +20394,14 @@
       <c r="K50">
         <v>95.684294347999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>261</v>
+      </c>
+      <c r="M50">
+        <v>93.879619138999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -20129,8 +20438,14 @@
       <c r="K51">
         <v>94.607935365000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>261</v>
+      </c>
+      <c r="M51">
+        <v>90.636046754999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -20167,8 +20482,14 @@
       <c r="K52">
         <v>93.666824465999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
+        <v>261</v>
+      </c>
+      <c r="M52">
+        <v>94.194321392999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -20205,8 +20526,14 @@
       <c r="K53">
         <v>93.930237903000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>261</v>
+      </c>
+      <c r="M53">
+        <v>91.278266833999993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -20243,8 +20570,14 @@
       <c r="K54">
         <v>94.663555833000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="s">
+        <v>261</v>
+      </c>
+      <c r="M54">
+        <v>91.701483087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -20281,8 +20614,14 @@
       <c r="K55">
         <v>94.059656641999993</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" t="s">
+        <v>261</v>
+      </c>
+      <c r="M55">
+        <v>90.979492633000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -20319,8 +20658,14 @@
       <c r="K56">
         <v>94.235041957000007</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" t="s">
+        <v>261</v>
+      </c>
+      <c r="M56">
+        <v>93.137301840999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -20357,8 +20702,14 @@
       <c r="K57">
         <v>94.595820587000006</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="s">
+        <v>261</v>
+      </c>
+      <c r="M57">
+        <v>92.193087313999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -20395,8 +20746,14 @@
       <c r="K58">
         <v>94.851754502999995</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>261</v>
+      </c>
+      <c r="M58">
+        <v>91.031792881000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -20433,8 +20790,14 @@
       <c r="K59">
         <v>94.211636345000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>261</v>
+      </c>
+      <c r="M59">
+        <v>91.584884463999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -20471,8 +20834,14 @@
       <c r="K60">
         <v>94.383133607999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
+        <v>261</v>
+      </c>
+      <c r="M60">
+        <v>92.017093083999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -20509,8 +20878,14 @@
       <c r="K61">
         <v>95.05607277</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" t="s">
+        <v>261</v>
+      </c>
+      <c r="M61">
+        <v>92.826517652000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -20547,8 +20922,14 @@
       <c r="K62">
         <v>95.119855356000002</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="s">
+        <v>261</v>
+      </c>
+      <c r="M62">
+        <v>92.103174640000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -20585,8 +20966,14 @@
       <c r="K63">
         <v>230.93735746300001</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
+        <v>261</v>
+      </c>
+      <c r="M63">
+        <v>113.311629457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -20623,8 +21010,14 @@
       <c r="K64">
         <v>604.41194019099999</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" t="s">
+        <v>261</v>
+      </c>
+      <c r="M64">
+        <v>92.565266691999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -20661,8 +21054,14 @@
       <c r="K65">
         <v>156.22454471500001</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" t="s">
+        <v>261</v>
+      </c>
+      <c r="M65">
+        <v>154.59128110200001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -20699,8 +21098,14 @@
       <c r="K66">
         <v>99.855296870999993</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" t="s">
+        <v>261</v>
+      </c>
+      <c r="M66">
+        <v>95.985286135999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -20737,8 +21142,14 @@
       <c r="K67">
         <v>98.690210441000005</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" t="s">
+        <v>261</v>
+      </c>
+      <c r="M67">
+        <v>95.700674887999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -20775,8 +21186,14 @@
       <c r="K68">
         <v>93.327115926000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" t="s">
+        <v>261</v>
+      </c>
+      <c r="M68">
+        <v>90.772248934000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -20813,8 +21230,14 @@
       <c r="K69">
         <v>93.447009187000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" t="s">
+        <v>261</v>
+      </c>
+      <c r="M69">
+        <v>92.201844096000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -20851,8 +21274,14 @@
       <c r="K70">
         <v>92.790100271</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" t="s">
+        <v>261</v>
+      </c>
+      <c r="M70">
+        <v>90.726496840999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -20889,8 +21318,14 @@
       <c r="K71">
         <v>92.338273220999994</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" t="s">
+        <v>261</v>
+      </c>
+      <c r="M71">
+        <v>92.466103903999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -20927,8 +21362,14 @@
       <c r="K72">
         <v>91.917602469000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" t="s">
+        <v>261</v>
+      </c>
+      <c r="M72">
+        <v>91.160605329999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -20965,8 +21406,14 @@
       <c r="K73">
         <v>91.257697049000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" t="s">
+        <v>261</v>
+      </c>
+      <c r="M73">
+        <v>90.902817323999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -21003,8 +21450,14 @@
       <c r="K74">
         <v>91.433949646000002</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" t="s">
+        <v>261</v>
+      </c>
+      <c r="M74">
+        <v>92.525009983999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -21041,8 +21494,14 @@
       <c r="K75">
         <v>92.737290024000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75" t="s">
+        <v>261</v>
+      </c>
+      <c r="M75">
+        <v>91.462876562999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -21079,8 +21538,14 @@
       <c r="K76">
         <v>92.410392852000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>261</v>
+      </c>
+      <c r="M76">
+        <v>92.025858726999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -21117,8 +21582,14 @@
       <c r="K77">
         <v>91.865507132999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77" t="s">
+        <v>261</v>
+      </c>
+      <c r="M77">
+        <v>91.247291001999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -21155,8 +21626,14 @@
       <c r="K78">
         <v>91.529879629000007</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" t="s">
+        <v>261</v>
+      </c>
+      <c r="M78">
+        <v>91.026988492000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -21193,8 +21670,14 @@
       <c r="K79">
         <v>91.725563831000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" t="s">
+        <v>261</v>
+      </c>
+      <c r="M79">
+        <v>93.426645770999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -21231,8 +21714,14 @@
       <c r="K80">
         <v>94.304636857999995</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" t="s">
+        <v>261</v>
+      </c>
+      <c r="M80">
+        <v>92.640763108000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -21269,8 +21758,14 @@
       <c r="K81">
         <v>48.017604024999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81" t="s">
+        <v>258</v>
+      </c>
+      <c r="M81">
+        <v>317.95066357600001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -21307,8 +21802,14 @@
       <c r="K82">
         <v>30.214337549</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" t="s">
+        <v>261</v>
+      </c>
+      <c r="M82">
+        <v>102.672164391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -21345,8 +21846,14 @@
       <c r="K83">
         <v>34.691493741000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83" t="s">
+        <v>261</v>
+      </c>
+      <c r="M83">
+        <v>96.000258054</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -21383,8 +21890,14 @@
       <c r="K84">
         <v>3.4096346E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84" t="s">
+        <v>258</v>
+      </c>
+      <c r="M84">
+        <v>3.3530022E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -21421,8 +21934,14 @@
       <c r="K85">
         <v>1.3392598790000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85" t="s">
+        <v>258</v>
+      </c>
+      <c r="M85">
+        <v>14.500450731999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -21459,8 +21978,14 @@
       <c r="K86">
         <v>30.976314704</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86" t="s">
+        <v>261</v>
+      </c>
+      <c r="M86">
+        <v>184.11971844000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -21497,8 +22022,14 @@
       <c r="K87">
         <v>46.315922520000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
+        <v>258</v>
+      </c>
+      <c r="M87">
+        <v>2.5819676999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -21535,8 +22066,14 @@
       <c r="K88">
         <v>24.372071473999998</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88" t="s">
+        <v>261</v>
+      </c>
+      <c r="M88">
+        <v>81.877951225999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -21573,8 +22110,14 @@
       <c r="K89">
         <v>25.183163863000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>261</v>
+      </c>
+      <c r="M89">
+        <v>144.163868511</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -21611,8 +22154,14 @@
       <c r="K90">
         <v>6.2146934000000001E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90" t="s">
+        <v>258</v>
+      </c>
+      <c r="M90">
+        <v>0.598268727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -21649,8 +22198,14 @@
       <c r="K91">
         <v>5.821759E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91" t="s">
+        <v>258</v>
+      </c>
+      <c r="M91">
+        <v>0.58231676499999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -21687,8 +22242,14 @@
       <c r="K92">
         <v>182.888385363</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92" t="s">
+        <v>261</v>
+      </c>
+      <c r="M92">
+        <v>52.752273367000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -21725,8 +22286,14 @@
       <c r="K93">
         <v>901.67362746499998</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>261</v>
+      </c>
+      <c r="M93">
+        <v>721.47601106000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -21763,8 +22330,14 @@
       <c r="K94">
         <v>901.80022778299997</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94" t="s">
+        <v>261</v>
+      </c>
+      <c r="M94">
+        <v>895.03549405399997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -21801,8 +22374,14 @@
       <c r="K95">
         <v>901.76958070700005</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95" t="s">
+        <v>260</v>
+      </c>
+      <c r="M95">
+        <v>901.86282717799997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -21839,8 +22418,14 @@
       <c r="K96">
         <v>392.54938571999998</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96" t="s">
+        <v>260</v>
+      </c>
+      <c r="M96">
+        <v>901.85668597999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -21877,8 +22462,14 @@
       <c r="K97">
         <v>83.058983788999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97" t="s">
+        <v>260</v>
+      </c>
+      <c r="M97">
+        <v>901.70146854999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -21915,8 +22506,14 @@
       <c r="K98">
         <v>3.2564652249999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98" t="s">
+        <v>260</v>
+      </c>
+      <c r="M98">
+        <v>901.75112388699995</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -21953,8 +22550,14 @@
       <c r="K99">
         <v>285.13016284100001</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99" t="s">
+        <v>261</v>
+      </c>
+      <c r="M99">
+        <v>285.64037744199999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -21991,8 +22594,14 @@
       <c r="K100">
         <v>2.828258623</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100" t="s">
+        <v>258</v>
+      </c>
+      <c r="M100">
+        <v>0.101749882</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -22029,8 +22638,14 @@
       <c r="K101">
         <v>329.04456174799998</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L101" t="s">
+        <v>261</v>
+      </c>
+      <c r="M101">
+        <v>289.01687954900001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -22067,8 +22682,14 @@
       <c r="K102">
         <v>0.13428179000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102" t="s">
+        <v>259</v>
+      </c>
+      <c r="M102">
+        <v>0.12996542699999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -22105,8 +22726,14 @@
       <c r="K103">
         <v>2.2679092729999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103" t="s">
+        <v>260</v>
+      </c>
+      <c r="M103">
+        <v>901.73639270800004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -22143,8 +22770,14 @@
       <c r="K104">
         <v>1.831670669</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L104" t="s">
+        <v>260</v>
+      </c>
+      <c r="M104">
+        <v>901.80911093600002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -22181,8 +22814,14 @@
       <c r="K105">
         <v>312.56458874999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105" t="s">
+        <v>261</v>
+      </c>
+      <c r="M105">
+        <v>758.21690201199999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -22219,8 +22858,14 @@
       <c r="K106">
         <v>290.33830643700003</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106" t="s">
+        <v>261</v>
+      </c>
+      <c r="M106">
+        <v>312.19893248699998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -22257,8 +22902,14 @@
       <c r="K107">
         <v>252.91615484299999</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L107" t="s">
+        <v>261</v>
+      </c>
+      <c r="M107">
+        <v>288.24064765700001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -22295,8 +22946,14 @@
       <c r="K108">
         <v>0.19839812100000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L108" t="s">
+        <v>259</v>
+      </c>
+      <c r="M108">
+        <v>0.19384426900000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -22333,8 +22990,14 @@
       <c r="K109">
         <v>0.162484824</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109" t="s">
+        <v>259</v>
+      </c>
+      <c r="M109">
+        <v>0.16197946899999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -22371,8 +23034,14 @@
       <c r="K110">
         <v>266.50600411200003</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110" t="s">
+        <v>261</v>
+      </c>
+      <c r="M110">
+        <v>681.80943971900001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -22409,8 +23078,14 @@
       <c r="K111">
         <v>218.564592847</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111" t="s">
+        <v>261</v>
+      </c>
+      <c r="M111">
+        <v>264.52458167600003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -22447,8 +23122,14 @@
       <c r="K112">
         <v>8.3644410750000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112" t="s">
+        <v>258</v>
+      </c>
+      <c r="M112">
+        <v>68.396624497999994</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -22485,8 +23166,14 @@
       <c r="K113">
         <v>8.7607907380000007</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L113" t="s">
+        <v>259</v>
+      </c>
+      <c r="M113">
+        <v>119.12664254400001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -22523,8 +23210,14 @@
       <c r="K114">
         <v>11.09830112</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L114" t="s">
+        <v>259</v>
+      </c>
+      <c r="M114">
+        <v>22.282320501000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -22561,8 +23254,14 @@
       <c r="K115">
         <v>8.3363819479999997</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115" t="s">
+        <v>259</v>
+      </c>
+      <c r="M115">
+        <v>62.852743189000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -22599,8 +23298,14 @@
       <c r="K116">
         <v>18.567895797999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116" t="s">
+        <v>258</v>
+      </c>
+      <c r="M116">
+        <v>749.87047708700004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -22637,8 +23342,14 @@
       <c r="K117">
         <v>10.125471866</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L117" t="s">
+        <v>260</v>
+      </c>
+      <c r="M117">
+        <v>901.727393076</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -22675,8 +23386,14 @@
       <c r="K118">
         <v>0.362512377</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118" t="s">
+        <v>258</v>
+      </c>
+      <c r="M118">
+        <v>6.0374380810000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -22713,8 +23430,14 @@
       <c r="K119">
         <v>4.013287482</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119" t="s">
+        <v>259</v>
+      </c>
+      <c r="M119">
+        <v>9.5843368089999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -22751,8 +23474,14 @@
       <c r="K120">
         <v>0.21000259199999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L120" t="s">
+        <v>259</v>
+      </c>
+      <c r="M120">
+        <v>8.3666505010000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -22789,8 +23518,14 @@
       <c r="K121">
         <v>5.750423316</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L121" t="s">
+        <v>259</v>
+      </c>
+      <c r="M121">
+        <v>4.2081603750000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -22827,8 +23562,14 @@
       <c r="K122">
         <v>0.246462708</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122" t="s">
+        <v>258</v>
+      </c>
+      <c r="M122">
+        <v>8.2588015119999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -22865,8 +23606,14 @@
       <c r="K123">
         <v>4.8658859449999996</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123" t="s">
+        <v>259</v>
+      </c>
+      <c r="M123">
+        <v>2.234756285</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -22903,8 +23650,14 @@
       <c r="K124">
         <v>110.63426251200001</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L124" t="s">
+        <v>261</v>
+      </c>
+      <c r="M124">
+        <v>126.841352896</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -22941,8 +23694,14 @@
       <c r="K125">
         <v>0.19820307000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125" t="s">
+        <v>259</v>
+      </c>
+      <c r="M125">
+        <v>3.37590557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -22979,8 +23738,14 @@
       <c r="K126">
         <v>4.9526476190000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126" t="s">
+        <v>259</v>
+      </c>
+      <c r="M126">
+        <v>2.219374111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -23017,8 +23782,14 @@
       <c r="K127">
         <v>1.1069611109999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L127" t="s">
+        <v>258</v>
+      </c>
+      <c r="M127">
+        <v>0.73418394099999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -23055,8 +23826,14 @@
       <c r="K128">
         <v>1.3919023079999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L128" t="s">
+        <v>259</v>
+      </c>
+      <c r="M128">
+        <v>0.77841205099999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -23093,8 +23870,14 @@
       <c r="K129">
         <v>1.603363852</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>258</v>
+      </c>
+      <c r="M129">
+        <v>0.69441493300000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -23131,8 +23914,14 @@
       <c r="K130">
         <v>1.751915879</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130" t="s">
+        <v>259</v>
+      </c>
+      <c r="M130">
+        <v>0.95457138500000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -23169,8 +23958,14 @@
       <c r="K131">
         <v>1.5959490649999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131" t="s">
+        <v>259</v>
+      </c>
+      <c r="M131">
+        <v>0.67042240600000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -23207,8 +24002,14 @@
       <c r="K132">
         <v>2.0797560609999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L132" t="s">
+        <v>259</v>
+      </c>
+      <c r="M132">
+        <v>2.227327898</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -23245,8 +24046,14 @@
       <c r="K133">
         <v>2.1322692860000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133" t="s">
+        <v>259</v>
+      </c>
+      <c r="M133">
+        <v>3.8963631400000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -23283,8 +24090,14 @@
       <c r="K134">
         <v>1.879507155</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L134" t="s">
+        <v>259</v>
+      </c>
+      <c r="M134">
+        <v>2.471347593</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -23321,8 +24134,14 @@
       <c r="K135">
         <v>3.268631638</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L135" t="s">
+        <v>261</v>
+      </c>
+      <c r="M135">
+        <v>240.38835290700001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -23359,8 +24178,14 @@
       <c r="K136">
         <v>0.56745813300000003</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L136" t="s">
+        <v>259</v>
+      </c>
+      <c r="M136">
+        <v>483.20236474199999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -23397,8 +24222,14 @@
       <c r="K137">
         <v>3.4285483960000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L137" t="s">
+        <v>261</v>
+      </c>
+      <c r="M137">
+        <v>218.622913168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -23435,8 +24266,14 @@
       <c r="K138">
         <v>2.6603280570000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L138" t="s">
+        <v>260</v>
+      </c>
+      <c r="M138">
+        <v>901.60462567900004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -23473,8 +24310,14 @@
       <c r="K139">
         <v>2.0478815400000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L139" t="s">
+        <v>258</v>
+      </c>
+      <c r="M139">
+        <v>4.5328894550000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -23511,8 +24354,14 @@
       <c r="K140">
         <v>7.499741738</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L140" t="s">
+        <v>259</v>
+      </c>
+      <c r="M140">
+        <v>4.7089380409999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -23549,8 +24398,14 @@
       <c r="K141">
         <v>1.920552139</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L141" t="s">
+        <v>258</v>
+      </c>
+      <c r="M141">
+        <v>1.998844163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -23587,8 +24442,14 @@
       <c r="K142">
         <v>0.27086375800000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L142" t="s">
+        <v>259</v>
+      </c>
+      <c r="M142">
+        <v>416.90210300699999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -23625,8 +24486,14 @@
       <c r="K143">
         <v>7.0312686999999999E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L143" t="s">
+        <v>259</v>
+      </c>
+      <c r="M143">
+        <v>6.9754878000000006E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -23663,8 +24530,14 @@
       <c r="K144">
         <v>378.321390538</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L144" t="s">
+        <v>260</v>
+      </c>
+      <c r="M144">
+        <v>901.72192235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -23701,8 +24574,14 @@
       <c r="K145">
         <v>901.64751744600005</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L145" t="s">
+        <v>260</v>
+      </c>
+      <c r="M145">
+        <v>901.70730279999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -23739,8 +24618,14 @@
       <c r="K146">
         <v>870.416823196</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L146" t="s">
+        <v>260</v>
+      </c>
+      <c r="M146">
+        <v>901.71131255800003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -23777,8 +24662,14 @@
       <c r="K147">
         <v>383.45581437499999</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L147" t="s">
+        <v>260</v>
+      </c>
+      <c r="M147">
+        <v>901.71389984899997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -23815,8 +24706,14 @@
       <c r="K148">
         <v>901.81388293999998</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L148" t="s">
+        <v>260</v>
+      </c>
+      <c r="M148">
+        <v>901.70956968600001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -23853,8 +24750,14 @@
       <c r="K149">
         <v>901.75738657199997</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L149" t="s">
+        <v>260</v>
+      </c>
+      <c r="M149">
+        <v>901.60518767999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -23891,8 +24794,14 @@
       <c r="K150">
         <v>901.82434052099995</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L150" t="s">
+        <v>260</v>
+      </c>
+      <c r="M150">
+        <v>901.72209818500005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -23929,8 +24838,14 @@
       <c r="K151">
         <v>28.763490174000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L151" t="s">
+        <v>259</v>
+      </c>
+      <c r="M151">
+        <v>28.806528774</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -23967,8 +24882,14 @@
       <c r="K152">
         <v>18.936426086000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L152" t="s">
+        <v>259</v>
+      </c>
+      <c r="M152">
+        <v>18.907693205000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -24005,8 +24926,14 @@
       <c r="K153">
         <v>2.4080685019999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L153" t="s">
+        <v>259</v>
+      </c>
+      <c r="M153">
+        <v>3.7166006989999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -24043,8 +24970,14 @@
       <c r="K154">
         <v>2.155830243</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L154" t="s">
+        <v>259</v>
+      </c>
+      <c r="M154">
+        <v>1.410813675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -24081,8 +25014,14 @@
       <c r="K155">
         <v>18.832949968000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L155" t="s">
+        <v>259</v>
+      </c>
+      <c r="M155">
+        <v>19.011272508000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -24119,8 +25058,14 @@
       <c r="K156">
         <v>0.41461776299999997</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L156" t="s">
+        <v>258</v>
+      </c>
+      <c r="M156">
+        <v>0.29795597400000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -24157,8 +25102,14 @@
       <c r="K157">
         <v>1.6714839669999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L157" t="s">
+        <v>258</v>
+      </c>
+      <c r="M157">
+        <v>1.154659076</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -24195,8 +25146,14 @@
       <c r="K158">
         <v>2.151314153</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L158" t="s">
+        <v>259</v>
+      </c>
+      <c r="M158">
+        <v>2.7197133519999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -24233,8 +25190,14 @@
       <c r="K159">
         <v>28.911815976</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L159" t="s">
+        <v>258</v>
+      </c>
+      <c r="M159">
+        <v>29.226698196000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -24271,8 +25234,14 @@
       <c r="K160">
         <v>49.647263721000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L160" t="s">
+        <v>259</v>
+      </c>
+      <c r="M160">
+        <v>49.710790842999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -24309,8 +25278,14 @@
       <c r="K161">
         <v>2.1198528599999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L161" t="s">
+        <v>259</v>
+      </c>
+      <c r="M161">
+        <v>2.711702528</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -24347,8 +25322,14 @@
       <c r="K162">
         <v>3.1485379949999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L162" t="s">
+        <v>259</v>
+      </c>
+      <c r="M162">
+        <v>2.1233887400000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -24385,8 +25366,14 @@
       <c r="K163">
         <v>28.767696147999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L163" t="s">
+        <v>259</v>
+      </c>
+      <c r="M163">
+        <v>28.714915801</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -24423,8 +25410,14 @@
       <c r="K164">
         <v>0.41017587799999999</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L164" t="s">
+        <v>258</v>
+      </c>
+      <c r="M164">
+        <v>0.29394513</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -24461,8 +25454,14 @@
       <c r="K165">
         <v>3.8349544999999999E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L165" t="s">
+        <v>259</v>
+      </c>
+      <c r="M165">
+        <v>3.3797854000000002E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -24499,8 +25498,14 @@
       <c r="K166">
         <v>4.6320134999999998E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L166" t="s">
+        <v>258</v>
+      </c>
+      <c r="M166">
+        <v>3.7815762000000003E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -24537,8 +25542,14 @@
       <c r="K167">
         <v>3.8347226999999998E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L167" t="s">
+        <v>259</v>
+      </c>
+      <c r="M167">
+        <v>3.3869877999999999E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -24575,8 +25586,14 @@
       <c r="K168">
         <v>3.8408062999999999E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L168" t="s">
+        <v>259</v>
+      </c>
+      <c r="M168">
+        <v>3.3795947E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -24613,8 +25630,14 @@
       <c r="K169">
         <v>4.6357796E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L169" t="s">
+        <v>258</v>
+      </c>
+      <c r="M169">
+        <v>3.7868341E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -24651,8 +25674,14 @@
       <c r="K170">
         <v>4.6306775000000001E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L170" t="s">
+        <v>258</v>
+      </c>
+      <c r="M170">
+        <v>3.7895854E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -24689,8 +25718,14 @@
       <c r="K171">
         <v>5.0302154000000002E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L171" t="s">
+        <v>258</v>
+      </c>
+      <c r="M171">
+        <v>4.6335029E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -24727,8 +25762,14 @@
       <c r="K172">
         <v>3.0324325999999999E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L172" t="s">
+        <v>259</v>
+      </c>
+      <c r="M172">
+        <v>3.4005318999999999E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -24765,8 +25806,14 @@
       <c r="K173">
         <v>3.8286651999999997E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L173" t="s">
+        <v>259</v>
+      </c>
+      <c r="M173">
+        <v>4.2295168000000001E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -24803,8 +25850,14 @@
       <c r="K174">
         <v>769.98839477499996</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L174" t="s">
+        <v>260</v>
+      </c>
+      <c r="M174">
+        <v>901.84394919500005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -24841,8 +25894,14 @@
       <c r="K175">
         <v>901.86916701099994</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L175" t="s">
+        <v>261</v>
+      </c>
+      <c r="M175">
+        <v>268.17617553500003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -24879,8 +25938,14 @@
       <c r="K176">
         <v>901.76872275699998</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L176" t="s">
+        <v>261</v>
+      </c>
+      <c r="M176">
+        <v>261.95835160299998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -24917,8 +25982,14 @@
       <c r="K177">
         <v>741.17950797200001</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L177" t="s">
+        <v>261</v>
+      </c>
+      <c r="M177">
+        <v>345.43369718500003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -24955,8 +26026,14 @@
       <c r="K178">
         <v>901.76020160200005</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L178" t="s">
+        <v>261</v>
+      </c>
+      <c r="M178">
+        <v>209.84469724499999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -24993,8 +26070,14 @@
       <c r="K179">
         <v>901.756485365</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L179" t="s">
+        <v>261</v>
+      </c>
+      <c r="M179">
+        <v>361.64644872700001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -25031,8 +26114,14 @@
       <c r="K180">
         <v>901.77149635399996</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L180" t="s">
+        <v>261</v>
+      </c>
+      <c r="M180">
+        <v>423.08887849600001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -25069,8 +26158,14 @@
       <c r="K181">
         <v>901.85071537800002</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L181" t="s">
+        <v>260</v>
+      </c>
+      <c r="M181">
+        <v>901.82741969400001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -25107,8 +26202,14 @@
       <c r="K182">
         <v>901.86908341799995</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L182" t="s">
+        <v>261</v>
+      </c>
+      <c r="M182">
+        <v>331.86981630399998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -25145,8 +26246,14 @@
       <c r="K183">
         <v>55.103477781000002</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L183" t="s">
+        <v>261</v>
+      </c>
+      <c r="M183">
+        <v>209.080923345</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -25183,8 +26290,14 @@
       <c r="K184">
         <v>257.440989333</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L184" t="s">
+        <v>260</v>
+      </c>
+      <c r="M184">
+        <v>901.821976683</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -25221,8 +26334,14 @@
       <c r="K185">
         <v>901.76961090600003</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L185" t="s">
+        <v>260</v>
+      </c>
+      <c r="M185">
+        <v>901.90221757999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -25259,8 +26378,14 @@
       <c r="K186">
         <v>901.64223485399998</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L186" t="s">
+        <v>260</v>
+      </c>
+      <c r="M186">
+        <v>901.65419067799996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -25297,8 +26422,14 @@
       <c r="K187">
         <v>901.78804368099998</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L187" t="s">
+        <v>260</v>
+      </c>
+      <c r="M187">
+        <v>901.78661057600004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -25335,8 +26466,14 @@
       <c r="K188">
         <v>901.69962024100005</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L188" t="s">
+        <v>260</v>
+      </c>
+      <c r="M188">
+        <v>901.68789050199996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -25373,8 +26510,14 @@
       <c r="K189">
         <v>467.523635555</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L189" t="s">
+        <v>261</v>
+      </c>
+      <c r="M189">
+        <v>462.71311323999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -25411,8 +26554,14 @@
       <c r="K190">
         <v>901.71441550099996</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L190" t="s">
+        <v>261</v>
+      </c>
+      <c r="M190">
+        <v>374.06800933400001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -25449,8 +26598,14 @@
       <c r="K191">
         <v>901.73527085900002</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L191" t="s">
+        <v>261</v>
+      </c>
+      <c r="M191">
+        <v>376.31528081800002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -25487,8 +26642,14 @@
       <c r="K192">
         <v>901.747269684</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L192" t="s">
+        <v>261</v>
+      </c>
+      <c r="M192">
+        <v>377.71510604000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -25525,8 +26686,14 @@
       <c r="K193">
         <v>901.715041402</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L193" t="s">
+        <v>261</v>
+      </c>
+      <c r="M193">
+        <v>377.81247649099998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -25563,8 +26730,14 @@
       <c r="K194">
         <v>901.77949609799998</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L194" t="s">
+        <v>261</v>
+      </c>
+      <c r="M194">
+        <v>375.631682012</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -25601,8 +26774,14 @@
       <c r="K195">
         <v>901.73674081399997</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L195" t="s">
+        <v>261</v>
+      </c>
+      <c r="M195">
+        <v>374.189628981</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -25639,8 +26818,14 @@
       <c r="K196">
         <v>901.75392615099997</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L196" t="s">
+        <v>261</v>
+      </c>
+      <c r="M196">
+        <v>375.76876824499999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -25677,8 +26862,14 @@
       <c r="K197">
         <v>901.82650055199997</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L197" t="s">
+        <v>261</v>
+      </c>
+      <c r="M197">
+        <v>377.18767766799999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -25715,8 +26906,14 @@
       <c r="K198">
         <v>901.63361996100002</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L198" t="s">
+        <v>261</v>
+      </c>
+      <c r="M198">
+        <v>377.79432568999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -25753,8 +26950,14 @@
       <c r="K199">
         <v>901.70436382299999</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L199" t="s">
+        <v>261</v>
+      </c>
+      <c r="M199">
+        <v>378.33288976599999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -25791,8 +26994,14 @@
       <c r="K200">
         <v>901.74006081599998</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L200" t="s">
+        <v>261</v>
+      </c>
+      <c r="M200">
+        <v>377.58575077299997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -25829,8 +27038,14 @@
       <c r="K201">
         <v>901.73175637199995</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L201" t="s">
+        <v>261</v>
+      </c>
+      <c r="M201">
+        <v>374.63396084599998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -25867,8 +27082,14 @@
       <c r="K202">
         <v>901.83327375800002</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L202" t="s">
+        <v>261</v>
+      </c>
+      <c r="M202">
+        <v>371.74990883800001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -25905,8 +27126,14 @@
       <c r="K203">
         <v>901.73711681700001</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L203" t="s">
+        <v>261</v>
+      </c>
+      <c r="M203">
+        <v>375.531094338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -25943,8 +27170,14 @@
       <c r="K204">
         <v>901.66542882800002</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L204" t="s">
+        <v>261</v>
+      </c>
+      <c r="M204">
+        <v>379.12666924899997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -25981,8 +27214,14 @@
       <c r="K205">
         <v>901.75164081900004</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L205" t="s">
+        <v>260</v>
+      </c>
+      <c r="M205">
+        <v>901.92117202400004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -26019,8 +27258,14 @@
       <c r="K206">
         <v>901.76771768599997</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L206" t="s">
+        <v>260</v>
+      </c>
+      <c r="M206">
+        <v>901.91152725899997</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -26057,8 +27302,14 @@
       <c r="K207">
         <v>901.79881405799995</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L207" t="s">
+        <v>260</v>
+      </c>
+      <c r="M207">
+        <v>901.93081161999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -26095,8 +27346,14 @@
       <c r="K208">
         <v>901.781347396</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L208" t="s">
+        <v>260</v>
+      </c>
+      <c r="M208">
+        <v>901.94422756799997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -26133,8 +27390,14 @@
       <c r="K209">
         <v>901.77370051399998</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L209" t="s">
+        <v>260</v>
+      </c>
+      <c r="M209">
+        <v>901.97942791100002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -26171,8 +27434,14 @@
       <c r="K210">
         <v>901.68688885799997</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L210" t="s">
+        <v>260</v>
+      </c>
+      <c r="M210">
+        <v>901.86674174899997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -26209,8 +27478,14 @@
       <c r="K211">
         <v>901.76737816100001</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L211" t="s">
+        <v>260</v>
+      </c>
+      <c r="M211">
+        <v>901.91676658599999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -26247,8 +27522,14 @@
       <c r="K212">
         <v>901.79982269000004</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L212" t="s">
+        <v>260</v>
+      </c>
+      <c r="M212">
+        <v>901.90377795400002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -26285,8 +27566,14 @@
       <c r="K213">
         <v>901.79130194000004</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L213" t="s">
+        <v>260</v>
+      </c>
+      <c r="M213">
+        <v>901.922943465</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -26323,8 +27610,14 @@
       <c r="K214">
         <v>901.76748331099998</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L214" t="s">
+        <v>260</v>
+      </c>
+      <c r="M214">
+        <v>901.92663570499997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -26361,8 +27654,14 @@
       <c r="K215">
         <v>901.76484672499998</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L215" t="s">
+        <v>260</v>
+      </c>
+      <c r="M215">
+        <v>901.93464306500005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -26399,8 +27698,14 @@
       <c r="K216">
         <v>901.68976871300003</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L216" t="s">
+        <v>260</v>
+      </c>
+      <c r="M216">
+        <v>901.83585109000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -26437,8 +27742,14 @@
       <c r="K217">
         <v>901.77858494899999</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L217" t="s">
+        <v>260</v>
+      </c>
+      <c r="M217">
+        <v>901.90973408499997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -26475,8 +27786,14 @@
       <c r="K218">
         <v>901.79958156400005</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L218" t="s">
+        <v>260</v>
+      </c>
+      <c r="M218">
+        <v>901.91082040000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -26513,8 +27830,14 @@
       <c r="K219">
         <v>901.77187699700005</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L219" t="s">
+        <v>260</v>
+      </c>
+      <c r="M219">
+        <v>901.90571349100003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -26551,8 +27874,14 @@
       <c r="K220">
         <v>901.80315471599999</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L220" t="s">
+        <v>260</v>
+      </c>
+      <c r="M220">
+        <v>901.92103414999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -26589,8 +27918,14 @@
       <c r="K221">
         <v>901.84143733600001</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L221" t="s">
+        <v>260</v>
+      </c>
+      <c r="M221">
+        <v>901.93062413999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -26627,8 +27962,14 @@
       <c r="K222">
         <v>901.80178486099999</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L222" t="s">
+        <v>260</v>
+      </c>
+      <c r="M222">
+        <v>901.85482829800003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -26665,8 +28006,14 @@
       <c r="K223">
         <v>901.77595280000003</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L223" t="s">
+        <v>260</v>
+      </c>
+      <c r="M223">
+        <v>901.90781900599995</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -26703,8 +28050,14 @@
       <c r="K224">
         <v>901.77196169800004</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L224" t="s">
+        <v>260</v>
+      </c>
+      <c r="M224">
+        <v>901.92949698300004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -26741,8 +28094,14 @@
       <c r="K225">
         <v>371.33832713800001</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L225" t="s">
+        <v>261</v>
+      </c>
+      <c r="M225">
+        <v>289.82711357099998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -26779,8 +28138,14 @@
       <c r="K226">
         <v>454.83112910599999</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L226" t="s">
+        <v>261</v>
+      </c>
+      <c r="M226">
+        <v>261.64033683299999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -26817,8 +28182,14 @@
       <c r="K227">
         <v>371.56725847799999</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L227" t="s">
+        <v>261</v>
+      </c>
+      <c r="M227">
+        <v>288.73173312500001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -26855,8 +28226,14 @@
       <c r="K228">
         <v>730.10208583799999</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L228" t="s">
+        <v>261</v>
+      </c>
+      <c r="M228">
+        <v>290.01823381899999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -26893,8 +28270,14 @@
       <c r="K229">
         <v>329.42737186599999</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L229" t="s">
+        <v>261</v>
+      </c>
+      <c r="M229">
+        <v>285.29137780999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -26931,8 +28314,14 @@
       <c r="K230">
         <v>305.02501225200001</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L230" t="s">
+        <v>261</v>
+      </c>
+      <c r="M230">
+        <v>319.41944276800001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -26969,8 +28358,14 @@
       <c r="K231">
         <v>162.30105505099999</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L231" t="s">
+        <v>261</v>
+      </c>
+      <c r="M231">
+        <v>288.70854226099999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -27007,8 +28402,14 @@
       <c r="K232">
         <v>138.43285567300001</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L232" t="s">
+        <v>261</v>
+      </c>
+      <c r="M232">
+        <v>286.97308317699998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -27045,8 +28446,14 @@
       <c r="K233">
         <v>162.05643867000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L233" t="s">
+        <v>261</v>
+      </c>
+      <c r="M233">
+        <v>289.080580467</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -27083,8 +28490,14 @@
       <c r="K234">
         <v>184.71383831700001</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L234" t="s">
+        <v>261</v>
+      </c>
+      <c r="M234">
+        <v>289.05284258699999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -27121,8 +28534,14 @@
       <c r="K235">
         <v>485.96650032500003</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L235" t="s">
+        <v>261</v>
+      </c>
+      <c r="M235">
+        <v>287.98360920900001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -27159,8 +28578,14 @@
       <c r="K236">
         <v>506.60728759199998</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L236" t="s">
+        <v>261</v>
+      </c>
+      <c r="M236">
+        <v>289.84519299999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -27197,8 +28622,14 @@
       <c r="K237">
         <v>174.10308697799999</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L237" t="s">
+        <v>261</v>
+      </c>
+      <c r="M237">
+        <v>288.87610143400002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -27235,8 +28666,14 @@
       <c r="K238">
         <v>312.89883269799998</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L238" t="s">
+        <v>261</v>
+      </c>
+      <c r="M238">
+        <v>290.936869452</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -27273,8 +28710,14 @@
       <c r="K239">
         <v>19.156269924</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L239" t="s">
+        <v>261</v>
+      </c>
+      <c r="M239">
+        <v>428.650032603</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -27311,8 +28754,14 @@
       <c r="K240">
         <v>60.335114814999997</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L240" t="s">
+        <v>261</v>
+      </c>
+      <c r="M240">
+        <v>426.40971004800002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -27349,8 +28798,14 @@
       <c r="K241">
         <v>12.271280215000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L241" t="s">
+        <v>261</v>
+      </c>
+      <c r="M241">
+        <v>435.57989258100002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -27387,8 +28842,14 @@
       <c r="K242">
         <v>57.808759506999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L242" t="s">
+        <v>261</v>
+      </c>
+      <c r="M242">
+        <v>427.64882749999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -27425,8 +28886,14 @@
       <c r="K243">
         <v>44.571291410999997</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L243" t="s">
+        <v>261</v>
+      </c>
+      <c r="M243">
+        <v>430.58283936700002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -27463,8 +28930,14 @@
       <c r="K244">
         <v>26.449746823000002</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L244" t="s">
+        <v>261</v>
+      </c>
+      <c r="M244">
+        <v>433.05533016999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -27501,8 +28974,14 @@
       <c r="K245">
         <v>437.50447653800001</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L245" t="s">
+        <v>261</v>
+      </c>
+      <c r="M245">
+        <v>394.80382305000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -27539,8 +29018,14 @@
       <c r="K246">
         <v>178.65229049000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L246" t="s">
+        <v>261</v>
+      </c>
+      <c r="M246">
+        <v>412.05375456199999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -27577,8 +29062,14 @@
       <c r="K247">
         <v>391.47916637399999</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L247" t="s">
+        <v>261</v>
+      </c>
+      <c r="M247">
+        <v>413.80258595700002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -27615,8 +29106,14 @@
       <c r="K248">
         <v>101.837434782</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L248" t="s">
+        <v>259</v>
+      </c>
+      <c r="M248">
+        <v>80.725753695999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -27653,8 +29150,14 @@
       <c r="K249">
         <v>80.292722706000006</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L249" t="s">
+        <v>259</v>
+      </c>
+      <c r="M249">
+        <v>61.576339271999998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>275</v>
       </c>
@@ -27678,8 +29181,36 @@
         <f>COUNTIF(J4:J249,"sat") + COUNTIF(J4:J249,"unsat")</f>
         <v>94</v>
       </c>
+      <c r="L251">
+        <f>COUNTIF(L4:L249,"sat") + COUNTIF(L4:L249,"unsat")</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>277</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>22</v>
+      </c>
+      <c r="H252">
+        <v>9</v>
+      </c>
+      <c r="J252">
+        <v>13</v>
+      </c>
+      <c r="L252">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M252" xr:uid="{35486B71-12BE-2349-B57A-22BC9F8DFAFE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27688,8 +29219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130FAACC-10E2-5C4D-978B-741FB3F1F2DB}">
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView topLeftCell="F86" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -40923,6 +42454,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q251" xr:uid="{ADAA83BD-86BC-1C44-910D-ABC33C82A2EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/combinedresults/dqbf19.xlsx
+++ b/results/combinedresults/dqbf19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D53FE-FA69-3A40-B78B-216275AB740F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACEA778-CCC5-574B-B309-16071AFFEFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15360" activeTab="1" xr2:uid="{5DD0E6D6-7882-E44F-A577-7B002FAE22A9}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">dqbdd!$A$1:$Q$251</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">realtime!$A$1:$M$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">realtime!$A$1:$O$249</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4839" uniqueCount="280">
   <si>
     <t>tool</t>
   </si>
@@ -874,6 +874,12 @@
   <si>
     <t>uniquely solved (this is wrong, needs to remove DQBDD tree)</t>
   </si>
+  <si>
+    <t>DQBDDdynreorder 0.5</t>
+  </si>
+  <si>
+    <t>tree-simpleelimination-atbeginning.dqbf19</t>
+  </si>
 </sst>
 </file>
 
@@ -897,12 +903,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -917,10 +929,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18192,10 +18205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E88B51B-86D8-E547-9986-F518581AF70F}">
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:O252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18210,7 +18223,7 @@
     <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18250,8 +18263,14 @@
       <c r="M1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18291,8 +18310,14 @@
       <c r="M2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>279</v>
+      </c>
+      <c r="O2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18332,8 +18357,14 @@
       <c r="M3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -18376,8 +18407,14 @@
       <c r="M4">
         <v>901.68670359700002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4">
+        <v>901.59526907199995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -18420,8 +18457,14 @@
       <c r="M5">
         <v>901.90349689799996</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5">
+        <v>901.68137087800005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -18464,8 +18507,14 @@
       <c r="M6">
         <v>901.79542871900003</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6">
+        <v>901.68901847200004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -18508,8 +18557,14 @@
       <c r="M7">
         <v>901.89486329900001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7">
+        <v>901.68149446799998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -18552,8 +18607,14 @@
       <c r="M8">
         <v>901.81605079200006</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O8">
+        <v>901.68913957200004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -18596,8 +18657,14 @@
       <c r="M9">
         <v>421.68146624600001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>260</v>
+      </c>
+      <c r="O9">
+        <v>901.68257421999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -18640,8 +18707,14 @@
       <c r="M10">
         <v>0.45031598499999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O10">
+        <v>2.070356072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -18684,8 +18757,14 @@
       <c r="M11">
         <v>0.47832879</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>258</v>
+      </c>
+      <c r="O11">
+        <v>0.41736634299999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -18728,8 +18807,14 @@
       <c r="M12">
         <v>23.979405363000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12">
+        <v>30.614210404000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -18772,8 +18857,14 @@
       <c r="M13">
         <v>901.74665096599995</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>261</v>
+      </c>
+      <c r="O13">
+        <v>28.97162921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -18816,8 +18907,14 @@
       <c r="M14">
         <v>9.5362682000000004E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14">
+        <v>0.154041598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -18860,8 +18957,14 @@
       <c r="M15">
         <v>0.17877522900000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>258</v>
+      </c>
+      <c r="O15">
+        <v>0.20656339900000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -18904,8 +19007,14 @@
       <c r="M16">
         <v>92.409753330000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>260</v>
+      </c>
+      <c r="O16">
+        <v>901.68263391599999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -18948,8 +19057,14 @@
       <c r="M17">
         <v>93.809883024000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="s">
+        <v>260</v>
+      </c>
+      <c r="O17">
+        <v>901.69493192599998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -18992,8 +19107,14 @@
       <c r="M18">
         <v>91.721492924000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="s">
+        <v>260</v>
+      </c>
+      <c r="O18">
+        <v>901.68258542000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -19036,8 +19157,14 @@
       <c r="M19">
         <v>91.176365832000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>260</v>
+      </c>
+      <c r="O19">
+        <v>901.67707102700001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -19080,8 +19207,14 @@
       <c r="M20">
         <v>90.853693308000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>260</v>
+      </c>
+      <c r="O20">
+        <v>901.67795031900005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -19124,8 +19257,14 @@
       <c r="M21">
         <v>91.237849724</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="s">
+        <v>260</v>
+      </c>
+      <c r="O21">
+        <v>901.57475779200001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -19168,8 +19307,14 @@
       <c r="M22">
         <v>91.784116010000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>260</v>
+      </c>
+      <c r="O22">
+        <v>901.69468668000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -19212,8 +19357,14 @@
       <c r="M23">
         <v>90.638299919999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>260</v>
+      </c>
+      <c r="O23">
+        <v>901.68305591900003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -19256,8 +19407,14 @@
       <c r="M24">
         <v>91.654322741000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>260</v>
+      </c>
+      <c r="O24">
+        <v>901.67887450299997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -19300,8 +19457,14 @@
       <c r="M25">
         <v>91.592912287999994</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>260</v>
+      </c>
+      <c r="O25">
+        <v>901.69334602799995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -19344,8 +19507,14 @@
       <c r="M26">
         <v>90.888190644000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26">
+        <v>901.67823582000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -19388,8 +19557,14 @@
       <c r="M27">
         <v>91.985865378</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>260</v>
+      </c>
+      <c r="O27">
+        <v>901.58139770499997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -19432,8 +19607,14 @@
       <c r="M28">
         <v>91.534013588999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28">
+        <v>901.69094606399995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -19476,8 +19657,14 @@
       <c r="M29">
         <v>92.075464421000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29">
+        <v>901.68422930999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -19520,8 +19707,14 @@
       <c r="M30">
         <v>92.121324090000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30">
+        <v>901.85360275000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -19564,8 +19757,14 @@
       <c r="M31">
         <v>202.88463577600001</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31">
+        <v>126.94009105000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -19608,8 +19807,14 @@
       <c r="M32">
         <v>165.697857863</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" t="s">
+        <v>260</v>
+      </c>
+      <c r="O32">
+        <v>901.68150620400002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -19652,8 +19857,14 @@
       <c r="M33">
         <v>167.18481085499999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33">
+        <v>901.58122215499998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -19696,8 +19907,14 @@
       <c r="M34">
         <v>103.07008250299999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34">
+        <v>901.734211093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -19740,8 +19957,14 @@
       <c r="M35">
         <v>0.161592448</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35">
+        <v>0.56962020199999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -19784,8 +20007,14 @@
       <c r="M36">
         <v>82.790511073000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36">
+        <v>901.67466418100003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -19828,8 +20057,14 @@
       <c r="M37">
         <v>82.025603649000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
+        <v>260</v>
+      </c>
+      <c r="O37">
+        <v>901.67030162499998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -19872,8 +20107,14 @@
       <c r="M38">
         <v>2.1929276000000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38">
+        <v>2.5603056999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -19916,8 +20157,14 @@
       <c r="M39">
         <v>0.137990378</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>258</v>
+      </c>
+      <c r="O39">
+        <v>4.1543044000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -19960,8 +20207,14 @@
       <c r="M40">
         <v>0.13767146299999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>258</v>
+      </c>
+      <c r="O40">
+        <v>4.1805202999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -20004,8 +20257,14 @@
       <c r="M41">
         <v>901.56078541399995</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41">
+        <v>5.7678350000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -20048,8 +20307,14 @@
       <c r="M42">
         <v>0.67040133700000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>260</v>
+      </c>
+      <c r="O42">
+        <v>901.67670410699998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -20092,8 +20357,14 @@
       <c r="M43">
         <v>93.938432625000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>260</v>
+      </c>
+      <c r="O43">
+        <v>901.69029959800002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -20136,8 +20407,14 @@
       <c r="M44">
         <v>90.971360128000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44">
+        <v>901.59100276300001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -20180,8 +20457,14 @@
       <c r="M45">
         <v>91.344669027999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>260</v>
+      </c>
+      <c r="O45">
+        <v>901.69021657999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -20224,8 +20507,14 @@
       <c r="M46">
         <v>91.160639545999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>260</v>
+      </c>
+      <c r="O46">
+        <v>901.68140578099997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -20268,8 +20557,14 @@
       <c r="M47">
         <v>93.906236213</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>260</v>
+      </c>
+      <c r="O47">
+        <v>901.67968896599996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -20312,8 +20607,14 @@
       <c r="M48">
         <v>91.475795821999995</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>260</v>
+      </c>
+      <c r="O48">
+        <v>901.68744299499997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -20356,8 +20657,14 @@
       <c r="M49">
         <v>91.791674111000006</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
+        <v>260</v>
+      </c>
+      <c r="O49">
+        <v>901.67303396600005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -20400,8 +20707,14 @@
       <c r="M50">
         <v>93.879619138999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>260</v>
+      </c>
+      <c r="O50">
+        <v>901.58764492700004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -20444,8 +20757,14 @@
       <c r="M51">
         <v>90.636046754999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>260</v>
+      </c>
+      <c r="O51">
+        <v>901.69431472099996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -20488,8 +20807,14 @@
       <c r="M52">
         <v>94.194321392999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>260</v>
+      </c>
+      <c r="O52">
+        <v>901.68065193899997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -20532,8 +20857,14 @@
       <c r="M53">
         <v>91.278266833999993</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>260</v>
+      </c>
+      <c r="O53">
+        <v>901.68171992999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -20576,8 +20907,14 @@
       <c r="M54">
         <v>91.701483087</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
+        <v>260</v>
+      </c>
+      <c r="O54">
+        <v>901.68471515800002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -20620,8 +20957,14 @@
       <c r="M55">
         <v>90.979492633000007</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
+        <v>260</v>
+      </c>
+      <c r="O55">
+        <v>901.676870689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -20664,8 +21007,14 @@
       <c r="M56">
         <v>93.137301840999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
+        <v>260</v>
+      </c>
+      <c r="O56">
+        <v>901.58144754199998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -20708,8 +21057,14 @@
       <c r="M57">
         <v>92.193087313999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" t="s">
+        <v>260</v>
+      </c>
+      <c r="O57">
+        <v>901.69825049099995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -20752,8 +21107,14 @@
       <c r="M58">
         <v>91.031792881000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>260</v>
+      </c>
+      <c r="O58">
+        <v>901.68189935999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -20796,8 +21157,14 @@
       <c r="M59">
         <v>91.584884463999998</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>260</v>
+      </c>
+      <c r="O59">
+        <v>901.88093544799995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -20840,8 +21207,14 @@
       <c r="M60">
         <v>92.017093083999995</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>260</v>
+      </c>
+      <c r="O60">
+        <v>901.69431458199995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -20884,8 +21257,14 @@
       <c r="M61">
         <v>92.826517652000007</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
+        <v>260</v>
+      </c>
+      <c r="O61">
+        <v>901.67743134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -20928,8 +21307,14 @@
       <c r="M62">
         <v>92.103174640000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
+        <v>260</v>
+      </c>
+      <c r="O62">
+        <v>901.59156699000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -20972,8 +21357,14 @@
       <c r="M63">
         <v>113.311629457</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" t="s">
+        <v>260</v>
+      </c>
+      <c r="O63">
+        <v>901.67590612900005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -21016,8 +21407,14 @@
       <c r="M64">
         <v>92.565266691999994</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
+        <v>260</v>
+      </c>
+      <c r="O64">
+        <v>901.67078162400003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -21060,8 +21457,14 @@
       <c r="M65">
         <v>154.59128110200001</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
+        <v>260</v>
+      </c>
+      <c r="O65">
+        <v>901.80260568599999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -21104,8 +21507,14 @@
       <c r="M66">
         <v>95.985286135999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>260</v>
+      </c>
+      <c r="O66">
+        <v>901.67254702699995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -21148,8 +21557,14 @@
       <c r="M67">
         <v>95.700674887999995</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>260</v>
+      </c>
+      <c r="O67">
+        <v>901.66587745100003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -21192,8 +21607,14 @@
       <c r="M68">
         <v>90.772248934000004</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
+        <v>260</v>
+      </c>
+      <c r="O68">
+        <v>901.580934028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -21236,8 +21657,14 @@
       <c r="M69">
         <v>92.201844096000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
+        <v>260</v>
+      </c>
+      <c r="O69">
+        <v>901.68599808500005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -21280,8 +21707,14 @@
       <c r="M70">
         <v>90.726496840999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" t="s">
+        <v>260</v>
+      </c>
+      <c r="O70">
+        <v>901.67788838000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -21324,8 +21757,14 @@
       <c r="M71">
         <v>92.466103903999993</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" t="s">
+        <v>260</v>
+      </c>
+      <c r="O71">
+        <v>901.68088149499999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -21368,8 +21807,14 @@
       <c r="M72">
         <v>91.160605329999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" t="s">
+        <v>260</v>
+      </c>
+      <c r="O72">
+        <v>901.67130020000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -21412,8 +21857,14 @@
       <c r="M73">
         <v>90.902817323999997</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" t="s">
+        <v>260</v>
+      </c>
+      <c r="O73">
+        <v>901.67104243100005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -21456,8 +21907,14 @@
       <c r="M74">
         <v>92.525009983999993</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" t="s">
+        <v>260</v>
+      </c>
+      <c r="O74">
+        <v>901.58439810000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -21500,8 +21957,14 @@
       <c r="M75">
         <v>91.462876562999995</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" t="s">
+        <v>260</v>
+      </c>
+      <c r="O75">
+        <v>901.68229820700003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -21544,8 +22007,14 @@
       <c r="M76">
         <v>92.025858726999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>260</v>
+      </c>
+      <c r="O76">
+        <v>901.67932259999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -21588,8 +22057,14 @@
       <c r="M77">
         <v>91.247291001999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" t="s">
+        <v>260</v>
+      </c>
+      <c r="O77">
+        <v>901.76139962599996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -21632,8 +22107,14 @@
       <c r="M78">
         <v>91.026988492000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" t="s">
+        <v>260</v>
+      </c>
+      <c r="O78">
+        <v>901.68059708299995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -21676,8 +22157,14 @@
       <c r="M79">
         <v>93.426645770999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" t="s">
+        <v>260</v>
+      </c>
+      <c r="O79">
+        <v>901.67370722600003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -21720,8 +22207,14 @@
       <c r="M80">
         <v>92.640763108000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" t="s">
+        <v>260</v>
+      </c>
+      <c r="O80">
+        <v>901.59967246500003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -21764,8 +22257,14 @@
       <c r="M81">
         <v>317.95066357600001</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" t="s">
+        <v>260</v>
+      </c>
+      <c r="O81">
+        <v>901.72358189399995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -21808,8 +22307,14 @@
       <c r="M82">
         <v>102.672164391</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
+        <v>261</v>
+      </c>
+      <c r="O82">
+        <v>31.385897324999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -21852,8 +22357,14 @@
       <c r="M83">
         <v>96.000258054</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" t="s">
+        <v>261</v>
+      </c>
+      <c r="O83">
+        <v>33.62158883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -21896,8 +22407,14 @@
       <c r="M84">
         <v>3.3530022E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
+        <v>258</v>
+      </c>
+      <c r="O84">
+        <v>4.2561348999999998E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -21940,8 +22457,14 @@
       <c r="M85">
         <v>14.500450731999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" t="s">
+        <v>260</v>
+      </c>
+      <c r="O85">
+        <v>901.67571983799996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -21984,8 +22507,14 @@
       <c r="M86">
         <v>184.11971844000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" t="s">
+        <v>261</v>
+      </c>
+      <c r="O86">
+        <v>30.60407962</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -22028,8 +22557,14 @@
       <c r="M87">
         <v>2.5819676999999999E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" t="s">
+        <v>258</v>
+      </c>
+      <c r="O87">
+        <v>3.0734510999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -22072,8 +22607,14 @@
       <c r="M88">
         <v>81.877951225999993</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" t="s">
+        <v>261</v>
+      </c>
+      <c r="O88">
+        <v>32.181821264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -22116,8 +22657,14 @@
       <c r="M89">
         <v>144.163868511</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" t="s">
+        <v>261</v>
+      </c>
+      <c r="O89">
+        <v>31.209115111999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -22160,8 +22707,14 @@
       <c r="M90">
         <v>0.598268727</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" t="s">
+        <v>258</v>
+      </c>
+      <c r="O90">
+        <v>0.14254178300000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -22204,8 +22757,14 @@
       <c r="M91">
         <v>0.58231676499999996</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" t="s">
+        <v>258</v>
+      </c>
+      <c r="O91">
+        <v>0.254744533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -22248,8 +22807,14 @@
       <c r="M92">
         <v>52.752273367000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" t="s">
+        <v>258</v>
+      </c>
+      <c r="O92">
+        <v>18.504042072000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -22292,8 +22857,14 @@
       <c r="M93">
         <v>721.47601106000002</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" t="s">
+        <v>260</v>
+      </c>
+      <c r="O93">
+        <v>901.68831827999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -22336,8 +22907,14 @@
       <c r="M94">
         <v>895.03549405399997</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" t="s">
+        <v>260</v>
+      </c>
+      <c r="O94">
+        <v>901.68317130399998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -22380,8 +22957,14 @@
       <c r="M95">
         <v>901.86282717799997</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" t="s">
+        <v>260</v>
+      </c>
+      <c r="O95">
+        <v>901.68648981900003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -22424,8 +23007,14 @@
       <c r="M96">
         <v>901.85668597999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" t="s">
+        <v>260</v>
+      </c>
+      <c r="O96">
+        <v>901.60406895999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -22468,8 +23057,14 @@
       <c r="M97">
         <v>901.70146854999996</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" t="s">
+        <v>261</v>
+      </c>
+      <c r="O97">
+        <v>101.657824597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -22512,8 +23107,14 @@
       <c r="M98">
         <v>901.75112388699995</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" t="s">
+        <v>258</v>
+      </c>
+      <c r="O98">
+        <v>50.117705860000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -22556,8 +23157,14 @@
       <c r="M99">
         <v>285.64037744199999</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" t="s">
+        <v>259</v>
+      </c>
+      <c r="O99">
+        <v>13.208341982</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -22600,8 +23207,14 @@
       <c r="M100">
         <v>0.101749882</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" t="s">
+        <v>258</v>
+      </c>
+      <c r="O100">
+        <v>18.855791749000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -22644,8 +23257,14 @@
       <c r="M101">
         <v>289.01687954900001</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" t="s">
+        <v>259</v>
+      </c>
+      <c r="O101">
+        <v>19.18431996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -22688,8 +23307,14 @@
       <c r="M102">
         <v>0.12996542699999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" t="s">
+        <v>259</v>
+      </c>
+      <c r="O102">
+        <v>0.129693421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -22732,8 +23357,14 @@
       <c r="M103">
         <v>901.73639270800004</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" t="s">
+        <v>260</v>
+      </c>
+      <c r="O103">
+        <v>901.7419208</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -22776,8 +23407,14 @@
       <c r="M104">
         <v>901.80911093600002</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" t="s">
+        <v>260</v>
+      </c>
+      <c r="O104">
+        <v>901.82300339200003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -22820,8 +23457,14 @@
       <c r="M105">
         <v>758.21690201199999</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" t="s">
+        <v>258</v>
+      </c>
+      <c r="O105">
+        <v>42.744901982000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -22864,8 +23507,14 @@
       <c r="M106">
         <v>312.19893248699998</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" t="s">
+        <v>259</v>
+      </c>
+      <c r="O106">
+        <v>19.556751817999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -22908,8 +23557,14 @@
       <c r="M107">
         <v>288.24064765700001</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" t="s">
+        <v>259</v>
+      </c>
+      <c r="O107">
+        <v>20.949349660999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -22952,8 +23607,14 @@
       <c r="M108">
         <v>0.19384426900000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" t="s">
+        <v>259</v>
+      </c>
+      <c r="O108">
+        <v>0.190186682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -22996,8 +23657,14 @@
       <c r="M109">
         <v>0.16197946899999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" t="s">
+        <v>259</v>
+      </c>
+      <c r="O109">
+        <v>0.158040387</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -23040,8 +23707,14 @@
       <c r="M110">
         <v>681.80943971900001</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" t="s">
+        <v>259</v>
+      </c>
+      <c r="O110">
+        <v>12.561004586999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -23084,8 +23757,14 @@
       <c r="M111">
         <v>264.52458167600003</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" t="s">
+        <v>259</v>
+      </c>
+      <c r="O111">
+        <v>20.920626780999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -23128,8 +23807,14 @@
       <c r="M112">
         <v>68.396624497999994</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" t="s">
+        <v>261</v>
+      </c>
+      <c r="O112">
+        <v>17.392044086999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -23172,8 +23857,14 @@
       <c r="M113">
         <v>119.12664254400001</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" t="s">
+        <v>261</v>
+      </c>
+      <c r="O113">
+        <v>17.898443388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -23216,8 +23907,14 @@
       <c r="M114">
         <v>22.282320501000001</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" t="s">
+        <v>261</v>
+      </c>
+      <c r="O114">
+        <v>19.056639103999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -23260,8 +23957,14 @@
       <c r="M115">
         <v>62.852743189000002</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" t="s">
+        <v>261</v>
+      </c>
+      <c r="O115">
+        <v>16.689692017999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -23304,8 +24007,14 @@
       <c r="M116">
         <v>749.87047708700004</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" t="s">
+        <v>261</v>
+      </c>
+      <c r="O116">
+        <v>18.955085491999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -23348,8 +24057,14 @@
       <c r="M117">
         <v>901.727393076</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" t="s">
+        <v>261</v>
+      </c>
+      <c r="O117">
+        <v>18.310800082</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -23392,8 +24107,14 @@
       <c r="M118">
         <v>6.0374380810000003</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" t="s">
+        <v>258</v>
+      </c>
+      <c r="O118">
+        <v>0.67848631000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -23436,8 +24157,14 @@
       <c r="M119">
         <v>9.5843368089999998</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" t="s">
+        <v>259</v>
+      </c>
+      <c r="O119">
+        <v>0.66767466499999995</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -23480,8 +24207,14 @@
       <c r="M120">
         <v>8.3666505010000005</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" t="s">
+        <v>259</v>
+      </c>
+      <c r="O120">
+        <v>0.50250746000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -23524,8 +24257,14 @@
       <c r="M121">
         <v>4.2081603750000003</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" t="s">
+        <v>259</v>
+      </c>
+      <c r="O121">
+        <v>0.489757096</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -23568,8 +24307,14 @@
       <c r="M122">
         <v>8.2588015119999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" t="s">
+        <v>258</v>
+      </c>
+      <c r="O122">
+        <v>0.64663804499999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -23612,8 +24357,14 @@
       <c r="M123">
         <v>2.234756285</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" t="s">
+        <v>259</v>
+      </c>
+      <c r="O123">
+        <v>1.327142716</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -23656,8 +24407,14 @@
       <c r="M124">
         <v>126.841352896</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" t="s">
+        <v>259</v>
+      </c>
+      <c r="O124">
+        <v>0.50352679899999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -23700,8 +24457,14 @@
       <c r="M125">
         <v>3.37590557</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" t="s">
+        <v>259</v>
+      </c>
+      <c r="O125">
+        <v>0.46161991499999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -23744,8 +24507,14 @@
       <c r="M126">
         <v>2.219374111</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" t="s">
+        <v>259</v>
+      </c>
+      <c r="O126">
+        <v>1.3252805299999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -23788,8 +24557,14 @@
       <c r="M127">
         <v>0.73418394099999995</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" t="s">
+        <v>258</v>
+      </c>
+      <c r="O127">
+        <v>0.178590621</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -23832,8 +24607,14 @@
       <c r="M128">
         <v>0.77841205099999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" t="s">
+        <v>259</v>
+      </c>
+      <c r="O128">
+        <v>0.321617614</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -23876,8 +24657,14 @@
       <c r="M129">
         <v>0.69441493300000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" t="s">
+        <v>258</v>
+      </c>
+      <c r="O129">
+        <v>0.35028008500000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -23920,8 +24707,14 @@
       <c r="M130">
         <v>0.95457138500000005</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" t="s">
+        <v>259</v>
+      </c>
+      <c r="O130">
+        <v>0.33422856499999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -23964,8 +24757,14 @@
       <c r="M131">
         <v>0.67042240600000003</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" t="s">
+        <v>259</v>
+      </c>
+      <c r="O131">
+        <v>0.32889796399999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -24008,8 +24807,14 @@
       <c r="M132">
         <v>2.227327898</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" t="s">
+        <v>259</v>
+      </c>
+      <c r="O132">
+        <v>0.31513310700000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -24052,8 +24857,14 @@
       <c r="M133">
         <v>3.8963631400000001</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" t="s">
+        <v>259</v>
+      </c>
+      <c r="O133">
+        <v>0.95982263599999995</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -24096,8 +24907,14 @@
       <c r="M134">
         <v>2.471347593</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" t="s">
+        <v>259</v>
+      </c>
+      <c r="O134">
+        <v>0.239026338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -24140,8 +24957,14 @@
       <c r="M135">
         <v>240.38835290700001</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" t="s">
+        <v>259</v>
+      </c>
+      <c r="O135">
+        <v>1.3195639349999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -24184,8 +25007,14 @@
       <c r="M136">
         <v>483.20236474199999</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" t="s">
+        <v>259</v>
+      </c>
+      <c r="O136">
+        <v>0.86266341300000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -24228,8 +25057,14 @@
       <c r="M137">
         <v>218.622913168</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" t="s">
+        <v>259</v>
+      </c>
+      <c r="O137">
+        <v>1.534992514</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -24272,8 +25107,14 @@
       <c r="M138">
         <v>901.60462567900004</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" t="s">
+        <v>259</v>
+      </c>
+      <c r="O138">
+        <v>1.0248982339999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -24316,8 +25157,14 @@
       <c r="M139">
         <v>4.5328894550000003</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" t="s">
+        <v>258</v>
+      </c>
+      <c r="O139">
+        <v>0.221830572</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -24360,8 +25207,14 @@
       <c r="M140">
         <v>4.7089380409999997</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" t="s">
+        <v>259</v>
+      </c>
+      <c r="O140">
+        <v>0.44631717100000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -24404,8 +25257,14 @@
       <c r="M141">
         <v>1.998844163</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" t="s">
+        <v>258</v>
+      </c>
+      <c r="O141">
+        <v>0.24257988599999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -24448,8 +25307,14 @@
       <c r="M142">
         <v>416.90210300699999</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" t="s">
+        <v>259</v>
+      </c>
+      <c r="O142">
+        <v>0.60336353799999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -24492,8 +25357,14 @@
       <c r="M143">
         <v>6.9754878000000006E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" t="s">
+        <v>259</v>
+      </c>
+      <c r="O143">
+        <v>7.0369256000000005E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -24536,8 +25407,14 @@
       <c r="M144">
         <v>901.72192235</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" t="s">
+        <v>258</v>
+      </c>
+      <c r="O144">
+        <v>0.69071374699999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -24580,8 +25457,14 @@
       <c r="M145">
         <v>901.70730279999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" t="s">
+        <v>259</v>
+      </c>
+      <c r="O145">
+        <v>1.0591393410000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -24624,8 +25507,14 @@
       <c r="M146">
         <v>901.71131255800003</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" t="s">
+        <v>259</v>
+      </c>
+      <c r="O146">
+        <v>0.70905900099999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -24668,8 +25557,14 @@
       <c r="M147">
         <v>901.71389984899997</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" t="s">
+        <v>258</v>
+      </c>
+      <c r="O147">
+        <v>0.71991240099999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -24712,8 +25607,14 @@
       <c r="M148">
         <v>901.70956968600001</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" t="s">
+        <v>258</v>
+      </c>
+      <c r="O148">
+        <v>0.91843636299999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -24756,8 +25657,14 @@
       <c r="M149">
         <v>901.60518767999997</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" t="s">
+        <v>258</v>
+      </c>
+      <c r="O149">
+        <v>1.367753789</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -24800,8 +25707,14 @@
       <c r="M150">
         <v>901.72209818500005</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" t="s">
+        <v>259</v>
+      </c>
+      <c r="O150">
+        <v>0.96197991100000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -24844,8 +25757,14 @@
       <c r="M151">
         <v>28.806528774</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" t="s">
+        <v>259</v>
+      </c>
+      <c r="O151">
+        <v>29.010605904999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -24888,8 +25807,14 @@
       <c r="M152">
         <v>18.907693205000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" t="s">
+        <v>259</v>
+      </c>
+      <c r="O152">
+        <v>18.968141493000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -24932,8 +25857,14 @@
       <c r="M153">
         <v>3.7166006989999998</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" t="s">
+        <v>259</v>
+      </c>
+      <c r="O153">
+        <v>1.0719999929999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -24976,8 +25907,14 @@
       <c r="M154">
         <v>1.410813675</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" t="s">
+        <v>259</v>
+      </c>
+      <c r="O154">
+        <v>1.0027159729999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -25020,8 +25957,14 @@
       <c r="M155">
         <v>19.011272508000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" t="s">
+        <v>259</v>
+      </c>
+      <c r="O155">
+        <v>19.198952959</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -25064,8 +26007,14 @@
       <c r="M156">
         <v>0.29795597400000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" t="s">
+        <v>258</v>
+      </c>
+      <c r="O156">
+        <v>0.97965506099999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -25108,8 +26057,14 @@
       <c r="M157">
         <v>1.154659076</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" t="s">
+        <v>258</v>
+      </c>
+      <c r="O157">
+        <v>0.96330579500000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -25152,8 +26107,14 @@
       <c r="M158">
         <v>2.7197133519999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" t="s">
+        <v>259</v>
+      </c>
+      <c r="O158">
+        <v>0.93128535000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -25196,8 +26157,14 @@
       <c r="M159">
         <v>29.226698196000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" t="s">
+        <v>258</v>
+      </c>
+      <c r="O159">
+        <v>28.856187294000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -25240,8 +26207,14 @@
       <c r="M160">
         <v>49.710790842999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" t="s">
+        <v>259</v>
+      </c>
+      <c r="O160">
+        <v>49.811337211000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -25284,8 +26257,14 @@
       <c r="M161">
         <v>2.711702528</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" t="s">
+        <v>259</v>
+      </c>
+      <c r="O161">
+        <v>0.94631692199999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -25328,8 +26307,14 @@
       <c r="M162">
         <v>2.1233887400000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" t="s">
+        <v>259</v>
+      </c>
+      <c r="O162">
+        <v>1.3262818000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -25372,8 +26357,14 @@
       <c r="M163">
         <v>28.714915801</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" t="s">
+        <v>259</v>
+      </c>
+      <c r="O163">
+        <v>29.258674672000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -25416,8 +26407,14 @@
       <c r="M164">
         <v>0.29394513</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" t="s">
+        <v>258</v>
+      </c>
+      <c r="O164">
+        <v>0.97518547</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -25460,8 +26457,14 @@
       <c r="M165">
         <v>3.3797854000000002E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" t="s">
+        <v>259</v>
+      </c>
+      <c r="O165">
+        <v>5.4594563999999998E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -25504,8 +26507,14 @@
       <c r="M166">
         <v>3.7815762000000003E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" t="s">
+        <v>258</v>
+      </c>
+      <c r="O166">
+        <v>5.8655194000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -25548,8 +26557,14 @@
       <c r="M167">
         <v>3.3869877999999999E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" t="s">
+        <v>259</v>
+      </c>
+      <c r="O167">
+        <v>5.4705129999999998E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -25592,8 +26607,14 @@
       <c r="M168">
         <v>3.3795947E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" t="s">
+        <v>259</v>
+      </c>
+      <c r="O168">
+        <v>5.4454664E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -25636,8 +26657,14 @@
       <c r="M169">
         <v>3.7868341E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" t="s">
+        <v>258</v>
+      </c>
+      <c r="O169">
+        <v>5.4386715000000002E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -25680,8 +26707,14 @@
       <c r="M170">
         <v>3.7895854E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" t="s">
+        <v>258</v>
+      </c>
+      <c r="O170">
+        <v>5.4457564999999999E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -25724,8 +26757,14 @@
       <c r="M171">
         <v>4.6335029E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" t="s">
+        <v>258</v>
+      </c>
+      <c r="O171">
+        <v>6.6437288999999997E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -25768,8 +26807,14 @@
       <c r="M172">
         <v>3.4005318999999999E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" t="s">
+        <v>259</v>
+      </c>
+      <c r="O172">
+        <v>6.2907109000000003E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -25812,8 +26857,14 @@
       <c r="M173">
         <v>4.2295168000000001E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" t="s">
+        <v>259</v>
+      </c>
+      <c r="O173">
+        <v>6.3384983000000006E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -25856,8 +26907,14 @@
       <c r="M174">
         <v>901.84394919500005</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" t="s">
+        <v>260</v>
+      </c>
+      <c r="O174">
+        <v>901.68339887000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -25900,8 +26957,14 @@
       <c r="M175">
         <v>268.17617553500003</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" t="s">
+        <v>260</v>
+      </c>
+      <c r="O175">
+        <v>901.68970168999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -25944,8 +27007,14 @@
       <c r="M176">
         <v>261.95835160299998</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" t="s">
+        <v>260</v>
+      </c>
+      <c r="O176">
+        <v>901.59228063700004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -25988,8 +27057,14 @@
       <c r="M177">
         <v>345.43369718500003</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" t="s">
+        <v>260</v>
+      </c>
+      <c r="O177">
+        <v>901.68485048900004</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -26032,8 +27107,14 @@
       <c r="M178">
         <v>209.84469724499999</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" t="s">
+        <v>260</v>
+      </c>
+      <c r="O178">
+        <v>901.68788792600003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -26076,8 +27157,14 @@
       <c r="M179">
         <v>361.64644872700001</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" t="s">
+        <v>260</v>
+      </c>
+      <c r="O179">
+        <v>901.68929959299999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -26120,8 +27207,14 @@
       <c r="M180">
         <v>423.08887849600001</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" t="s">
+        <v>260</v>
+      </c>
+      <c r="O180">
+        <v>901.67795110199995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -26164,8 +27257,14 @@
       <c r="M181">
         <v>901.82741969400001</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" t="s">
+        <v>260</v>
+      </c>
+      <c r="O181">
+        <v>901.68385272399996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -26208,8 +27307,14 @@
       <c r="M182">
         <v>331.86981630399998</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" t="s">
+        <v>260</v>
+      </c>
+      <c r="O182">
+        <v>901.58936132500003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -26252,8 +27357,14 @@
       <c r="M183">
         <v>209.080923345</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" t="s">
+        <v>260</v>
+      </c>
+      <c r="O183">
+        <v>901.68519611900001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -26296,8 +27407,14 @@
       <c r="M184">
         <v>901.821976683</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" t="s">
+        <v>260</v>
+      </c>
+      <c r="O184">
+        <v>901.69205003800005</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -26340,8 +27457,14 @@
       <c r="M185">
         <v>901.90221757999996</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" t="s">
+        <v>260</v>
+      </c>
+      <c r="O185">
+        <v>901.691398123</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -26384,8 +27507,14 @@
       <c r="M186">
         <v>901.65419067799996</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" t="s">
+        <v>260</v>
+      </c>
+      <c r="O186">
+        <v>901.68360467599996</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -26428,8 +27557,14 @@
       <c r="M187">
         <v>901.78661057600004</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" t="s">
+        <v>260</v>
+      </c>
+      <c r="O187">
+        <v>901.67297041100005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -26472,8 +27607,14 @@
       <c r="M188">
         <v>901.68789050199996</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" t="s">
+        <v>260</v>
+      </c>
+      <c r="O188">
+        <v>901.58772184899999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -26516,8 +27657,14 @@
       <c r="M189">
         <v>462.71311323999998</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" t="s">
+        <v>260</v>
+      </c>
+      <c r="O189">
+        <v>901.68377849700005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -26560,8 +27707,14 @@
       <c r="M190">
         <v>374.06800933400001</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" t="s">
+        <v>258</v>
+      </c>
+      <c r="O190">
+        <v>16.245493080999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -26604,8 +27757,14 @@
       <c r="M191">
         <v>376.31528081800002</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" t="s">
+        <v>259</v>
+      </c>
+      <c r="O191">
+        <v>44.394362800000003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -26648,8 +27807,14 @@
       <c r="M192">
         <v>377.71510604000002</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" t="s">
+        <v>259</v>
+      </c>
+      <c r="O192">
+        <v>9.1604559830000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -26692,8 +27857,14 @@
       <c r="M193">
         <v>377.81247649099998</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" t="s">
+        <v>259</v>
+      </c>
+      <c r="O193">
+        <v>13.995950651999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -26736,8 +27907,14 @@
       <c r="M194">
         <v>375.631682012</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" t="s">
+        <v>259</v>
+      </c>
+      <c r="O194">
+        <v>32.645811352999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -26780,8 +27957,14 @@
       <c r="M195">
         <v>374.189628981</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" t="s">
+        <v>259</v>
+      </c>
+      <c r="O195">
+        <v>58.809339475000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -26824,8 +28007,14 @@
       <c r="M196">
         <v>375.76876824499999</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" t="s">
+        <v>259</v>
+      </c>
+      <c r="O196">
+        <v>26.217260850999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -26868,8 +28057,14 @@
       <c r="M197">
         <v>377.18767766799999</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" t="s">
+        <v>259</v>
+      </c>
+      <c r="O197">
+        <v>46.047832022000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -26912,8 +28107,14 @@
       <c r="M198">
         <v>377.79432568999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" t="s">
+        <v>260</v>
+      </c>
+      <c r="O198">
+        <v>901.68922245199997</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -26956,8 +28157,14 @@
       <c r="M199">
         <v>378.33288976599999</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" t="s">
+        <v>258</v>
+      </c>
+      <c r="O199">
+        <v>51.271604052999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -27000,8 +28207,14 @@
       <c r="M200">
         <v>377.58575077299997</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" t="s">
+        <v>260</v>
+      </c>
+      <c r="O200">
+        <v>901.69347850400004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -27044,8 +28257,14 @@
       <c r="M201">
         <v>374.63396084599998</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" t="s">
+        <v>259</v>
+      </c>
+      <c r="O201">
+        <v>586.47599216900005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -27088,8 +28307,14 @@
       <c r="M202">
         <v>371.74990883800001</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" t="s">
+        <v>259</v>
+      </c>
+      <c r="O202">
+        <v>104.410285847</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -27132,8 +28357,14 @@
       <c r="M203">
         <v>375.531094338</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" t="s">
+        <v>259</v>
+      </c>
+      <c r="O203">
+        <v>784.65837651000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -27176,8 +28407,14 @@
       <c r="M204">
         <v>379.12666924899997</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" t="s">
+        <v>260</v>
+      </c>
+      <c r="O204">
+        <v>901.678012954</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -27220,8 +28457,14 @@
       <c r="M205">
         <v>901.92117202400004</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" t="s">
+        <v>258</v>
+      </c>
+      <c r="O205">
+        <v>9.7887999210000007</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -27264,8 +28507,14 @@
       <c r="M206">
         <v>901.91152725899997</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" t="s">
+        <v>259</v>
+      </c>
+      <c r="O206">
+        <v>21.253559467999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -27308,8 +28557,14 @@
       <c r="M207">
         <v>901.93081161999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" t="s">
+        <v>259</v>
+      </c>
+      <c r="O207">
+        <v>7.787452665</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -27352,8 +28607,14 @@
       <c r="M208">
         <v>901.94422756799997</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" t="s">
+        <v>259</v>
+      </c>
+      <c r="O208">
+        <v>26.713495036000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -27396,8 +28657,14 @@
       <c r="M209">
         <v>901.97942791100002</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" t="s">
+        <v>259</v>
+      </c>
+      <c r="O209">
+        <v>25.344532386000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -27440,8 +28707,14 @@
       <c r="M210">
         <v>901.86674174899997</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" t="s">
+        <v>259</v>
+      </c>
+      <c r="O210">
+        <v>76.154035636000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -27484,8 +28757,14 @@
       <c r="M211">
         <v>901.91676658599999</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" t="s">
+        <v>259</v>
+      </c>
+      <c r="O211">
+        <v>6.6547002060000002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -27528,8 +28807,14 @@
       <c r="M212">
         <v>901.90377795400002</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" t="s">
+        <v>259</v>
+      </c>
+      <c r="O212">
+        <v>55.771123819000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -27572,8 +28857,14 @@
       <c r="M213">
         <v>901.922943465</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" t="s">
+        <v>259</v>
+      </c>
+      <c r="O213">
+        <v>29.375474236999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -27616,8 +28907,14 @@
       <c r="M214">
         <v>901.92663570499997</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" t="s">
+        <v>259</v>
+      </c>
+      <c r="O214">
+        <v>11.646405788999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -27660,8 +28957,14 @@
       <c r="M215">
         <v>901.93464306500005</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" t="s">
+        <v>259</v>
+      </c>
+      <c r="O215">
+        <v>31.817285194</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -27704,8 +29007,14 @@
       <c r="M216">
         <v>901.83585109000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" t="s">
+        <v>259</v>
+      </c>
+      <c r="O216">
+        <v>101.49295087100001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -27748,8 +29057,14 @@
       <c r="M217">
         <v>901.90973408499997</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" t="s">
+        <v>259</v>
+      </c>
+      <c r="O217">
+        <v>85.596985485999994</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -27792,8 +29107,14 @@
       <c r="M218">
         <v>901.91082040000003</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" t="s">
+        <v>259</v>
+      </c>
+      <c r="O218">
+        <v>151.53297589100001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -27836,8 +29157,14 @@
       <c r="M219">
         <v>901.90571349100003</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" t="s">
+        <v>259</v>
+      </c>
+      <c r="O219">
+        <v>12.550783701</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -27880,8 +29207,14 @@
       <c r="M220">
         <v>901.92103414999997</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" t="s">
+        <v>259</v>
+      </c>
+      <c r="O220">
+        <v>158.56752614499999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -27924,8 +29257,14 @@
       <c r="M221">
         <v>901.93062413999996</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" t="s">
+        <v>259</v>
+      </c>
+      <c r="O221">
+        <v>23.539143887000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -27968,8 +29307,14 @@
       <c r="M222">
         <v>901.85482829800003</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" t="s">
+        <v>259</v>
+      </c>
+      <c r="O222">
+        <v>29.891773778000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -28012,8 +29357,14 @@
       <c r="M223">
         <v>901.90781900599995</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" t="s">
+        <v>259</v>
+      </c>
+      <c r="O223">
+        <v>34.335069304000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -28056,8 +29407,14 @@
       <c r="M224">
         <v>901.92949698300004</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" t="s">
+        <v>259</v>
+      </c>
+      <c r="O224">
+        <v>11.650372427000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -28100,8 +29457,14 @@
       <c r="M225">
         <v>289.82711357099998</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" t="s">
+        <v>259</v>
+      </c>
+      <c r="O225">
+        <v>3.0400152560000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -28144,8 +29507,14 @@
       <c r="M226">
         <v>261.64033683299999</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" t="s">
+        <v>259</v>
+      </c>
+      <c r="O226">
+        <v>1.7150334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -28188,8 +29557,14 @@
       <c r="M227">
         <v>288.73173312500001</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" t="s">
+        <v>259</v>
+      </c>
+      <c r="O227">
+        <v>1.7283370849999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -28232,8 +29607,14 @@
       <c r="M228">
         <v>290.01823381899999</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" t="s">
+        <v>259</v>
+      </c>
+      <c r="O228">
+        <v>3.6488472729999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -28276,8 +29657,14 @@
       <c r="M229">
         <v>285.29137780999997</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" t="s">
+        <v>259</v>
+      </c>
+      <c r="O229">
+        <v>2.663697124</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -28320,8 +29707,14 @@
       <c r="M230">
         <v>319.41944276800001</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" t="s">
+        <v>259</v>
+      </c>
+      <c r="O230">
+        <v>1.4868983010000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -28364,8 +29757,14 @@
       <c r="M231">
         <v>288.70854226099999</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" t="s">
+        <v>258</v>
+      </c>
+      <c r="O231">
+        <v>2.4435705749999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -28408,8 +29807,14 @@
       <c r="M232">
         <v>286.97308317699998</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" t="s">
+        <v>259</v>
+      </c>
+      <c r="O232">
+        <v>11.230117954000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -28452,8 +29857,14 @@
       <c r="M233">
         <v>289.080580467</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" t="s">
+        <v>259</v>
+      </c>
+      <c r="O233">
+        <v>1.7871180630000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -28496,8 +29907,14 @@
       <c r="M234">
         <v>289.05284258699999</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" t="s">
+        <v>258</v>
+      </c>
+      <c r="O234">
+        <v>2.371633025</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -28540,8 +29957,14 @@
       <c r="M235">
         <v>287.98360920900001</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" t="s">
+        <v>259</v>
+      </c>
+      <c r="O235">
+        <v>2.155372549</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -28584,8 +30007,14 @@
       <c r="M236">
         <v>289.84519299999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" t="s">
+        <v>259</v>
+      </c>
+      <c r="O236">
+        <v>4.2381726889999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -28628,8 +30057,14 @@
       <c r="M237">
         <v>288.87610143400002</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" t="s">
+        <v>259</v>
+      </c>
+      <c r="O237">
+        <v>3.8966328130000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -28672,8 +30107,14 @@
       <c r="M238">
         <v>290.936869452</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" t="s">
+        <v>259</v>
+      </c>
+      <c r="O238">
+        <v>2.3036372059999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -28716,8 +30157,14 @@
       <c r="M239">
         <v>428.650032603</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" t="s">
+        <v>258</v>
+      </c>
+      <c r="O239">
+        <v>19.243596621999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -28760,8 +30207,14 @@
       <c r="M240">
         <v>426.40971004800002</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" t="s">
+        <v>259</v>
+      </c>
+      <c r="O240">
+        <v>10.409617182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -28804,8 +30257,14 @@
       <c r="M241">
         <v>435.57989258100002</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" t="s">
+        <v>259</v>
+      </c>
+      <c r="O241">
+        <v>8.3960524329999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -28848,8 +30307,14 @@
       <c r="M242">
         <v>427.64882749999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242" t="s">
+        <v>259</v>
+      </c>
+      <c r="O242">
+        <v>8.2756081469999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -28892,8 +30357,14 @@
       <c r="M243">
         <v>430.58283936700002</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" t="s">
+        <v>259</v>
+      </c>
+      <c r="O243">
+        <v>6.7104868069999997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -28936,8 +30407,14 @@
       <c r="M244">
         <v>433.05533016999999</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" t="s">
+        <v>259</v>
+      </c>
+      <c r="O244">
+        <v>5.1974418260000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -28980,8 +30457,14 @@
       <c r="M245">
         <v>394.80382305000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" t="s">
+        <v>259</v>
+      </c>
+      <c r="O245">
+        <v>12.845981845000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -29024,8 +30507,14 @@
       <c r="M246">
         <v>412.05375456199999</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246" t="s">
+        <v>259</v>
+      </c>
+      <c r="O246">
+        <v>25.06044868</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -29068,8 +30557,14 @@
       <c r="M247">
         <v>413.80258595700002</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" t="s">
+        <v>259</v>
+      </c>
+      <c r="O247">
+        <v>25.868731637</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -29112,8 +30607,14 @@
       <c r="M248">
         <v>80.725753695999998</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" t="s">
+        <v>261</v>
+      </c>
+      <c r="O248">
+        <v>122.834903458</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -29156,24 +30657,30 @@
       <c r="M249">
         <v>61.576339271999998</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" t="s">
+        <v>261</v>
+      </c>
+      <c r="O249">
+        <v>102.914173507</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>275</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="3">
         <f>COUNTIF(B4:B249,"sat") + COUNTIF(B4:B249,"unsat")</f>
         <v>27</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="3">
         <f>COUNTIF(D4:D249,"sat") + COUNTIF(D4:D249,"unsat")</f>
         <v>43</v>
       </c>
-      <c r="F251">
+      <c r="F251" s="3">
         <f>COUNTIF(F4:F249,"sat") + COUNTIF(F4:F249,"unsat")</f>
         <v>139</v>
       </c>
-      <c r="H251">
+      <c r="H251" s="3">
         <f>COUNTIF(H4:H249,"sat") + COUNTIF(H4:H249,"unsat")</f>
         <v>111</v>
       </c>
@@ -29185,22 +30692,26 @@
         <f>COUNTIF(L4:L249,"sat") + COUNTIF(L4:L249,"unsat")</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="3">
+        <f>COUNTIF(N4:N249,"sat") + COUNTIF(N4:N249,"unsat")</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>277</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="3">
         <v>1</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="3">
         <v>0</v>
       </c>
-      <c r="F252">
-        <v>22</v>
-      </c>
-      <c r="H252">
-        <v>9</v>
+      <c r="F252" s="3">
+        <v>5</v>
+      </c>
+      <c r="H252" s="3">
+        <v>1</v>
       </c>
       <c r="J252">
         <v>13</v>
@@ -29208,9 +30719,12 @@
       <c r="L252">
         <v>7</v>
       </c>
+      <c r="N252" s="3">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M252" xr:uid="{35486B71-12BE-2349-B57A-22BC9F8DFAFE}"/>
+  <autoFilter ref="A1:O249" xr:uid="{A71FF0FB-C798-074B-BAB4-A06B51F78A39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/results/combinedresults/dqbf19.xlsx
+++ b/results/combinedresults/dqbf19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurajsic/OneDrive/skola/magisterFI/diplomka/DQBFbenchmarks/results/combinedresults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0525C08-B385-C54B-8A6A-B7CC5831E47F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9801C402-7812-F645-8FA6-C54BA2FCF16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15360" activeTab="1" xr2:uid="{5DD0E6D6-7882-E44F-A577-7B002FAE22A9}"/>
   </bookViews>
@@ -833,9 +833,6 @@
     <t>qbf-mode.dqbf19</t>
   </si>
   <si>
-    <t>ERROR (2)</t>
-  </si>
-  <si>
     <t>HQS 2</t>
   </si>
   <si>
@@ -903,6 +900,9 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>qbf-mode-noproofreconstruction.dqbf19</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27634EDD-9222-1847-97B6-41C1AA2BB546}">
   <dimension ref="A1:V249"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="J249" sqref="J1:J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1294,7 @@
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -1338,31 +1338,31 @@
         <v>262</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="T1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -1394,10 +1394,10 @@
         <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="L2" t="s">
         <v>263</v>
@@ -1486,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S3" t="s">
         <v>5</v>
@@ -1533,7 +1533,7 @@
         <v>258</v>
       </c>
       <c r="K4">
-        <v>38.520612325000002</v>
+        <v>38.515808896999999</v>
       </c>
       <c r="L4">
         <v>38.553565099835303</v>
@@ -1601,7 +1601,7 @@
         <v>259</v>
       </c>
       <c r="K5">
-        <v>562.24240975099997</v>
+        <v>208.93828907299999</v>
       </c>
       <c r="L5">
         <v>561.86677016317799</v>
@@ -1669,7 +1669,7 @@
         <v>258</v>
       </c>
       <c r="K6">
-        <v>198.29217816299999</v>
+        <v>198.451491103</v>
       </c>
       <c r="L6">
         <v>198.19146971032001</v>
@@ -1734,10 +1734,10 @@
         <v>14.9422079999999</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K7">
-        <v>901.67813278799997</v>
+        <v>340.88158077700001</v>
       </c>
       <c r="L7">
         <v>901.05589121207595</v>
@@ -1805,7 +1805,7 @@
         <v>260</v>
       </c>
       <c r="K8">
-        <v>901.67713214100002</v>
+        <v>901.66895953400001</v>
       </c>
       <c r="L8">
         <v>901.06327020004301</v>
@@ -1870,10 +1870,10 @@
         <v>25.505792</v>
       </c>
       <c r="J9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K9">
-        <v>901.67772327900002</v>
+        <v>365.67333637399997</v>
       </c>
       <c r="L9">
         <v>901.035828094929</v>
@@ -1941,7 +1941,7 @@
         <v>258</v>
       </c>
       <c r="K10">
-        <v>3.8129855080000001</v>
+        <v>3.8165099750000002</v>
       </c>
       <c r="L10">
         <v>3.8650476261973301</v>
@@ -2009,7 +2009,7 @@
         <v>258</v>
       </c>
       <c r="K11">
-        <v>2.1000826629999998</v>
+        <v>2.1000815180000001</v>
       </c>
       <c r="L11">
         <v>2.1353008858859499</v>
@@ -2077,7 +2077,7 @@
         <v>258</v>
       </c>
       <c r="K12">
-        <v>94.084669976000001</v>
+        <v>94.125569116999998</v>
       </c>
       <c r="L12">
         <v>94.083260625600801</v>
@@ -2145,7 +2145,7 @@
         <v>261</v>
       </c>
       <c r="K13">
-        <v>361.35585942400002</v>
+        <v>357.85038988700001</v>
       </c>
       <c r="L13">
         <v>361.19516301900097</v>
@@ -2213,7 +2213,7 @@
         <v>258</v>
       </c>
       <c r="K14">
-        <v>0.618905661</v>
+        <v>0.62302439899999995</v>
       </c>
       <c r="L14">
         <v>0.65887298807501704</v>
@@ -2281,7 +2281,7 @@
         <v>258</v>
       </c>
       <c r="K15">
-        <v>0.68299494000000005</v>
+        <v>0.68691171399999995</v>
       </c>
       <c r="L15">
         <v>0.71100356057286196</v>
@@ -2349,7 +2349,7 @@
         <v>261</v>
       </c>
       <c r="K16">
-        <v>251.78485658700001</v>
+        <v>252.789310769</v>
       </c>
       <c r="L16">
         <v>251.64289487153201</v>
@@ -2358,7 +2358,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O16">
         <v>1.5120903539999999</v>
@@ -2417,7 +2417,7 @@
         <v>261</v>
       </c>
       <c r="K17">
-        <v>405.595018321</v>
+        <v>385.09069171800002</v>
       </c>
       <c r="L17">
         <v>405.33876184001502</v>
@@ -2426,7 +2426,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O17">
         <v>0.18677808600000001</v>
@@ -2485,7 +2485,7 @@
         <v>261</v>
       </c>
       <c r="K18">
-        <v>378.62303250600002</v>
+        <v>418.67243853999997</v>
       </c>
       <c r="L18">
         <v>378.43703063949903</v>
@@ -2494,7 +2494,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O18">
         <v>0.279595973</v>
@@ -2553,7 +2553,7 @@
         <v>261</v>
       </c>
       <c r="K19">
-        <v>400.96664576799998</v>
+        <v>385.297319104</v>
       </c>
       <c r="L19">
         <v>400.73113825172101</v>
@@ -2562,7 +2562,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O19">
         <v>0.32772429600000003</v>
@@ -2621,7 +2621,7 @@
         <v>261</v>
       </c>
       <c r="K20">
-        <v>304.88718437199998</v>
+        <v>296.93135242900001</v>
       </c>
       <c r="L20">
         <v>304.71855524554798</v>
@@ -2630,7 +2630,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O20">
         <v>0.38753418699999997</v>
@@ -2689,7 +2689,7 @@
         <v>261</v>
       </c>
       <c r="K21">
-        <v>194.46495736200001</v>
+        <v>192.34014346800001</v>
       </c>
       <c r="L21">
         <v>194.42094307392799</v>
@@ -2698,7 +2698,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O21">
         <v>0.359375536</v>
@@ -2757,7 +2757,7 @@
         <v>261</v>
       </c>
       <c r="K22">
-        <v>644.746867855</v>
+        <v>532.58476292</v>
       </c>
       <c r="L22">
         <v>644.33108769729699</v>
@@ -2766,7 +2766,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O22">
         <v>0.44810016400000002</v>
@@ -2825,7 +2825,7 @@
         <v>261</v>
       </c>
       <c r="K23">
-        <v>386.16832990900002</v>
+        <v>379.73855488700002</v>
       </c>
       <c r="L23">
         <v>385.952978815883</v>
@@ -2834,7 +2834,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O23">
         <v>0.487292002</v>
@@ -2893,7 +2893,7 @@
         <v>261</v>
       </c>
       <c r="K24">
-        <v>278.63747924</v>
+        <v>285.11622543599998</v>
       </c>
       <c r="L24">
         <v>278.48288887739102</v>
@@ -2902,7 +2902,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O24">
         <v>0.64021079400000003</v>
@@ -2961,7 +2961,7 @@
         <v>261</v>
       </c>
       <c r="K25">
-        <v>538.73686329999998</v>
+        <v>534.42947206199995</v>
       </c>
       <c r="L25">
         <v>538.39065126702098</v>
@@ -2970,7 +2970,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O25">
         <v>0.57135201999999996</v>
@@ -3029,7 +3029,7 @@
         <v>261</v>
       </c>
       <c r="K26">
-        <v>466.90095028000002</v>
+        <v>452.15018119199999</v>
       </c>
       <c r="L26">
         <v>466.95478456839902</v>
@@ -3038,7 +3038,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O26">
         <v>0.69623392200000001</v>
@@ -3097,7 +3097,7 @@
         <v>261</v>
       </c>
       <c r="K27">
-        <v>313.217696343</v>
+        <v>315.37686692400001</v>
       </c>
       <c r="L27">
         <v>313.03878262639</v>
@@ -3106,7 +3106,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O27">
         <v>0.95545212599999996</v>
@@ -3165,7 +3165,7 @@
         <v>261</v>
       </c>
       <c r="K28">
-        <v>396.06241946599999</v>
+        <v>415.94556016299998</v>
       </c>
       <c r="L28">
         <v>395.834647789597</v>
@@ -3174,7 +3174,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O28">
         <v>0.81574907500000005</v>
@@ -3233,7 +3233,7 @@
         <v>261</v>
       </c>
       <c r="K29">
-        <v>296.02898849799999</v>
+        <v>294.16573138000001</v>
       </c>
       <c r="L29">
         <v>295.85872961580702</v>
@@ -3242,7 +3242,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O29">
         <v>1.2633013749999999</v>
@@ -3301,7 +3301,7 @@
         <v>261</v>
       </c>
       <c r="K30">
-        <v>368.49020220199998</v>
+        <v>323.925993893</v>
       </c>
       <c r="L30">
         <v>368.26664861291601</v>
@@ -3310,7 +3310,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O30">
         <v>0.86328111200000002</v>
@@ -3369,7 +3369,7 @@
         <v>261</v>
       </c>
       <c r="K31">
-        <v>481.25908153400002</v>
+        <v>484.74158509300003</v>
       </c>
       <c r="L31">
         <v>480.93859472870798</v>
@@ -3378,7 +3378,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O31">
         <v>107.323403656</v>
@@ -3437,7 +3437,7 @@
         <v>261</v>
       </c>
       <c r="K32">
-        <v>526.15515774100004</v>
+        <v>584.94597157099997</v>
       </c>
       <c r="L32">
         <v>525.81882437691002</v>
@@ -3505,7 +3505,7 @@
         <v>261</v>
       </c>
       <c r="K33">
-        <v>536.96393067099996</v>
+        <v>553.08634953800004</v>
       </c>
       <c r="L33">
         <v>536.71067563444296</v>
@@ -3573,7 +3573,7 @@
         <v>261</v>
       </c>
       <c r="K34">
-        <v>417.86889851699999</v>
+        <v>428.01667412900002</v>
       </c>
       <c r="L34">
         <v>417.61082831770102</v>
@@ -3582,7 +3582,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O34">
         <v>11.538785287</v>
@@ -3641,7 +3641,7 @@
         <v>258</v>
       </c>
       <c r="K35">
-        <v>75.117743986999997</v>
+        <v>75.036859379999996</v>
       </c>
       <c r="L35">
         <v>75.094631221145306</v>
@@ -3709,7 +3709,7 @@
         <v>261</v>
       </c>
       <c r="K36">
-        <v>208.175474584</v>
+        <v>206.995031243</v>
       </c>
       <c r="L36">
         <v>208.066380772739</v>
@@ -3777,7 +3777,7 @@
         <v>261</v>
       </c>
       <c r="K37">
-        <v>194.87734859599999</v>
+        <v>212.484435053</v>
       </c>
       <c r="L37">
         <v>194.79469269141501</v>
@@ -3845,7 +3845,7 @@
         <v>258</v>
       </c>
       <c r="K38">
-        <v>0.26454443300000002</v>
+        <v>0.26639354599999998</v>
       </c>
       <c r="L38">
         <v>0.32885855436325001</v>
@@ -3913,7 +3913,7 @@
         <v>258</v>
       </c>
       <c r="K39">
-        <v>74.418915716000001</v>
+        <v>74.435583293999997</v>
       </c>
       <c r="L39">
         <v>74.426608961075502</v>
@@ -3981,7 +3981,7 @@
         <v>258</v>
       </c>
       <c r="K40">
-        <v>74.108653575999995</v>
+        <v>74.119952651999995</v>
       </c>
       <c r="L40">
         <v>74.118688732385607</v>
@@ -4049,7 +4049,7 @@
         <v>258</v>
       </c>
       <c r="K41">
-        <v>78.186534531000007</v>
+        <v>78.123596183000004</v>
       </c>
       <c r="L41">
         <v>78.186741165816699</v>
@@ -4117,7 +4117,7 @@
         <v>261</v>
       </c>
       <c r="K42">
-        <v>342.48005897799999</v>
+        <v>343.762213105</v>
       </c>
       <c r="L42">
         <v>342.270863100886</v>
@@ -4185,7 +4185,7 @@
         <v>261</v>
       </c>
       <c r="K43">
-        <v>431.73711293700001</v>
+        <v>485.789615621</v>
       </c>
       <c r="L43">
         <v>431.466676674783</v>
@@ -4194,7 +4194,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O43">
         <v>0.64300546599999997</v>
@@ -4253,7 +4253,7 @@
         <v>261</v>
       </c>
       <c r="K44">
-        <v>312.80319247800003</v>
+        <v>269.00926656899998</v>
       </c>
       <c r="L44">
         <v>312.646654497832</v>
@@ -4262,7 +4262,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O44">
         <v>0.50685202699999998</v>
@@ -4321,7 +4321,7 @@
         <v>261</v>
       </c>
       <c r="K45">
-        <v>313.18297960500001</v>
+        <v>291.48926418500002</v>
       </c>
       <c r="L45">
         <v>312.98673655092699</v>
@@ -4330,7 +4330,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O45">
         <v>0.67888024999999996</v>
@@ -4389,7 +4389,7 @@
         <v>261</v>
       </c>
       <c r="K46">
-        <v>324.91756988700001</v>
+        <v>324.34411423500001</v>
       </c>
       <c r="L46">
         <v>324.72674306109502</v>
@@ -4398,7 +4398,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O46">
         <v>0.52675479000000003</v>
@@ -4457,7 +4457,7 @@
         <v>261</v>
       </c>
       <c r="K47">
-        <v>387.71166780999999</v>
+        <v>321.86935389899998</v>
       </c>
       <c r="L47">
         <v>387.53056243062002</v>
@@ -4466,7 +4466,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O47">
         <v>0.52675011299999996</v>
@@ -4525,7 +4525,7 @@
         <v>261</v>
       </c>
       <c r="K48">
-        <v>276.664085161</v>
+        <v>282.78381579199998</v>
       </c>
       <c r="L48">
         <v>276.51887930929598</v>
@@ -4534,7 +4534,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O48">
         <v>0.586953736</v>
@@ -4593,7 +4593,7 @@
         <v>261</v>
       </c>
       <c r="K49">
-        <v>330.36918920800002</v>
+        <v>326.53272782900001</v>
       </c>
       <c r="L49">
         <v>330.17661446705398</v>
@@ -4602,7 +4602,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O49">
         <v>0.67511606300000004</v>
@@ -4661,7 +4661,7 @@
         <v>261</v>
       </c>
       <c r="K50">
-        <v>382.77071001100001</v>
+        <v>337.125974472</v>
       </c>
       <c r="L50">
         <v>382.53871700912703</v>
@@ -4670,7 +4670,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O50">
         <v>0.70308048700000003</v>
@@ -4729,7 +4729,7 @@
         <v>261</v>
       </c>
       <c r="K51">
-        <v>262.01758196399999</v>
+        <v>261.24675187399998</v>
       </c>
       <c r="L51">
         <v>261.88269836455498</v>
@@ -4738,7 +4738,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O51">
         <v>0.686872339</v>
@@ -4797,7 +4797,7 @@
         <v>261</v>
       </c>
       <c r="K52">
-        <v>308.20482807799999</v>
+        <v>308.94215771699999</v>
       </c>
       <c r="L52">
         <v>308.01855531334797</v>
@@ -4806,7 +4806,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O52">
         <v>0.67098199300000005</v>
@@ -4865,7 +4865,7 @@
         <v>261</v>
       </c>
       <c r="K53">
-        <v>367.16357247899998</v>
+        <v>366.50293227499998</v>
       </c>
       <c r="L53">
         <v>367.00041062757299</v>
@@ -4874,7 +4874,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O53">
         <v>0.83100861699999995</v>
@@ -4933,7 +4933,7 @@
         <v>261</v>
       </c>
       <c r="K54">
-        <v>281.04488900199999</v>
+        <v>280.39591733200001</v>
       </c>
       <c r="L54">
         <v>280.89061654359102</v>
@@ -4942,7 +4942,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O54">
         <v>0.80309718299999999</v>
@@ -5001,7 +5001,7 @@
         <v>261</v>
       </c>
       <c r="K55">
-        <v>373.26726356699999</v>
+        <v>364.80051713400002</v>
       </c>
       <c r="L55">
         <v>373.05067946016698</v>
@@ -5010,7 +5010,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O55">
         <v>0.90733654399999997</v>
@@ -5069,7 +5069,7 @@
         <v>261</v>
       </c>
       <c r="K56">
-        <v>350.22475991099998</v>
+        <v>329.75479216899998</v>
       </c>
       <c r="L56">
         <v>350.03460899740401</v>
@@ -5078,7 +5078,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O56">
         <v>0.68689417799999997</v>
@@ -5137,7 +5137,7 @@
         <v>261</v>
       </c>
       <c r="K57">
-        <v>310.02046837699999</v>
+        <v>331.81542260100002</v>
       </c>
       <c r="L57">
         <v>309.83460459485599</v>
@@ -5146,7 +5146,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O57">
         <v>1.2192601089999999</v>
@@ -5205,7 +5205,7 @@
         <v>261</v>
       </c>
       <c r="K58">
-        <v>278.77230716000003</v>
+        <v>287.73057055200002</v>
       </c>
       <c r="L58">
         <v>278.61873697116903</v>
@@ -5214,7 +5214,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O58">
         <v>0.92712860699999999</v>
@@ -5273,7 +5273,7 @@
         <v>261</v>
       </c>
       <c r="K59">
-        <v>366.386049345</v>
+        <v>369.37271860999999</v>
       </c>
       <c r="L59">
         <v>366.22665408253602</v>
@@ -5282,7 +5282,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O59">
         <v>0.96725288099999995</v>
@@ -5341,7 +5341,7 @@
         <v>261</v>
       </c>
       <c r="K60">
-        <v>344.302372779</v>
+        <v>344.30958855099999</v>
       </c>
       <c r="L60">
         <v>344.09049830213098</v>
@@ -5350,7 +5350,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O60">
         <v>1.0352157399999999</v>
@@ -5409,7 +5409,7 @@
         <v>261</v>
       </c>
       <c r="K61">
-        <v>358.391263036</v>
+        <v>340.93568783199999</v>
       </c>
       <c r="L61">
         <v>358.17068572342299</v>
@@ -5418,7 +5418,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O61">
         <v>0.83916994099999997</v>
@@ -5477,7 +5477,7 @@
         <v>261</v>
       </c>
       <c r="K62">
-        <v>459.06964224699999</v>
+        <v>416.22923544700001</v>
       </c>
       <c r="L62">
         <v>458.79060168936797</v>
@@ -5486,7 +5486,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O62">
         <v>0.81119778099999995</v>
@@ -5545,7 +5545,7 @@
         <v>261</v>
       </c>
       <c r="K63">
-        <v>450.85830628899998</v>
+        <v>424.24278557600002</v>
       </c>
       <c r="L63">
         <v>450.58665585517798</v>
@@ -5613,7 +5613,7 @@
         <v>261</v>
       </c>
       <c r="K64">
-        <v>299.56548812900002</v>
+        <v>299.37086309599999</v>
       </c>
       <c r="L64">
         <v>299.38272762298499</v>
@@ -5681,7 +5681,7 @@
         <v>261</v>
       </c>
       <c r="K65">
-        <v>422.92007521300002</v>
+        <v>441.968462499</v>
       </c>
       <c r="L65">
         <v>422.71464697644097</v>
@@ -5749,7 +5749,7 @@
         <v>261</v>
       </c>
       <c r="K66">
-        <v>560.789405418</v>
+        <v>525.25198984600001</v>
       </c>
       <c r="L66">
         <v>560.44252813607397</v>
@@ -5758,7 +5758,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O66">
         <v>0.17029844299999999</v>
@@ -5817,7 +5817,7 @@
         <v>261</v>
       </c>
       <c r="K67">
-        <v>281.55170595099997</v>
+        <v>272.21889818400001</v>
       </c>
       <c r="L67">
         <v>281.402671612799</v>
@@ -5826,7 +5826,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O67">
         <v>0.24245232999999999</v>
@@ -5885,7 +5885,7 @@
         <v>261</v>
       </c>
       <c r="K68">
-        <v>354.87002558699999</v>
+        <v>362.48114321000003</v>
       </c>
       <c r="L68">
         <v>354.65872292593099</v>
@@ -5894,7 +5894,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O68">
         <v>0.26252948700000001</v>
@@ -5953,7 +5953,7 @@
         <v>261</v>
       </c>
       <c r="K69">
-        <v>326.59500051800001</v>
+        <v>309.22149178199999</v>
       </c>
       <c r="L69">
         <v>326.42248160764501</v>
@@ -5962,7 +5962,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O69">
         <v>0.254480912</v>
@@ -6021,7 +6021,7 @@
         <v>261</v>
       </c>
       <c r="K70">
-        <v>317.37552109699999</v>
+        <v>353.07063272400001</v>
       </c>
       <c r="L70">
         <v>317.20247197151099</v>
@@ -6030,7 +6030,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O70">
         <v>0.42249920600000002</v>
@@ -6089,7 +6089,7 @@
         <v>261</v>
       </c>
       <c r="K71">
-        <v>278.36580153800003</v>
+        <v>234.633223187</v>
       </c>
       <c r="L71">
         <v>278.23852619156202</v>
@@ -6098,7 +6098,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O71">
         <v>0.34246391599999998</v>
@@ -6157,7 +6157,7 @@
         <v>261</v>
       </c>
       <c r="K72">
-        <v>380.77289529799998</v>
+        <v>551.28101016400001</v>
       </c>
       <c r="L72">
         <v>380.53845106437802</v>
@@ -6166,7 +6166,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O72">
         <v>0.40260469700000001</v>
@@ -6225,7 +6225,7 @@
         <v>261</v>
       </c>
       <c r="K73">
-        <v>481.81894606499998</v>
+        <v>467.95675544800002</v>
       </c>
       <c r="L73">
         <v>481.52243866398902</v>
@@ -6234,7 +6234,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O73">
         <v>0.47853734399999998</v>
@@ -6293,7 +6293,7 @@
         <v>261</v>
       </c>
       <c r="K74">
-        <v>411.55503159</v>
+        <v>373.82593350500002</v>
       </c>
       <c r="L74">
         <v>411.29045452922497</v>
@@ -6302,7 +6302,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O74">
         <v>0.45860149900000002</v>
@@ -6361,7 +6361,7 @@
         <v>261</v>
       </c>
       <c r="K75">
-        <v>387.69626988300001</v>
+        <v>575.73167907499999</v>
       </c>
       <c r="L75">
         <v>387.47061825543602</v>
@@ -6370,7 +6370,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O75">
         <v>0.45858723099999998</v>
@@ -6429,7 +6429,7 @@
         <v>261</v>
       </c>
       <c r="K76">
-        <v>473.58341475100002</v>
+        <v>362.54969089899998</v>
       </c>
       <c r="L76">
         <v>473.30659779906199</v>
@@ -6438,7 +6438,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O76">
         <v>0.45454439299999999</v>
@@ -6497,7 +6497,7 @@
         <v>261</v>
       </c>
       <c r="K77">
-        <v>257.42217063499999</v>
+        <v>215.64100018799999</v>
       </c>
       <c r="L77">
         <v>257.33440038934299</v>
@@ -6506,7 +6506,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O77">
         <v>0.55467309499999995</v>
@@ -6565,7 +6565,7 @@
         <v>261</v>
       </c>
       <c r="K78">
-        <v>323.046375689</v>
+        <v>315.02773514799998</v>
       </c>
       <c r="L78">
         <v>322.85855684801902</v>
@@ -6574,7 +6574,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O78">
         <v>0.470600517</v>
@@ -6633,7 +6633,7 @@
         <v>261</v>
       </c>
       <c r="K79">
-        <v>493.36532439799998</v>
+        <v>452.70847356899998</v>
       </c>
       <c r="L79">
         <v>493.13455616310199</v>
@@ -6642,7 +6642,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O79">
         <v>0.53857573299999995</v>
@@ -6701,7 +6701,7 @@
         <v>261</v>
       </c>
       <c r="K80">
-        <v>426.76479040200002</v>
+        <v>441.45912738999999</v>
       </c>
       <c r="L80">
         <v>426.53864740580298</v>
@@ -6710,7 +6710,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O80">
         <v>2.1558721909999998</v>
@@ -6769,7 +6769,7 @@
         <v>261</v>
       </c>
       <c r="K81">
-        <v>209.01663265400001</v>
+        <v>208.920916533</v>
       </c>
       <c r="L81">
         <v>208.918459441512</v>
@@ -6837,7 +6837,7 @@
         <v>261</v>
       </c>
       <c r="K82">
-        <v>256.101215819</v>
+        <v>260.06588979700001</v>
       </c>
       <c r="L82">
         <v>255.94653258100101</v>
@@ -6905,7 +6905,7 @@
         <v>261</v>
       </c>
       <c r="K83">
-        <v>257.46282245800001</v>
+        <v>255.48832342899999</v>
       </c>
       <c r="L83">
         <v>257.32855381816597</v>
@@ -6973,7 +6973,7 @@
         <v>258</v>
       </c>
       <c r="K84">
-        <v>4.5412335580000001</v>
+        <v>4.5326547389999998</v>
       </c>
       <c r="L84">
         <v>4.5985162928700403</v>
@@ -7041,7 +7041,7 @@
         <v>261</v>
       </c>
       <c r="K85">
-        <v>287.33462560200002</v>
+        <v>314.02707332599999</v>
       </c>
       <c r="L85">
         <v>287.48271599039401</v>
@@ -7109,7 +7109,7 @@
         <v>261</v>
       </c>
       <c r="K86">
-        <v>223.95373150699999</v>
+        <v>223.93583616500001</v>
       </c>
       <c r="L86">
         <v>223.83463364094399</v>
@@ -7177,7 +7177,7 @@
         <v>258</v>
       </c>
       <c r="K87">
-        <v>0.36221557700000001</v>
+        <v>0.362242595</v>
       </c>
       <c r="L87">
         <v>0.41046013310551599</v>
@@ -7245,7 +7245,7 @@
         <v>261</v>
       </c>
       <c r="K88">
-        <v>339.72299791500001</v>
+        <v>376.19801906200001</v>
       </c>
       <c r="L88">
         <v>339.53076149895702</v>
@@ -7313,7 +7313,7 @@
         <v>261</v>
       </c>
       <c r="K89">
-        <v>449.65588881500003</v>
+        <v>408.39845576300002</v>
       </c>
       <c r="L89">
         <v>449.36426896601898</v>
@@ -7381,7 +7381,7 @@
         <v>258</v>
       </c>
       <c r="K90">
-        <v>87.065714327999999</v>
+        <v>87.239773260000007</v>
       </c>
       <c r="L90">
         <v>87.054551336914301</v>
@@ -7449,7 +7449,7 @@
         <v>258</v>
       </c>
       <c r="K91">
-        <v>70.72498057</v>
+        <v>85.119915637999995</v>
       </c>
       <c r="L91">
         <v>70.714795701205702</v>
@@ -7517,7 +7517,7 @@
         <v>261</v>
       </c>
       <c r="K92">
-        <v>399.48073869400002</v>
+        <v>406.13480646300002</v>
       </c>
       <c r="L92">
         <v>399.22655389085401</v>
@@ -7585,7 +7585,7 @@
         <v>260</v>
       </c>
       <c r="K93">
-        <v>901.58433629199999</v>
+        <v>901.66827672600004</v>
       </c>
       <c r="L93">
         <v>901.05031785368897</v>
@@ -7653,7 +7653,7 @@
         <v>260</v>
       </c>
       <c r="K94">
-        <v>901.69024358900003</v>
+        <v>901.68469892899998</v>
       </c>
       <c r="L94">
         <v>901.05859978497006</v>
@@ -7721,7 +7721,7 @@
         <v>260</v>
       </c>
       <c r="K95">
-        <v>901.66671405</v>
+        <v>901.67611295899997</v>
       </c>
       <c r="L95">
         <v>901.05067224800496</v>
@@ -7786,10 +7786,10 @@
         <v>27.652096</v>
       </c>
       <c r="J96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K96">
-        <v>901.68468502300004</v>
+        <v>291.73666811599998</v>
       </c>
       <c r="L96">
         <v>901.06667338311604</v>
@@ -7857,7 +7857,7 @@
         <v>260</v>
       </c>
       <c r="K97">
-        <v>901.68936282899995</v>
+        <v>901.68380256600005</v>
       </c>
       <c r="L97">
         <v>901.047108732163</v>
@@ -7925,7 +7925,7 @@
         <v>261</v>
       </c>
       <c r="K98">
-        <v>281.43058655499999</v>
+        <v>317.737299221</v>
       </c>
       <c r="L98">
         <v>281.275036334991</v>
@@ -7993,7 +7993,7 @@
         <v>261</v>
       </c>
       <c r="K99">
-        <v>566.89189228600003</v>
+        <v>565.880335113</v>
       </c>
       <c r="L99">
         <v>566.52293145656495</v>
@@ -8061,7 +8061,7 @@
         <v>261</v>
       </c>
       <c r="K100">
-        <v>246.085850996</v>
+        <v>266.64416669600001</v>
       </c>
       <c r="L100">
         <v>245.97903914377</v>
@@ -8129,7 +8129,7 @@
         <v>261</v>
       </c>
       <c r="K101">
-        <v>409.02481499999999</v>
+        <v>412.64583372700002</v>
       </c>
       <c r="L101">
         <v>408.77053862064997</v>
@@ -8197,7 +8197,7 @@
         <v>259</v>
       </c>
       <c r="K102">
-        <v>9.7331903210000004</v>
+        <v>9.7223473820000006</v>
       </c>
       <c r="L102">
         <v>9.7866576090455002</v>
@@ -8265,7 +8265,7 @@
         <v>261</v>
       </c>
       <c r="K103">
-        <v>355.706068598</v>
+        <v>357.53739003700002</v>
       </c>
       <c r="L103">
         <v>355.498639639467</v>
@@ -8333,7 +8333,7 @@
         <v>261</v>
       </c>
       <c r="K104">
-        <v>302.63120149100001</v>
+        <v>300.64224055900002</v>
       </c>
       <c r="L104">
         <v>302.46263901144198</v>
@@ -8401,7 +8401,7 @@
         <v>261</v>
       </c>
       <c r="K105">
-        <v>191.40358221100001</v>
+        <v>199.41761316399999</v>
       </c>
       <c r="L105">
         <v>191.32713992521099</v>
@@ -8469,7 +8469,7 @@
         <v>261</v>
       </c>
       <c r="K106">
-        <v>426.18250182200001</v>
+        <v>428.59378878899997</v>
       </c>
       <c r="L106">
         <v>425.93050104379603</v>
@@ -8537,7 +8537,7 @@
         <v>261</v>
       </c>
       <c r="K107">
-        <v>372.86396950900001</v>
+        <v>370.882031966</v>
       </c>
       <c r="L107">
         <v>372.65064467117099</v>
@@ -8605,7 +8605,7 @@
         <v>259</v>
       </c>
       <c r="K108">
-        <v>146.565916496</v>
+        <v>146.618268495</v>
       </c>
       <c r="L108">
         <v>146.51443692669201</v>
@@ -8673,7 +8673,7 @@
         <v>259</v>
       </c>
       <c r="K109">
-        <v>10.178266675</v>
+        <v>10.172897109999999</v>
       </c>
       <c r="L109">
         <v>10.2168252058327</v>
@@ -8741,7 +8741,7 @@
         <v>261</v>
       </c>
       <c r="K110">
-        <v>313.25602147199999</v>
+        <v>313.48517909700001</v>
       </c>
       <c r="L110">
         <v>313.11456191539702</v>
@@ -8750,7 +8750,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O110">
         <v>0.27858544099999999</v>
@@ -8809,7 +8809,7 @@
         <v>261</v>
       </c>
       <c r="K111">
-        <v>359.995172072</v>
+        <v>361.006104075</v>
       </c>
       <c r="L111">
         <v>359.78592916577998</v>
@@ -8877,7 +8877,7 @@
         <v>261</v>
       </c>
       <c r="K112">
-        <v>202.201843486</v>
+        <v>196.432488294</v>
       </c>
       <c r="L112">
         <v>202.10656264796799</v>
@@ -8945,7 +8945,7 @@
         <v>261</v>
       </c>
       <c r="K113">
-        <v>225.606347376</v>
+        <v>222.20924221800001</v>
       </c>
       <c r="L113">
         <v>225.49866092204999</v>
@@ -9013,7 +9013,7 @@
         <v>261</v>
       </c>
       <c r="K114">
-        <v>205.012790849</v>
+        <v>211.66291555699999</v>
       </c>
       <c r="L114">
         <v>204.92262534052099</v>
@@ -9081,7 +9081,7 @@
         <v>261</v>
       </c>
       <c r="K115">
-        <v>215.08652407700001</v>
+        <v>195.79408834099999</v>
       </c>
       <c r="L115">
         <v>215.00232146680301</v>
@@ -9149,7 +9149,7 @@
         <v>261</v>
       </c>
       <c r="K116">
-        <v>209.342714575</v>
+        <v>211.67958506599999</v>
       </c>
       <c r="L116">
         <v>209.22645758092401</v>
@@ -9217,7 +9217,7 @@
         <v>261</v>
       </c>
       <c r="K117">
-        <v>221.38706897099999</v>
+        <v>220.93547369300001</v>
       </c>
       <c r="L117">
         <v>221.306471761316</v>
@@ -9285,7 +9285,7 @@
         <v>261</v>
       </c>
       <c r="K118">
-        <v>296.76622835199998</v>
+        <v>308.703359449</v>
       </c>
       <c r="L118">
         <v>296.60260496288498</v>
@@ -9294,7 +9294,7 @@
         <v>4000.0020479999998</v>
       </c>
       <c r="N118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O118">
         <v>1.0510834950000001</v>
@@ -9353,7 +9353,7 @@
         <v>261</v>
       </c>
       <c r="K119">
-        <v>389.46083277899999</v>
+        <v>387.30422206100002</v>
       </c>
       <c r="L119">
         <v>389.22237783670403</v>
@@ -9421,7 +9421,7 @@
         <v>261</v>
       </c>
       <c r="K120">
-        <v>315.06394244799998</v>
+        <v>306.21390498699998</v>
       </c>
       <c r="L120">
         <v>314.90652324259202</v>
@@ -9489,7 +9489,7 @@
         <v>261</v>
       </c>
       <c r="K121">
-        <v>561.17835137500003</v>
+        <v>560.96778614000004</v>
       </c>
       <c r="L121">
         <v>560.83044935390296</v>
@@ -9557,7 +9557,7 @@
         <v>261</v>
       </c>
       <c r="K122">
-        <v>382.36966912100002</v>
+        <v>357.276037954</v>
       </c>
       <c r="L122">
         <v>382.13075146824099</v>
@@ -9625,7 +9625,7 @@
         <v>261</v>
       </c>
       <c r="K123">
-        <v>270.10558154300003</v>
+        <v>269.64476715699999</v>
       </c>
       <c r="L123">
         <v>269.99432070925798</v>
@@ -9693,7 +9693,7 @@
         <v>261</v>
       </c>
       <c r="K124">
-        <v>236.27434539800001</v>
+        <v>241.81866172299999</v>
       </c>
       <c r="L124">
         <v>236.158678330481</v>
@@ -9761,7 +9761,7 @@
         <v>261</v>
       </c>
       <c r="K125">
-        <v>358.36105696999999</v>
+        <v>358.26794274600002</v>
       </c>
       <c r="L125">
         <v>358.16273724287697</v>
@@ -9829,7 +9829,7 @@
         <v>261</v>
       </c>
       <c r="K126">
-        <v>268.96300104400001</v>
+        <v>269.15428435400003</v>
       </c>
       <c r="L126">
         <v>268.82651799917198</v>
@@ -9897,7 +9897,7 @@
         <v>261</v>
       </c>
       <c r="K127">
-        <v>214.70749977200001</v>
+        <v>209.85737891700001</v>
       </c>
       <c r="L127">
         <v>214.642496298998</v>
@@ -9965,7 +9965,7 @@
         <v>261</v>
       </c>
       <c r="K128">
-        <v>246.78966190200001</v>
+        <v>246.51531265099999</v>
       </c>
       <c r="L128">
         <v>246.66663401201299</v>
@@ -10033,7 +10033,7 @@
         <v>261</v>
       </c>
       <c r="K129">
-        <v>238.56014516900001</v>
+        <v>217.37026162999999</v>
       </c>
       <c r="L129">
         <v>238.410586781799</v>
@@ -10101,7 +10101,7 @@
         <v>261</v>
       </c>
       <c r="K130">
-        <v>205.32414204899999</v>
+        <v>213.27686167600001</v>
       </c>
       <c r="L130">
         <v>205.250548880547</v>
@@ -10169,7 +10169,7 @@
         <v>261</v>
       </c>
       <c r="K131">
-        <v>201.37814967899999</v>
+        <v>200.57359794800001</v>
       </c>
       <c r="L131">
         <v>201.266572117805</v>
@@ -10237,7 +10237,7 @@
         <v>261</v>
       </c>
       <c r="K132">
-        <v>259.96964719499999</v>
+        <v>269.35034426599998</v>
       </c>
       <c r="L132">
         <v>259.88255932927098</v>
@@ -10305,7 +10305,7 @@
         <v>261</v>
       </c>
       <c r="K133">
-        <v>194.86643599600001</v>
+        <v>193.92163784100001</v>
       </c>
       <c r="L133">
         <v>194.77872454375</v>
@@ -10373,7 +10373,7 @@
         <v>261</v>
       </c>
       <c r="K134">
-        <v>221.58702194599999</v>
+        <v>219.62379077200001</v>
       </c>
       <c r="L134">
         <v>221.47065360099</v>
@@ -10441,7 +10441,7 @@
         <v>261</v>
       </c>
       <c r="K135">
-        <v>347.88439769399997</v>
+        <v>348.27382108199998</v>
       </c>
       <c r="L135">
         <v>347.70670510083397</v>
@@ -10509,7 +10509,7 @@
         <v>261</v>
       </c>
       <c r="K136">
-        <v>338.49465540199998</v>
+        <v>337.55509699499999</v>
       </c>
       <c r="L136">
         <v>338.33832650259097</v>
@@ -10577,7 +10577,7 @@
         <v>261</v>
       </c>
       <c r="K137">
-        <v>369.006339384</v>
+        <v>368.933374872</v>
       </c>
       <c r="L137">
         <v>368.778290379792</v>
@@ -10645,7 +10645,7 @@
         <v>261</v>
       </c>
       <c r="K138">
-        <v>337.56846385400002</v>
+        <v>337.28136955600002</v>
       </c>
       <c r="L138">
         <v>337.37833757326001</v>
@@ -10713,7 +10713,7 @@
         <v>261</v>
       </c>
       <c r="K139">
-        <v>212.288993269</v>
+        <v>211.80054600299999</v>
       </c>
       <c r="L139">
         <v>212.21043353527699</v>
@@ -10781,7 +10781,7 @@
         <v>261</v>
       </c>
       <c r="K140">
-        <v>207.340936562</v>
+        <v>207.18640638900001</v>
       </c>
       <c r="L140">
         <v>207.24645728990399</v>
@@ -10849,7 +10849,7 @@
         <v>261</v>
       </c>
       <c r="K141">
-        <v>201.99161732300001</v>
+        <v>210.916771248</v>
       </c>
       <c r="L141">
         <v>201.882653895765</v>
@@ -10917,7 +10917,7 @@
         <v>259</v>
       </c>
       <c r="K142">
-        <v>94.438130954000002</v>
+        <v>94.251353269000006</v>
       </c>
       <c r="L142">
         <v>94.418499976396504</v>
@@ -10985,7 +10985,7 @@
         <v>259</v>
       </c>
       <c r="K143">
-        <v>14.716750114</v>
+        <v>14.708710525000001</v>
       </c>
       <c r="L143">
         <v>14.778683077543899</v>
@@ -11053,7 +11053,7 @@
         <v>261</v>
       </c>
       <c r="K144">
-        <v>248.58288337400001</v>
+        <v>244.996646</v>
       </c>
       <c r="L144">
         <v>248.49870322272099</v>
@@ -11121,7 +11121,7 @@
         <v>261</v>
       </c>
       <c r="K145">
-        <v>391.80129220999999</v>
+        <v>382.651760448</v>
       </c>
       <c r="L145">
         <v>391.57059208303599</v>
@@ -11189,7 +11189,7 @@
         <v>261</v>
       </c>
       <c r="K146">
-        <v>180.95786799999999</v>
+        <v>181.72547755299999</v>
       </c>
       <c r="L146">
         <v>180.86455222964199</v>
@@ -11257,7 +11257,7 @@
         <v>261</v>
       </c>
       <c r="K147">
-        <v>213.59092014000001</v>
+        <v>213.57504797199999</v>
       </c>
       <c r="L147">
         <v>213.49455110728701</v>
@@ -11325,7 +11325,7 @@
         <v>261</v>
       </c>
       <c r="K148">
-        <v>144.174823312</v>
+        <v>151.17482800499999</v>
       </c>
       <c r="L148">
         <v>144.12260961905099</v>
@@ -11393,7 +11393,7 @@
         <v>261</v>
       </c>
       <c r="K149">
-        <v>315.43423773000001</v>
+        <v>316.479851736</v>
       </c>
       <c r="L149">
         <v>315.27460304647599</v>
@@ -11461,7 +11461,7 @@
         <v>261</v>
       </c>
       <c r="K150">
-        <v>153.88393180099999</v>
+        <v>171.899157041</v>
       </c>
       <c r="L150">
         <v>153.81867566704699</v>
@@ -11529,7 +11529,7 @@
         <v>259</v>
       </c>
       <c r="K151">
-        <v>236.95697437600001</v>
+        <v>237.78010497299999</v>
       </c>
       <c r="L151">
         <v>236.83843024447501</v>
@@ -11597,7 +11597,7 @@
         <v>260</v>
       </c>
       <c r="K152">
-        <v>901.77440802000001</v>
+        <v>901.90956316999996</v>
       </c>
       <c r="L152">
         <v>901.29048932716205</v>
@@ -11665,7 +11665,7 @@
         <v>259</v>
       </c>
       <c r="K153">
-        <v>71.814615330999999</v>
+        <v>72.383230256999994</v>
       </c>
       <c r="L153">
         <v>71.818435303866806</v>
@@ -11733,7 +11733,7 @@
         <v>261</v>
       </c>
       <c r="K154">
-        <v>511.317154587</v>
+        <v>509.79858345500003</v>
       </c>
       <c r="L154">
         <v>511.00262349843899</v>
@@ -11801,7 +11801,7 @@
         <v>259</v>
       </c>
       <c r="K155">
-        <v>843.703612572</v>
+        <v>826.92598103</v>
       </c>
       <c r="L155">
         <v>843.14663691818703</v>
@@ -11869,7 +11869,7 @@
         <v>261</v>
       </c>
       <c r="K156">
-        <v>340.93918490300001</v>
+        <v>334.22191406299999</v>
       </c>
       <c r="L156">
         <v>340.74672406166701</v>
@@ -11937,7 +11937,7 @@
         <v>261</v>
       </c>
       <c r="K157">
-        <v>558.33542524300003</v>
+        <v>558.86249345199997</v>
       </c>
       <c r="L157">
         <v>557.99073923006597</v>
@@ -12005,7 +12005,7 @@
         <v>259</v>
       </c>
       <c r="K158">
-        <v>34.829815971000002</v>
+        <v>34.845069872000003</v>
       </c>
       <c r="L158">
         <v>34.858491588383899</v>
@@ -12073,7 +12073,7 @@
         <v>261</v>
       </c>
       <c r="K159">
-        <v>781.35517373300002</v>
+        <v>768.41859648299999</v>
       </c>
       <c r="L159">
         <v>780.84252874180595</v>
@@ -12141,7 +12141,7 @@
         <v>260</v>
       </c>
       <c r="K160">
-        <v>901.92790896500003</v>
+        <v>901.91474152599994</v>
       </c>
       <c r="L160">
         <v>901.32242231070995</v>
@@ -12209,7 +12209,7 @@
         <v>259</v>
       </c>
       <c r="K161">
-        <v>35.159389955000002</v>
+        <v>35.011632587000001</v>
       </c>
       <c r="L161">
         <v>35.2024033740162</v>
@@ -12277,7 +12277,7 @@
         <v>259</v>
       </c>
       <c r="K162">
-        <v>87.089326038999999</v>
+        <v>87.050429786999999</v>
       </c>
       <c r="L162">
         <v>87.066437680274205</v>
@@ -12345,7 +12345,7 @@
         <v>259</v>
       </c>
       <c r="K163">
-        <v>238.90077866799999</v>
+        <v>238.910511464</v>
       </c>
       <c r="L163">
         <v>238.78244194760899</v>
@@ -12413,7 +12413,7 @@
         <v>261</v>
       </c>
       <c r="K164">
-        <v>336.89612243900001</v>
+        <v>336.493985495</v>
       </c>
       <c r="L164">
         <v>336.71464620158002</v>
@@ -12481,7 +12481,7 @@
         <v>259</v>
       </c>
       <c r="K165">
-        <v>44.400873255</v>
+        <v>44.490282688999997</v>
       </c>
       <c r="L165">
         <v>44.434374999254899</v>
@@ -12549,7 +12549,7 @@
         <v>258</v>
       </c>
       <c r="K166">
-        <v>89.414242010999999</v>
+        <v>89.353958930000005</v>
       </c>
       <c r="L166">
         <v>89.418500244617405</v>
@@ -12617,7 +12617,7 @@
         <v>259</v>
       </c>
       <c r="K167">
-        <v>4.9857209520000003</v>
+        <v>4.9755276549999996</v>
       </c>
       <c r="L167">
         <v>5.0266057513654196</v>
@@ -12685,7 +12685,7 @@
         <v>259</v>
       </c>
       <c r="K168">
-        <v>44.371413621999999</v>
+        <v>44.082132907000002</v>
       </c>
       <c r="L168">
         <v>44.390500441193502</v>
@@ -12753,7 +12753,7 @@
         <v>258</v>
       </c>
       <c r="K169">
-        <v>0.90088804300000003</v>
+        <v>0.89835068699999998</v>
       </c>
       <c r="L169">
         <v>0.95427745953202203</v>
@@ -12821,7 +12821,7 @@
         <v>258</v>
       </c>
       <c r="K170">
-        <v>0.83855855899999998</v>
+        <v>0.839048401</v>
       </c>
       <c r="L170">
         <v>0.89045358076691605</v>
@@ -12889,7 +12889,7 @@
         <v>258</v>
       </c>
       <c r="K171">
-        <v>2.3303820179999999</v>
+        <v>2.311596765</v>
       </c>
       <c r="L171">
         <v>2.3785265460610301</v>
@@ -12957,7 +12957,7 @@
         <v>259</v>
       </c>
       <c r="K172">
-        <v>80.116496415</v>
+        <v>79.659930736999996</v>
       </c>
       <c r="L172">
         <v>80.106659047305499</v>
@@ -13025,7 +13025,7 @@
         <v>261</v>
       </c>
       <c r="K173">
-        <v>558.15647481500002</v>
+        <v>546.98024540500001</v>
       </c>
       <c r="L173">
         <v>557.79842833802104</v>
@@ -13093,7 +13093,7 @@
         <v>258</v>
       </c>
       <c r="K174">
-        <v>573.92402724600004</v>
+        <v>574.90372433000005</v>
       </c>
       <c r="L174">
         <v>573.53031986951805</v>
@@ -13161,7 +13161,7 @@
         <v>260</v>
       </c>
       <c r="K175">
-        <v>901.57859785400001</v>
+        <v>901.69044441200003</v>
       </c>
       <c r="L175">
         <v>901.06651214882697</v>
@@ -13229,7 +13229,7 @@
         <v>260</v>
       </c>
       <c r="K176">
-        <v>901.69144201200004</v>
+        <v>901.68770683599996</v>
       </c>
       <c r="L176">
         <v>901.04225828871097</v>
@@ -13297,7 +13297,7 @@
         <v>260</v>
       </c>
       <c r="K177">
-        <v>901.68525610200004</v>
+        <v>901.581229699</v>
       </c>
       <c r="L177">
         <v>901.03439798951104</v>
@@ -13365,7 +13365,7 @@
         <v>260</v>
       </c>
       <c r="K178">
-        <v>901.68304306599998</v>
+        <v>901.69141113000001</v>
       </c>
       <c r="L178">
         <v>901.05107789859096</v>
@@ -13433,7 +13433,7 @@
         <v>260</v>
       </c>
       <c r="K179">
-        <v>901.69148963099997</v>
+        <v>901.68586356499998</v>
       </c>
       <c r="L179">
         <v>901.04792274534702</v>
@@ -13501,7 +13501,7 @@
         <v>260</v>
       </c>
       <c r="K180">
-        <v>901.691262274</v>
+        <v>901.68259782999996</v>
       </c>
       <c r="L180">
         <v>901.03911764919701</v>
@@ -13569,7 +13569,7 @@
         <v>260</v>
       </c>
       <c r="K181">
-        <v>901.58140853299994</v>
+        <v>901.68166035700006</v>
       </c>
       <c r="L181">
         <v>901.05113475397195</v>
@@ -13637,7 +13637,7 @@
         <v>260</v>
       </c>
       <c r="K182">
-        <v>901.67931930400005</v>
+        <v>901.68380313600005</v>
       </c>
       <c r="L182">
         <v>901.03523357957602</v>
@@ -13705,7 +13705,7 @@
         <v>260</v>
       </c>
       <c r="K183">
-        <v>901.71357332499997</v>
+        <v>901.61454209600004</v>
       </c>
       <c r="L183">
         <v>901.09926662966598</v>
@@ -13773,7 +13773,7 @@
         <v>261</v>
       </c>
       <c r="K184">
-        <v>464.44606276100001</v>
+        <v>443.56798049499997</v>
       </c>
       <c r="L184">
         <v>464.139047544449</v>
@@ -13841,7 +13841,7 @@
         <v>261</v>
       </c>
       <c r="K185">
-        <v>400.08899252399999</v>
+        <v>406.43906946200002</v>
       </c>
       <c r="L185">
         <v>399.84299823269203</v>
@@ -13909,7 +13909,7 @@
         <v>258</v>
       </c>
       <c r="K186">
-        <v>18.45145437</v>
+        <v>14.884677455</v>
       </c>
       <c r="L186">
         <v>18.486452057957599</v>
@@ -13974,10 +13974,10 @@
         <v>36.564991999999997</v>
       </c>
       <c r="J187" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K187">
-        <v>901.68735611800003</v>
+        <v>290.34281066599999</v>
       </c>
       <c r="L187">
         <v>901.06647497415497</v>
@@ -14045,7 +14045,7 @@
         <v>258</v>
       </c>
       <c r="K188">
-        <v>219.526935756</v>
+        <v>123.818299501</v>
       </c>
       <c r="L188">
         <v>219.40298651531299</v>
@@ -14110,10 +14110,10 @@
         <v>35.237887999999998</v>
       </c>
       <c r="J189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K189">
-        <v>901.56258803499998</v>
+        <v>514.44535957699998</v>
       </c>
       <c r="L189">
         <v>901.05049497634104</v>
@@ -14181,7 +14181,7 @@
         <v>261</v>
       </c>
       <c r="K190">
-        <v>321.94943386699998</v>
+        <v>320.84301550200001</v>
       </c>
       <c r="L190">
         <v>321.75454409047899</v>
@@ -14249,7 +14249,7 @@
         <v>261</v>
       </c>
       <c r="K191">
-        <v>339.851655607</v>
+        <v>340.41738406899998</v>
       </c>
       <c r="L191">
         <v>339.65858661383299</v>
@@ -14317,7 +14317,7 @@
         <v>261</v>
       </c>
       <c r="K192">
-        <v>225.26713839300001</v>
+        <v>226.240478905</v>
       </c>
       <c r="L192">
         <v>225.146567448973</v>
@@ -14385,7 +14385,7 @@
         <v>261</v>
       </c>
       <c r="K193">
-        <v>210.011952745</v>
+        <v>209.56749083899999</v>
       </c>
       <c r="L193">
         <v>209.91462366655401</v>
@@ -14453,7 +14453,7 @@
         <v>261</v>
       </c>
       <c r="K194">
-        <v>174.969781614</v>
+        <v>174.754447871</v>
       </c>
       <c r="L194">
         <v>174.89458201080501</v>
@@ -14521,7 +14521,7 @@
         <v>261</v>
       </c>
       <c r="K195">
-        <v>205.805109552</v>
+        <v>205.03122611500001</v>
       </c>
       <c r="L195">
         <v>205.68270254880099</v>
@@ -14589,7 +14589,7 @@
         <v>261</v>
       </c>
       <c r="K196">
-        <v>208.40742115099999</v>
+        <v>211.115851007</v>
       </c>
       <c r="L196">
         <v>208.31020129844501</v>
@@ -14657,7 +14657,7 @@
         <v>261</v>
       </c>
       <c r="K197">
-        <v>178.96960110099999</v>
+        <v>179.05418199799999</v>
       </c>
       <c r="L197">
         <v>178.90654915198601</v>
@@ -14725,7 +14725,7 @@
         <v>261</v>
       </c>
       <c r="K198">
-        <v>188.98683059499999</v>
+        <v>188.36855498200001</v>
       </c>
       <c r="L198">
         <v>188.89052126556601</v>
@@ -14793,7 +14793,7 @@
         <v>261</v>
       </c>
       <c r="K199">
-        <v>220.392000623</v>
+        <v>219.99196875600001</v>
       </c>
       <c r="L199">
         <v>220.278620757162</v>
@@ -14861,7 +14861,7 @@
         <v>261</v>
       </c>
       <c r="K200">
-        <v>221.31805888700001</v>
+        <v>223.880760729</v>
       </c>
       <c r="L200">
         <v>221.21072696894399</v>
@@ -14929,7 +14929,7 @@
         <v>261</v>
       </c>
       <c r="K201">
-        <v>185.549739622</v>
+        <v>186.01904692299999</v>
       </c>
       <c r="L201">
         <v>185.474606286734</v>
@@ -14997,7 +14997,7 @@
         <v>261</v>
       </c>
       <c r="K202">
-        <v>179.33489555599999</v>
+        <v>180.286645548</v>
       </c>
       <c r="L202">
         <v>179.254698131233</v>
@@ -15065,7 +15065,7 @@
         <v>261</v>
       </c>
       <c r="K203">
-        <v>262.00385330300003</v>
+        <v>259.365670733</v>
       </c>
       <c r="L203">
         <v>261.86649566888798</v>
@@ -15133,7 +15133,7 @@
         <v>261</v>
       </c>
       <c r="K204">
-        <v>222.94831399399999</v>
+        <v>222.944852105</v>
       </c>
       <c r="L204">
         <v>222.84269687905899</v>
@@ -15201,7 +15201,7 @@
         <v>261</v>
       </c>
       <c r="K205">
-        <v>248.635542351</v>
+        <v>249.72487965799999</v>
       </c>
       <c r="L205">
         <v>248.50665077567101</v>
@@ -15269,7 +15269,7 @@
         <v>261</v>
       </c>
       <c r="K206">
-        <v>201.50293659499999</v>
+        <v>201.38029769400001</v>
       </c>
       <c r="L206">
         <v>201.40247071161801</v>
@@ -15337,7 +15337,7 @@
         <v>261</v>
       </c>
       <c r="K207">
-        <v>166.284824284</v>
+        <v>166.52351429199999</v>
       </c>
       <c r="L207">
         <v>166.21450203657099</v>
@@ -15405,7 +15405,7 @@
         <v>261</v>
       </c>
       <c r="K208">
-        <v>212.54266554200001</v>
+        <v>230.278215655</v>
       </c>
       <c r="L208">
         <v>212.474501941353</v>
@@ -15473,7 +15473,7 @@
         <v>261</v>
       </c>
       <c r="K209">
-        <v>351.25100696300001</v>
+        <v>349.89072738099998</v>
       </c>
       <c r="L209">
         <v>351.04259130731202</v>
@@ -15541,7 +15541,7 @@
         <v>261</v>
       </c>
       <c r="K210">
-        <v>224.80698058300001</v>
+        <v>225.57053407800001</v>
       </c>
       <c r="L210">
         <v>224.69032686203701</v>
@@ -15609,7 +15609,7 @@
         <v>261</v>
       </c>
       <c r="K211">
-        <v>221.92975811400001</v>
+        <v>221.077655064</v>
       </c>
       <c r="L211">
         <v>221.81855859607401</v>
@@ -15677,7 +15677,7 @@
         <v>261</v>
       </c>
       <c r="K212">
-        <v>270.74909011599999</v>
+        <v>293.46923155000002</v>
       </c>
       <c r="L212">
         <v>270.60219972208102</v>
@@ -15745,7 +15745,7 @@
         <v>261</v>
       </c>
       <c r="K213">
-        <v>256.90594416699997</v>
+        <v>258.47923290900002</v>
       </c>
       <c r="L213">
         <v>256.778572622686</v>
@@ -15813,7 +15813,7 @@
         <v>261</v>
       </c>
       <c r="K214">
-        <v>260.54862731100002</v>
+        <v>243.94585053399999</v>
       </c>
       <c r="L214">
         <v>260.46641701459799</v>
@@ -15881,7 +15881,7 @@
         <v>261</v>
       </c>
       <c r="K215">
-        <v>358.56306906999998</v>
+        <v>338.71722778999998</v>
       </c>
       <c r="L215">
         <v>358.35442903637801</v>
@@ -15949,7 +15949,7 @@
         <v>261</v>
       </c>
       <c r="K216">
-        <v>255.90699287000001</v>
+        <v>261.64290880599998</v>
       </c>
       <c r="L216">
         <v>255.75454873219101</v>
@@ -16017,7 +16017,7 @@
         <v>261</v>
       </c>
       <c r="K217">
-        <v>305.74480569299999</v>
+        <v>305.24933701499998</v>
       </c>
       <c r="L217">
         <v>305.578457411378</v>
@@ -16085,7 +16085,7 @@
         <v>261</v>
       </c>
       <c r="K218">
-        <v>327.24980916599998</v>
+        <v>327.25357709100001</v>
       </c>
       <c r="L218">
         <v>327.05056360736398</v>
@@ -16153,7 +16153,7 @@
         <v>261</v>
       </c>
       <c r="K219">
-        <v>293.386715482</v>
+        <v>310.47899910199999</v>
       </c>
       <c r="L219">
         <v>293.21064347028698</v>
@@ -16221,7 +16221,7 @@
         <v>261</v>
       </c>
       <c r="K220">
-        <v>346.49202416899999</v>
+        <v>386.42643040899998</v>
       </c>
       <c r="L220">
         <v>346.362433668226</v>
@@ -16289,7 +16289,7 @@
         <v>261</v>
       </c>
       <c r="K221">
-        <v>334.30909841900001</v>
+        <v>333.65543367800001</v>
       </c>
       <c r="L221">
         <v>334.11056658253</v>
@@ -16357,7 +16357,7 @@
         <v>261</v>
       </c>
       <c r="K222">
-        <v>327.92728171599998</v>
+        <v>356.89934420899999</v>
       </c>
       <c r="L222">
         <v>327.72248643636698</v>
@@ -16425,7 +16425,7 @@
         <v>261</v>
       </c>
       <c r="K223">
-        <v>423.40554871299997</v>
+        <v>422.62876853799997</v>
       </c>
       <c r="L223">
         <v>423.37065760791302</v>
@@ -16493,7 +16493,7 @@
         <v>261</v>
       </c>
       <c r="K224">
-        <v>313.85558673200001</v>
+        <v>316.09214969300001</v>
       </c>
       <c r="L224">
         <v>313.67472180724099</v>
@@ -16561,7 +16561,7 @@
         <v>261</v>
       </c>
       <c r="K225">
-        <v>156.13076570800001</v>
+        <v>157.265111139</v>
       </c>
       <c r="L225">
         <v>156.07460248097701</v>
@@ -16629,7 +16629,7 @@
         <v>259</v>
       </c>
       <c r="K226">
-        <v>93.961129252000006</v>
+        <v>93.717883240000006</v>
       </c>
       <c r="L226">
         <v>93.955875728279295</v>
@@ -16697,7 +16697,7 @@
         <v>259</v>
       </c>
       <c r="K227">
-        <v>48.797071967999997</v>
+        <v>48.965881564</v>
       </c>
       <c r="L227">
         <v>48.794619958847697</v>
@@ -16762,10 +16762,10 @@
         <v>991.15827200000001</v>
       </c>
       <c r="J228" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K228">
-        <v>5.7375791600000001</v>
+        <v>5.6330232740000001</v>
       </c>
       <c r="L228">
         <v>5.7780528105795304</v>
@@ -16833,7 +16833,7 @@
         <v>259</v>
       </c>
       <c r="K229">
-        <v>96.264854783000004</v>
+        <v>96.216338574999995</v>
       </c>
       <c r="L229">
         <v>96.258456379175101</v>
@@ -16901,7 +16901,7 @@
         <v>261</v>
       </c>
       <c r="K230">
-        <v>178.72582710899999</v>
+        <v>178.89369884199999</v>
       </c>
       <c r="L230">
         <v>178.650572054088</v>
@@ -16969,7 +16969,7 @@
         <v>261</v>
       </c>
       <c r="K231">
-        <v>179.64378242999999</v>
+        <v>179.37375437899999</v>
       </c>
       <c r="L231">
         <v>179.594406865537</v>
@@ -17037,7 +17037,7 @@
         <v>261</v>
       </c>
       <c r="K232">
-        <v>148.37071349300001</v>
+        <v>148.49814405399999</v>
       </c>
       <c r="L232">
         <v>148.31035659089599</v>
@@ -17105,7 +17105,7 @@
         <v>261</v>
       </c>
       <c r="K233">
-        <v>184.160214739</v>
+        <v>184.50366475800001</v>
       </c>
       <c r="L233">
         <v>184.09057867154399</v>
@@ -17173,7 +17173,7 @@
         <v>261</v>
       </c>
       <c r="K234">
-        <v>190.32140928999999</v>
+        <v>191.78017469100001</v>
       </c>
       <c r="L234">
         <v>190.21833005920001</v>
@@ -17241,7 +17241,7 @@
         <v>261</v>
       </c>
       <c r="K235">
-        <v>256.48458917400001</v>
+        <v>292.36436852100002</v>
       </c>
       <c r="L235">
         <v>256.36269551142999</v>
@@ -17309,7 +17309,7 @@
         <v>261</v>
       </c>
       <c r="K236">
-        <v>208.557922013</v>
+        <v>201.98942424699999</v>
       </c>
       <c r="L236">
         <v>208.442466232925</v>
@@ -17377,7 +17377,7 @@
         <v>261</v>
       </c>
       <c r="K237">
-        <v>197.83077362700001</v>
+        <v>199.23132242599999</v>
       </c>
       <c r="L237">
         <v>197.786392930895</v>
@@ -17445,7 +17445,7 @@
         <v>261</v>
       </c>
       <c r="K238">
-        <v>191.723741687</v>
+        <v>191.98563019900001</v>
       </c>
       <c r="L238">
         <v>191.65992665290801</v>
@@ -17513,7 +17513,7 @@
         <v>261</v>
       </c>
       <c r="K239">
-        <v>162.50822802499999</v>
+        <v>161.69602535000001</v>
       </c>
       <c r="L239">
         <v>162.44230889156401</v>
@@ -17581,7 +17581,7 @@
         <v>261</v>
       </c>
       <c r="K240">
-        <v>166.052290339</v>
+        <v>165.99374308399999</v>
       </c>
       <c r="L240">
         <v>165.98254833742899</v>
@@ -17649,7 +17649,7 @@
         <v>261</v>
       </c>
       <c r="K241">
-        <v>194.851195176</v>
+        <v>195.06019204899999</v>
       </c>
       <c r="L241">
         <v>194.76655039191201</v>
@@ -17717,7 +17717,7 @@
         <v>261</v>
       </c>
       <c r="K242">
-        <v>189.246242588</v>
+        <v>189.467068686</v>
       </c>
       <c r="L242">
         <v>189.15921930596201</v>
@@ -17785,7 +17785,7 @@
         <v>261</v>
       </c>
       <c r="K243">
-        <v>168.008754896</v>
+        <v>167.97547716</v>
       </c>
       <c r="L243">
         <v>167.96239637956</v>
@@ -17853,7 +17853,7 @@
         <v>261</v>
       </c>
       <c r="K244">
-        <v>152.004929484</v>
+        <v>151.89849049200001</v>
       </c>
       <c r="L244">
         <v>152.012861967086</v>
@@ -17921,7 +17921,7 @@
         <v>261</v>
       </c>
       <c r="K245">
-        <v>151.34978142</v>
+        <v>151.406738147</v>
       </c>
       <c r="L245">
         <v>151.29052120447099</v>
@@ -17989,7 +17989,7 @@
         <v>261</v>
       </c>
       <c r="K246">
-        <v>253.21730105699999</v>
+        <v>249.190197152</v>
       </c>
       <c r="L246">
         <v>253.06237051635901</v>
@@ -18057,7 +18057,7 @@
         <v>261</v>
       </c>
       <c r="K247">
-        <v>166.08249687599999</v>
+        <v>161.484277827</v>
       </c>
       <c r="L247">
         <v>166.04263864084999</v>
@@ -18122,10 +18122,10 @@
         <v>8.3845119999999902</v>
       </c>
       <c r="J248" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K248">
-        <v>901.68832182699998</v>
+        <v>582.43792331899999</v>
       </c>
       <c r="L248">
         <v>901.067487411201</v>
@@ -18193,7 +18193,7 @@
         <v>260</v>
       </c>
       <c r="K249">
-        <v>901.703022422</v>
+        <v>901.69631510700003</v>
       </c>
       <c r="L249">
         <v>901.050322592258</v>
@@ -18240,7 +18240,8 @@
   <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18276,22 +18277,22 @@
         <v>262</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -18305,10 +18306,10 @@
         <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>257</v>
@@ -18323,10 +18324,10 @@
         <v>257</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -18380,7 +18381,7 @@
       </c>
       <c r="E4">
         <f>runs!$C4+runs!$K4</f>
-        <v>121.821987052</v>
+        <v>121.81718362399999</v>
       </c>
       <c r="F4" t="s">
         <v>258</v>
@@ -18418,7 +18419,7 @@
       </c>
       <c r="E5">
         <f>runs!$C5+runs!$K5</f>
-        <v>645.095602214</v>
+        <v>291.79148153599999</v>
       </c>
       <c r="F5" t="s">
         <v>260</v>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="E6">
         <f>runs!$C6+runs!$K6</f>
-        <v>283.54368448399998</v>
+        <v>283.70299742399999</v>
       </c>
       <c r="F6" t="s">
         <v>258</v>
@@ -18490,11 +18491,11 @@
         <v>149.39529707700001</v>
       </c>
       <c r="D7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7">
         <f>runs!$C7+runs!$K7</f>
-        <v>984.93991207199997</v>
+        <v>424.14336006100001</v>
       </c>
       <c r="F7" t="s">
         <v>260</v>
@@ -18532,7 +18533,7 @@
       </c>
       <c r="E8">
         <f>runs!$C8+runs!$K8</f>
-        <v>985.52951425000003</v>
+        <v>985.52134164300003</v>
       </c>
       <c r="F8" t="s">
         <v>260</v>
@@ -18566,11 +18567,11 @@
         <v>426.055919743</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9">
         <f>runs!$C9+runs!$K9</f>
-        <v>983.421532157</v>
+        <v>447.41714525199995</v>
       </c>
       <c r="F9" t="s">
         <v>259</v>
@@ -18608,7 +18609,7 @@
       </c>
       <c r="E10">
         <f>runs!$C10+runs!$K10</f>
-        <v>4.1297490640000003</v>
+        <v>4.1332735310000004</v>
       </c>
       <c r="F10" t="s">
         <v>258</v>
@@ -18646,7 +18647,7 @@
       </c>
       <c r="E11">
         <f>runs!$C11+runs!$K11</f>
-        <v>2.426463536</v>
+        <v>2.4264623910000003</v>
       </c>
       <c r="F11" t="s">
         <v>258</v>
@@ -18684,7 +18685,7 @@
       </c>
       <c r="E12">
         <f>runs!$C12+runs!$K12</f>
-        <v>94.855851711</v>
+        <v>94.896750851999997</v>
       </c>
       <c r="F12" t="s">
         <v>258</v>
@@ -18722,7 +18723,7 @@
       </c>
       <c r="E13">
         <f>runs!$C13+runs!$K13</f>
-        <v>362.70486449100002</v>
+        <v>359.19939495400001</v>
       </c>
       <c r="F13" t="s">
         <v>258</v>
@@ -18760,7 +18761,7 @@
       </c>
       <c r="E14">
         <f>runs!$C14+runs!$K14</f>
-        <v>0.69913607999999994</v>
+        <v>0.703254818</v>
       </c>
       <c r="F14" t="s">
         <v>258</v>
@@ -18798,7 +18799,7 @@
       </c>
       <c r="E15">
         <f>runs!$C15+runs!$K15</f>
-        <v>0.83398296200000011</v>
+        <v>0.83789973600000001</v>
       </c>
       <c r="F15" t="s">
         <v>258</v>
@@ -18836,10 +18837,10 @@
       </c>
       <c r="E16">
         <f>runs!$C16+runs!$K16</f>
-        <v>253.096626353</v>
+        <v>254.10108053499999</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G16">
         <v>1.5120903539999999</v>
@@ -18874,10 +18875,10 @@
       </c>
       <c r="E17">
         <f>runs!$C17+runs!$K17</f>
-        <v>405.74459834599998</v>
+        <v>385.24027174299999</v>
       </c>
       <c r="F17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G17">
         <v>0.18677808600000001</v>
@@ -18912,10 +18913,10 @@
       </c>
       <c r="E18">
         <f>runs!$C18+runs!$K18</f>
-        <v>378.86060555400002</v>
+        <v>418.91001158799997</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18">
         <v>0.279595973</v>
@@ -18950,10 +18951,10 @@
       </c>
       <c r="E19">
         <f>runs!$C19+runs!$K19</f>
-        <v>401.25033079499997</v>
+        <v>385.58100413099999</v>
       </c>
       <c r="F19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G19">
         <v>0.32772429600000003</v>
@@ -18988,10 +18989,10 @@
       </c>
       <c r="E20">
         <f>runs!$C20+runs!$K20</f>
-        <v>305.21504354399997</v>
+        <v>297.259211601</v>
       </c>
       <c r="F20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20">
         <v>0.38753418699999997</v>
@@ -19026,10 +19027,10 @@
       </c>
       <c r="E21">
         <f>runs!$C21+runs!$K21</f>
-        <v>194.767904327</v>
+        <v>192.643090433</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G21">
         <v>0.359375536</v>
@@ -19064,10 +19065,10 @@
       </c>
       <c r="E22">
         <f>runs!$C22+runs!$K22</f>
-        <v>645.11769235899999</v>
+        <v>532.95558742399999</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G22">
         <v>0.44810016400000002</v>
@@ -19102,10 +19103,10 @@
       </c>
       <c r="E23">
         <f>runs!$C23+runs!$K23</f>
-        <v>386.57214310500001</v>
+        <v>380.14236808300001</v>
       </c>
       <c r="F23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G23">
         <v>0.487292002</v>
@@ -19140,10 +19141,10 @@
       </c>
       <c r="E24">
         <f>runs!$C24+runs!$K24</f>
-        <v>279.16445687800001</v>
+        <v>285.64320307399998</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G24">
         <v>0.64021079400000003</v>
@@ -19178,10 +19179,10 @@
       </c>
       <c r="E25">
         <f>runs!$C25+runs!$K25</f>
-        <v>539.18459601999996</v>
+        <v>534.87720478199992</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G25">
         <v>0.57135201999999996</v>
@@ -19216,10 +19217,10 @@
       </c>
       <c r="E26">
         <f>runs!$C26+runs!$K26</f>
-        <v>467.47017981400001</v>
+        <v>452.71941072599998</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G26">
         <v>0.69623392200000001</v>
@@ -19254,10 +19255,10 @@
       </c>
       <c r="E27">
         <f>runs!$C27+runs!$K27</f>
-        <v>314.02568345600002</v>
+        <v>316.18485403700004</v>
       </c>
       <c r="F27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G27">
         <v>0.95545212599999996</v>
@@ -19292,10 +19293,10 @@
       </c>
       <c r="E28">
         <f>runs!$C28+runs!$K28</f>
-        <v>396.73483640199998</v>
+        <v>416.61797709899997</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G28">
         <v>0.81574907500000005</v>
@@ -19330,10 +19331,10 @@
       </c>
       <c r="E29">
         <f>runs!$C29+runs!$K29</f>
-        <v>297.116107693</v>
+        <v>295.25285057500002</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G29">
         <v>1.2633013749999999</v>
@@ -19368,10 +19369,10 @@
       </c>
       <c r="E30">
         <f>runs!$C30+runs!$K30</f>
-        <v>369.21647638399998</v>
+        <v>324.65226807499999</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G30">
         <v>0.86328111200000002</v>
@@ -19406,10 +19407,10 @@
       </c>
       <c r="E31">
         <f>runs!$C31+runs!$K31</f>
-        <v>587.21050539700002</v>
+        <v>590.69300895600009</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G31">
         <v>107.323403656</v>
@@ -19444,7 +19445,7 @@
       </c>
       <c r="E32">
         <f>runs!$C32+runs!$K32</f>
-        <v>526.54335974800006</v>
+        <v>585.33417357799999</v>
       </c>
       <c r="F32" t="s">
         <v>260</v>
@@ -19482,7 +19483,7 @@
       </c>
       <c r="E33">
         <f>runs!$C33+runs!$K33</f>
-        <v>537.35539659899996</v>
+        <v>553.47781546600004</v>
       </c>
       <c r="F33" t="s">
         <v>260</v>
@@ -19520,10 +19521,10 @@
       </c>
       <c r="E34">
         <f>runs!$C34+runs!$K34</f>
-        <v>429.39209133599996</v>
+        <v>439.539866948</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G34">
         <v>11.538785287</v>
@@ -19558,7 +19559,7 @@
       </c>
       <c r="E35">
         <f>runs!$C35+runs!$K35</f>
-        <v>75.180419256999997</v>
+        <v>75.099534649999995</v>
       </c>
       <c r="F35" t="s">
         <v>258</v>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="E36">
         <f>runs!$C36+runs!$K36</f>
-        <v>208.21443041699999</v>
+        <v>207.03398707599999</v>
       </c>
       <c r="F36" t="s">
         <v>258</v>
@@ -19634,7 +19635,7 @@
       </c>
       <c r="E37">
         <f>runs!$C37+runs!$K37</f>
-        <v>194.91809885199999</v>
+        <v>212.52518530899999</v>
       </c>
       <c r="F37" t="s">
         <v>258</v>
@@ -19672,7 +19673,7 @@
       </c>
       <c r="E38">
         <f>runs!$C38+runs!$K38</f>
-        <v>0.277775565</v>
+        <v>0.27962467799999996</v>
       </c>
       <c r="F38" t="s">
         <v>258</v>
@@ -19710,7 +19711,7 @@
       </c>
       <c r="E39">
         <f>runs!$C39+runs!$K39</f>
-        <v>74.439221810000006</v>
+        <v>74.455889388000003</v>
       </c>
       <c r="F39" t="s">
         <v>258</v>
@@ -19748,7 +19749,7 @@
       </c>
       <c r="E40">
         <f>runs!$C40+runs!$K40</f>
-        <v>74.137553616999995</v>
+        <v>74.148852692999995</v>
       </c>
       <c r="F40" t="s">
         <v>258</v>
@@ -19786,7 +19787,7 @@
       </c>
       <c r="E41">
         <f>runs!$C41+runs!$K41</f>
-        <v>78.217368259000011</v>
+        <v>78.154429911000008</v>
       </c>
       <c r="F41" t="s">
         <v>258</v>
@@ -19824,7 +19825,7 @@
       </c>
       <c r="E42">
         <f>runs!$C42+runs!$K42</f>
-        <v>342.52504350699996</v>
+        <v>343.80719763399998</v>
       </c>
       <c r="F42" t="s">
         <v>258</v>
@@ -19862,10 +19863,10 @@
       </c>
       <c r="E43">
         <f>runs!$C43+runs!$K43</f>
-        <v>432.27297261299998</v>
+        <v>486.32547529699997</v>
       </c>
       <c r="F43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G43">
         <v>0.64300546599999997</v>
@@ -19900,10 +19901,10 @@
       </c>
       <c r="E44">
         <f>runs!$C44+runs!$K44</f>
-        <v>313.22670650100002</v>
+        <v>269.43278059199997</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G44">
         <v>0.50685202699999998</v>
@@ -19938,10 +19939,10 @@
       </c>
       <c r="E45">
         <f>runs!$C45+runs!$K45</f>
-        <v>313.73043048599999</v>
+        <v>292.036715066</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G45">
         <v>0.67888024999999996</v>
@@ -19976,10 +19977,10 @@
       </c>
       <c r="E46">
         <f>runs!$C46+runs!$K46</f>
-        <v>325.33653388499999</v>
+        <v>324.76307823299999</v>
       </c>
       <c r="F46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G46">
         <v>0.52675479000000003</v>
@@ -20014,10 +20015,10 @@
       </c>
       <c r="E47">
         <f>runs!$C47+runs!$K47</f>
-        <v>388.14237741900001</v>
+        <v>322.30006350799999</v>
       </c>
       <c r="F47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G47">
         <v>0.52675011299999996</v>
@@ -20052,10 +20053,10 @@
       </c>
       <c r="E48">
         <f>runs!$C48+runs!$K48</f>
-        <v>277.13061858999998</v>
+        <v>283.25034922099996</v>
       </c>
       <c r="F48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G48">
         <v>0.586953736</v>
@@ -20090,10 +20091,10 @@
       </c>
       <c r="E49">
         <f>runs!$C49+runs!$K49</f>
-        <v>330.91272245700003</v>
+        <v>327.07626107800002</v>
       </c>
       <c r="F49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G49">
         <v>0.67511606300000004</v>
@@ -20128,10 +20129,10 @@
       </c>
       <c r="E50">
         <f>runs!$C50+runs!$K50</f>
-        <v>383.32667684</v>
+        <v>337.68194130099999</v>
       </c>
       <c r="F50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G50">
         <v>0.70308048700000003</v>
@@ -20166,10 +20167,10 @@
       </c>
       <c r="E51">
         <f>runs!$C51+runs!$K51</f>
-        <v>262.56455578599997</v>
+        <v>261.79372569599997</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G51">
         <v>0.686872339</v>
@@ -20204,10 +20205,10 @@
       </c>
       <c r="E52">
         <f>runs!$C52+runs!$K52</f>
-        <v>308.74359717300001</v>
+        <v>309.48092681200001</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G52">
         <v>0.67098199300000005</v>
@@ -20242,10 +20243,10 @@
       </c>
       <c r="E53">
         <f>runs!$C53+runs!$K53</f>
-        <v>367.82283815199997</v>
+        <v>367.16219794799997</v>
       </c>
       <c r="F53" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G53">
         <v>0.83100861699999995</v>
@@ -20280,10 +20281,10 @@
       </c>
       <c r="E54">
         <f>runs!$C54+runs!$K54</f>
-        <v>281.69368291399996</v>
+        <v>281.04471124399998</v>
       </c>
       <c r="F54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G54">
         <v>0.80309718299999999</v>
@@ -20318,10 +20319,10 @@
       </c>
       <c r="E55">
         <f>runs!$C55+runs!$K55</f>
-        <v>373.98792171700001</v>
+        <v>365.52117528400004</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G55">
         <v>0.90733654399999997</v>
@@ -20356,10 +20357,10 @@
       </c>
       <c r="E56">
         <f>runs!$C56+runs!$K56</f>
-        <v>350.762522988</v>
+        <v>330.29255524600001</v>
       </c>
       <c r="F56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G56">
         <v>0.68689417799999997</v>
@@ -20394,10 +20395,10 @@
       </c>
       <c r="E57">
         <f>runs!$C57+runs!$K57</f>
-        <v>311.04402381</v>
+        <v>332.83897803400004</v>
       </c>
       <c r="F57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G57">
         <v>1.2192601089999999</v>
@@ -20432,10 +20433,10 @@
       </c>
       <c r="E58">
         <f>runs!$C58+runs!$K58</f>
-        <v>279.53986452600003</v>
+        <v>288.49812791800002</v>
       </c>
       <c r="F58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G58">
         <v>0.92712860699999999</v>
@@ -20470,10 +20471,10 @@
       </c>
       <c r="E59">
         <f>runs!$C59+runs!$K59</f>
-        <v>367.15910768200001</v>
+        <v>370.145776947</v>
       </c>
       <c r="F59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G59">
         <v>0.96725288099999995</v>
@@ -20508,10 +20509,10 @@
       </c>
       <c r="E60">
         <f>runs!$C60+runs!$K60</f>
-        <v>345.121261688</v>
+        <v>345.12847746</v>
       </c>
       <c r="F60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G60">
         <v>1.0352157399999999</v>
@@ -20546,10 +20547,10 @@
       </c>
       <c r="E61">
         <f>runs!$C61+runs!$K61</f>
-        <v>359.04159933199998</v>
+        <v>341.58602412799996</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G61">
         <v>0.83916994099999997</v>
@@ -20584,10 +20585,10 @@
       </c>
       <c r="E62">
         <f>runs!$C62+runs!$K62</f>
-        <v>459.71179034300002</v>
+        <v>416.87138354300004</v>
       </c>
       <c r="F62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G62">
         <v>0.81119778099999995</v>
@@ -20622,7 +20623,7 @@
       </c>
       <c r="E63">
         <f>runs!$C63+runs!$K63</f>
-        <v>450.96747704899997</v>
+        <v>424.351956336</v>
       </c>
       <c r="F63" t="s">
         <v>260</v>
@@ -20660,7 +20661,7 @@
       </c>
       <c r="E64">
         <f>runs!$C64+runs!$K64</f>
-        <v>299.67610958</v>
+        <v>299.48148454699998</v>
       </c>
       <c r="F64" t="s">
         <v>260</v>
@@ -20698,7 +20699,7 @@
       </c>
       <c r="E65">
         <f>runs!$C65+runs!$K65</f>
-        <v>423.07819614900001</v>
+        <v>442.12658343499999</v>
       </c>
       <c r="F65" t="s">
         <v>260</v>
@@ -20736,10 +20737,10 @@
       </c>
       <c r="E66">
         <f>runs!$C66+runs!$K66</f>
-        <v>560.92862994999996</v>
+        <v>525.39121437799997</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G66">
         <v>0.17029844299999999</v>
@@ -20774,10 +20775,10 @@
       </c>
       <c r="E67">
         <f>runs!$C67+runs!$K67</f>
-        <v>281.75050195</v>
+        <v>272.41769418300004</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G67">
         <v>0.24245232999999999</v>
@@ -20812,10 +20813,10 @@
       </c>
       <c r="E68">
         <f>runs!$C68+runs!$K68</f>
-        <v>355.073619114</v>
+        <v>362.68473673700004</v>
       </c>
       <c r="F68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G68">
         <v>0.26252948700000001</v>
@@ -20850,10 +20851,10 @@
       </c>
       <c r="E69">
         <f>runs!$C69+runs!$K69</f>
-        <v>326.78795460200001</v>
+        <v>309.41444586599999</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G69">
         <v>0.254480912</v>
@@ -20888,10 +20889,10 @@
       </c>
       <c r="E70">
         <f>runs!$C70+runs!$K70</f>
-        <v>317.72551717199997</v>
+        <v>353.42062879899999</v>
       </c>
       <c r="F70" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G70">
         <v>0.42249920600000002</v>
@@ -20926,10 +20927,10 @@
       </c>
       <c r="E71">
         <f>runs!$C71+runs!$K71</f>
-        <v>278.63434656100003</v>
+        <v>234.90176821</v>
       </c>
       <c r="F71" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G71">
         <v>0.34246391599999998</v>
@@ -20964,10 +20965,10 @@
       </c>
       <c r="E72">
         <f>runs!$C72+runs!$K72</f>
-        <v>381.09394573499998</v>
+        <v>551.60206060100006</v>
       </c>
       <c r="F72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G72">
         <v>0.40260469700000001</v>
@@ -21002,10 +21003,10 @@
       </c>
       <c r="E73">
         <f>runs!$C73+runs!$K73</f>
-        <v>482.20394301499999</v>
+        <v>468.34175239800004</v>
       </c>
       <c r="F73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G73">
         <v>0.47853734399999998</v>
@@ -21040,10 +21041,10 @@
       </c>
       <c r="E74">
         <f>runs!$C74+runs!$K74</f>
-        <v>411.92231800000002</v>
+        <v>374.19321991500004</v>
       </c>
       <c r="F74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G74">
         <v>0.45860149900000002</v>
@@ -21078,10 +21079,10 @@
       </c>
       <c r="E75">
         <f>runs!$C75+runs!$K75</f>
-        <v>388.08665377599999</v>
+        <v>576.12206296800002</v>
       </c>
       <c r="F75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G75">
         <v>0.45858723099999998</v>
@@ -21116,10 +21117,10 @@
       </c>
       <c r="E76">
         <f>runs!$C76+runs!$K76</f>
-        <v>473.93111518500001</v>
+        <v>362.89739133299997</v>
       </c>
       <c r="F76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G76">
         <v>0.45454439299999999</v>
@@ -21154,10 +21155,10 @@
       </c>
       <c r="E77">
         <f>runs!$C77+runs!$K77</f>
-        <v>257.88093494399999</v>
+        <v>216.099764497</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G77">
         <v>0.55467309499999995</v>
@@ -21192,10 +21193,10 @@
       </c>
       <c r="E78">
         <f>runs!$C78+runs!$K78</f>
-        <v>323.417519782</v>
+        <v>315.39887924099997</v>
       </c>
       <c r="F78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G78">
         <v>0.470600517</v>
@@ -21230,10 +21231,10 @@
       </c>
       <c r="E79">
         <f>runs!$C79+runs!$K79</f>
-        <v>493.79442935399999</v>
+        <v>453.13757852499998</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G79">
         <v>0.53857573299999995</v>
@@ -21268,10 +21269,10 @@
       </c>
       <c r="E80">
         <f>runs!$C80+runs!$K80</f>
-        <v>428.63285667700001</v>
+        <v>443.32719366499998</v>
       </c>
       <c r="F80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G80">
         <v>2.1558721909999998</v>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="E81">
         <f>runs!$C81+runs!$K81</f>
-        <v>209.15428489500002</v>
+        <v>209.05856877400001</v>
       </c>
       <c r="F81" t="s">
         <v>260</v>
@@ -21344,7 +21345,7 @@
       </c>
       <c r="E82">
         <f>runs!$C82+runs!$K82</f>
-        <v>256.515045133</v>
+        <v>260.47971911100001</v>
       </c>
       <c r="F82" t="s">
         <v>260</v>
@@ -21382,7 +21383,7 @@
       </c>
       <c r="E83">
         <f>runs!$C83+runs!$K83</f>
-        <v>257.84622335</v>
+        <v>255.87172432099999</v>
       </c>
       <c r="F83" t="s">
         <v>260</v>
@@ -21420,7 +21421,7 @@
       </c>
       <c r="E84">
         <f>runs!$C84+runs!$K84</f>
-        <v>4.557593174</v>
+        <v>4.5490143549999997</v>
       </c>
       <c r="F84" t="s">
         <v>258</v>
@@ -21458,7 +21459,7 @@
       </c>
       <c r="E85">
         <f>runs!$C85+runs!$K85</f>
-        <v>287.41965580700003</v>
+        <v>314.112103531</v>
       </c>
       <c r="F85" t="s">
         <v>260</v>
@@ -21496,7 +21497,7 @@
       </c>
       <c r="E86">
         <f>runs!$C86+runs!$K86</f>
-        <v>224.24002189999999</v>
+        <v>224.22212655800001</v>
       </c>
       <c r="F86" t="s">
         <v>260</v>
@@ -21534,7 +21535,7 @@
       </c>
       <c r="E87">
         <f>runs!$C87+runs!$K87</f>
-        <v>0.379596349</v>
+        <v>0.37962336699999999</v>
       </c>
       <c r="F87" t="s">
         <v>258</v>
@@ -21572,7 +21573,7 @@
       </c>
       <c r="E88">
         <f>runs!$C88+runs!$K88</f>
-        <v>340.07147785699999</v>
+        <v>376.546499004</v>
       </c>
       <c r="F88" t="s">
         <v>260</v>
@@ -21610,7 +21611,7 @@
       </c>
       <c r="E89">
         <f>runs!$C89+runs!$K89</f>
-        <v>451.35277331900005</v>
+        <v>410.09534026700004</v>
       </c>
       <c r="F89" t="s">
         <v>260</v>
@@ -21648,7 +21649,7 @@
       </c>
       <c r="E90">
         <f>runs!$C90+runs!$K90</f>
-        <v>87.095250905</v>
+        <v>87.269309837000009</v>
       </c>
       <c r="F90" t="s">
         <v>258</v>
@@ -21686,7 +21687,7 @@
       </c>
       <c r="E91">
         <f>runs!$C91+runs!$K91</f>
-        <v>70.748048350000005</v>
+        <v>85.142983418</v>
       </c>
       <c r="F91" t="s">
         <v>258</v>
@@ -21724,7 +21725,7 @@
       </c>
       <c r="E92">
         <f>runs!$C92+runs!$K92</f>
-        <v>399.59913859400001</v>
+        <v>406.253206363</v>
       </c>
       <c r="F92" t="s">
         <v>258</v>
@@ -21762,7 +21763,7 @@
       </c>
       <c r="E93">
         <f>runs!$C93+runs!$K93</f>
-        <v>1004.134219678</v>
+        <v>1004.2181601120001</v>
       </c>
       <c r="F93" t="s">
         <v>260</v>
@@ -21800,7 +21801,7 @@
       </c>
       <c r="E94">
         <f>runs!$C94+runs!$K94</f>
-        <v>985.44939728100007</v>
+        <v>985.44385262100002</v>
       </c>
       <c r="F94" t="s">
         <v>260</v>
@@ -21838,7 +21839,7 @@
       </c>
       <c r="E95">
         <f>runs!$C95+runs!$K95</f>
-        <v>1004.270292786</v>
+        <v>1004.279691695</v>
       </c>
       <c r="F95" t="s">
         <v>260</v>
@@ -21872,11 +21873,11 @@
         <v>743.38751472599995</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E96">
         <f>runs!$C96+runs!$K96</f>
-        <v>987.01095507100001</v>
+        <v>377.062938164</v>
       </c>
       <c r="F96" t="s">
         <v>260</v>
@@ -21914,7 +21915,7 @@
       </c>
       <c r="E97">
         <f>runs!$C97+runs!$K97</f>
-        <v>964.11456191999991</v>
+        <v>964.10900165700002</v>
       </c>
       <c r="F97" t="s">
         <v>260</v>
@@ -21952,7 +21953,7 @@
       </c>
       <c r="E98">
         <f>runs!$C98+runs!$K98</f>
-        <v>281.55278995399999</v>
+        <v>317.85950262</v>
       </c>
       <c r="F98" t="s">
         <v>260</v>
@@ -21990,7 +21991,7 @@
       </c>
       <c r="E99">
         <f>runs!$C99+runs!$K99</f>
-        <v>566.99451146900003</v>
+        <v>565.982954296</v>
       </c>
       <c r="F99" t="s">
         <v>260</v>
@@ -22028,7 +22029,7 @@
       </c>
       <c r="E100">
         <f>runs!$C100+runs!$K100</f>
-        <v>246.145030808</v>
+        <v>266.70334650800004</v>
       </c>
       <c r="F100" t="s">
         <v>258</v>
@@ -22066,7 +22067,7 @@
       </c>
       <c r="E101">
         <f>runs!$C101+runs!$K101</f>
-        <v>409.14043582400001</v>
+        <v>412.76145455100004</v>
       </c>
       <c r="F101" t="s">
         <v>260</v>
@@ -22104,7 +22105,7 @@
       </c>
       <c r="E102">
         <f>runs!$C102+runs!$K102</f>
-        <v>9.8366014489999998</v>
+        <v>9.82575851</v>
       </c>
       <c r="F102" t="s">
         <v>259</v>
@@ -22142,7 +22143,7 @@
       </c>
       <c r="E103">
         <f>runs!$C103+runs!$K103</f>
-        <v>355.85750959000001</v>
+        <v>357.68883102900003</v>
       </c>
       <c r="F103" t="s">
         <v>260</v>
@@ -22180,7 +22181,7 @@
       </c>
       <c r="E104">
         <f>runs!$C104+runs!$K104</f>
-        <v>302.78261669800003</v>
+        <v>300.79365576600003</v>
       </c>
       <c r="F104" t="s">
         <v>260</v>
@@ -22218,7 +22219,7 @@
       </c>
       <c r="E105">
         <f>runs!$C105+runs!$K105</f>
-        <v>191.45139916600002</v>
+        <v>199.46543011899999</v>
       </c>
       <c r="F105" t="s">
         <v>260</v>
@@ -22256,7 +22257,7 @@
       </c>
       <c r="E106">
         <f>runs!$C106+runs!$K106</f>
-        <v>426.28227126299998</v>
+        <v>428.69355822999995</v>
       </c>
       <c r="F106" t="s">
         <v>260</v>
@@ -22294,7 +22295,7 @@
       </c>
       <c r="E107">
         <f>runs!$C107+runs!$K107</f>
-        <v>372.96578776500002</v>
+        <v>370.983850222</v>
       </c>
       <c r="F107" t="s">
         <v>260</v>
@@ -22332,7 +22333,7 @@
       </c>
       <c r="E108">
         <f>runs!$C108+runs!$K108</f>
-        <v>146.733275061</v>
+        <v>146.78562706</v>
       </c>
       <c r="F108" t="s">
         <v>259</v>
@@ -22370,7 +22371,7 @@
       </c>
       <c r="E109">
         <f>runs!$C109+runs!$K109</f>
-        <v>10.3326247</v>
+        <v>10.327255135</v>
       </c>
       <c r="F109" t="s">
         <v>259</v>
@@ -22408,10 +22409,10 @@
       </c>
       <c r="E110">
         <f>runs!$C110+runs!$K110</f>
-        <v>313.49942881599998</v>
+        <v>313.728586441</v>
       </c>
       <c r="F110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G110">
         <v>0.27858544099999999</v>
@@ -22446,7 +22447,7 @@
       </c>
       <c r="E111">
         <f>runs!$C111+runs!$K111</f>
-        <v>360.116727583</v>
+        <v>361.12765958599999</v>
       </c>
       <c r="F111" t="s">
         <v>260</v>
@@ -22484,7 +22485,7 @@
       </c>
       <c r="E112">
         <f>runs!$C112+runs!$K112</f>
-        <v>202.47473889299999</v>
+        <v>196.70538370099999</v>
       </c>
       <c r="F112" t="s">
         <v>260</v>
@@ -22522,7 +22523,7 @@
       </c>
       <c r="E113">
         <f>runs!$C113+runs!$K113</f>
-        <v>225.88062943200001</v>
+        <v>222.48352427400002</v>
       </c>
       <c r="F113" t="s">
         <v>260</v>
@@ -22560,7 +22561,7 @@
       </c>
       <c r="E114">
         <f>runs!$C114+runs!$K114</f>
-        <v>205.19490486699999</v>
+        <v>211.84502957499998</v>
       </c>
       <c r="F114" t="s">
         <v>259</v>
@@ -22598,7 +22599,7 @@
       </c>
       <c r="E115">
         <f>runs!$C115+runs!$K115</f>
-        <v>215.359820125</v>
+        <v>196.06738438899998</v>
       </c>
       <c r="F115" t="s">
         <v>260</v>
@@ -22636,7 +22637,7 @@
       </c>
       <c r="E116">
         <f>runs!$C116+runs!$K116</f>
-        <v>209.53253221599999</v>
+        <v>211.86940270699998</v>
       </c>
       <c r="F116" t="s">
         <v>258</v>
@@ -22674,7 +22675,7 @@
       </c>
       <c r="E117">
         <f>runs!$C117+runs!$K117</f>
-        <v>221.59166864099998</v>
+        <v>221.140073363</v>
       </c>
       <c r="F117" t="s">
         <v>260</v>
@@ -22712,10 +22713,10 @@
       </c>
       <c r="E118">
         <f>runs!$C118+runs!$K118</f>
-        <v>296.873024364</v>
+        <v>308.81015546100002</v>
       </c>
       <c r="F118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G118">
         <v>1.0510834950000001</v>
@@ -22750,7 +22751,7 @@
       </c>
       <c r="E119">
         <f>runs!$C119+runs!$K119</f>
-        <v>389.52214186599997</v>
+        <v>387.365531148</v>
       </c>
       <c r="F119" t="s">
         <v>259</v>
@@ -22788,7 +22789,7 @@
       </c>
       <c r="E120">
         <f>runs!$C120+runs!$K120</f>
-        <v>315.17207530399997</v>
+        <v>306.32203784299998</v>
       </c>
       <c r="F120" t="s">
         <v>259</v>
@@ -22826,7 +22827,7 @@
       </c>
       <c r="E121">
         <f>runs!$C121+runs!$K121</f>
-        <v>561.28249456100002</v>
+        <v>561.07192932600003</v>
       </c>
       <c r="F121" t="s">
         <v>259</v>
@@ -22864,7 +22865,7 @@
       </c>
       <c r="E122">
         <f>runs!$C122+runs!$K122</f>
-        <v>382.45856045400001</v>
+        <v>357.364929287</v>
       </c>
       <c r="F122" t="s">
         <v>258</v>
@@ -22902,7 +22903,7 @@
       </c>
       <c r="E123">
         <f>runs!$C123+runs!$K123</f>
-        <v>271.06734635900006</v>
+        <v>270.60653197300002</v>
       </c>
       <c r="F123" t="s">
         <v>259</v>
@@ -22940,7 +22941,7 @@
       </c>
       <c r="E124">
         <f>runs!$C124+runs!$K124</f>
-        <v>236.34159762900001</v>
+        <v>241.88591395399999</v>
       </c>
       <c r="F124" t="s">
         <v>259</v>
@@ -22978,7 +22979,7 @@
       </c>
       <c r="E125">
         <f>runs!$C125+runs!$K125</f>
-        <v>358.43203226999998</v>
+        <v>358.338918046</v>
       </c>
       <c r="F125" t="s">
         <v>259</v>
@@ -23016,7 +23017,7 @@
       </c>
       <c r="E126">
         <f>runs!$C126+runs!$K126</f>
-        <v>269.91930500199999</v>
+        <v>270.110588312</v>
       </c>
       <c r="F126" t="s">
         <v>259</v>
@@ -23054,7 +23055,7 @@
       </c>
       <c r="E127">
         <f>runs!$C127+runs!$K127</f>
-        <v>214.75925812700001</v>
+        <v>209.90913727200001</v>
       </c>
       <c r="F127" t="s">
         <v>258</v>
@@ -23092,7 +23093,7 @@
       </c>
       <c r="E128">
         <f>runs!$C128+runs!$K128</f>
-        <v>246.909299455</v>
+        <v>246.63495020399998</v>
       </c>
       <c r="F128" t="s">
         <v>259</v>
@@ -23130,7 +23131,7 @@
       </c>
       <c r="E129">
         <f>runs!$C129+runs!$K129</f>
-        <v>238.63910012400001</v>
+        <v>217.44921658499999</v>
       </c>
       <c r="F129" t="s">
         <v>258</v>
@@ -23168,7 +23169,7 @@
       </c>
       <c r="E130">
         <f>runs!$C130+runs!$K130</f>
-        <v>205.38713424299999</v>
+        <v>213.33985387000001</v>
       </c>
       <c r="F130" t="s">
         <v>259</v>
@@ -23206,7 +23207,7 @@
       </c>
       <c r="E131">
         <f>runs!$C131+runs!$K131</f>
-        <v>201.45799559699998</v>
+        <v>200.653443866</v>
       </c>
       <c r="F131" t="s">
         <v>259</v>
@@ -23244,7 +23245,7 @@
       </c>
       <c r="E132">
         <f>runs!$C132+runs!$K132</f>
-        <v>260.14024372299997</v>
+        <v>269.52094079399996</v>
       </c>
       <c r="F132" t="s">
         <v>259</v>
@@ -23282,7 +23283,7 @@
       </c>
       <c r="E133">
         <f>runs!$C133+runs!$K133</f>
-        <v>195.71087676499999</v>
+        <v>194.76607860999999</v>
       </c>
       <c r="F133" t="s">
         <v>259</v>
@@ -23320,7 +23321,7 @@
       </c>
       <c r="E134">
         <f>runs!$C134+runs!$K134</f>
-        <v>221.70513007700001</v>
+        <v>219.74189890300002</v>
       </c>
       <c r="F134" t="s">
         <v>259</v>
@@ -23358,7 +23359,7 @@
       </c>
       <c r="E135">
         <f>runs!$C135+runs!$K135</f>
-        <v>347.97848690999996</v>
+        <v>348.36791029799997</v>
       </c>
       <c r="F135" t="s">
         <v>259</v>
@@ -23396,7 +23397,7 @@
       </c>
       <c r="E136">
         <f>runs!$C136+runs!$K136</f>
-        <v>338.66473941999999</v>
+        <v>337.725181013</v>
       </c>
       <c r="F136" t="s">
         <v>259</v>
@@ -23434,7 +23435,7 @@
       </c>
       <c r="E137">
         <f>runs!$C137+runs!$K137</f>
-        <v>369.09207142399998</v>
+        <v>369.01910691199998</v>
       </c>
       <c r="F137" t="s">
         <v>259</v>
@@ -23472,7 +23473,7 @@
       </c>
       <c r="E138">
         <f>runs!$C138+runs!$K138</f>
-        <v>337.677733069</v>
+        <v>337.390638771</v>
       </c>
       <c r="F138" t="s">
         <v>259</v>
@@ -23510,7 +23511,7 @@
       </c>
       <c r="E139">
         <f>runs!$C139+runs!$K139</f>
-        <v>212.41529232799999</v>
+        <v>211.92684506199998</v>
       </c>
       <c r="F139" t="s">
         <v>258</v>
@@ -23548,7 +23549,7 @@
       </c>
       <c r="E140">
         <f>runs!$C140+runs!$K140</f>
-        <v>207.415646485</v>
+        <v>207.26111631200001</v>
       </c>
       <c r="F140" t="s">
         <v>259</v>
@@ -23586,7 +23587,7 @@
       </c>
       <c r="E141">
         <f>runs!$C141+runs!$K141</f>
-        <v>202.07008807800003</v>
+        <v>210.99524200300002</v>
       </c>
       <c r="F141" t="s">
         <v>258</v>
@@ -23624,7 +23625,7 @@
       </c>
       <c r="E142">
         <f>runs!$C142+runs!$K142</f>
-        <v>94.537836091000003</v>
+        <v>94.351058406000007</v>
       </c>
       <c r="F142" t="s">
         <v>259</v>
@@ -23662,7 +23663,7 @@
       </c>
       <c r="E143">
         <f>runs!$C143+runs!$K143</f>
-        <v>14.803743344999999</v>
+        <v>14.795703756</v>
       </c>
       <c r="F143" t="s">
         <v>259</v>
@@ -23700,7 +23701,7 @@
       </c>
       <c r="E144">
         <f>runs!$C144+runs!$K144</f>
-        <v>248.61480775699999</v>
+        <v>245.02857038299999</v>
       </c>
       <c r="F144" t="s">
         <v>258</v>
@@ -23738,7 +23739,7 @@
       </c>
       <c r="E145">
         <f>runs!$C145+runs!$K145</f>
-        <v>391.91189899199998</v>
+        <v>382.76236723</v>
       </c>
       <c r="F145" t="s">
         <v>260</v>
@@ -23776,7 +23777,7 @@
       </c>
       <c r="E146">
         <f>runs!$C146+runs!$K146</f>
-        <v>180.992529641</v>
+        <v>181.760139194</v>
       </c>
       <c r="F146" t="s">
         <v>259</v>
@@ -23814,7 +23815,7 @@
       </c>
       <c r="E147">
         <f>runs!$C147+runs!$K147</f>
-        <v>213.623958063</v>
+        <v>213.60808589499999</v>
       </c>
       <c r="F147" t="s">
         <v>258</v>
@@ -23852,7 +23853,7 @@
       </c>
       <c r="E148">
         <f>runs!$C148+runs!$K148</f>
-        <v>144.22651611500001</v>
+        <v>151.226520808</v>
       </c>
       <c r="F148" t="s">
         <v>258</v>
@@ -23890,7 +23891,7 @@
       </c>
       <c r="E149">
         <f>runs!$C149+runs!$K149</f>
-        <v>315.54474772100002</v>
+        <v>316.59036172700002</v>
       </c>
       <c r="F149" t="s">
         <v>258</v>
@@ -23928,7 +23929,7 @@
       </c>
       <c r="E150">
         <f>runs!$C150+runs!$K150</f>
-        <v>153.92660647599999</v>
+        <v>171.941831716</v>
       </c>
       <c r="F150" t="s">
         <v>259</v>
@@ -23966,7 +23967,7 @@
       </c>
       <c r="E151">
         <f>runs!$C151+runs!$K151</f>
-        <v>265.23972275099999</v>
+        <v>266.06285334799998</v>
       </c>
       <c r="F151" t="s">
         <v>259</v>
@@ -24004,7 +24005,7 @@
       </c>
       <c r="E152">
         <f>runs!$C152+runs!$K152</f>
-        <v>920.09088519700003</v>
+        <v>920.22604034699998</v>
       </c>
       <c r="F152" t="s">
         <v>259</v>
@@ -24042,7 +24043,7 @@
       </c>
       <c r="E153">
         <f>runs!$C153+runs!$K153</f>
-        <v>72.049269030000005</v>
+        <v>72.617883956</v>
       </c>
       <c r="F153" t="s">
         <v>259</v>
@@ -24080,7 +24081,7 @@
       </c>
       <c r="E154">
         <f>runs!$C154+runs!$K154</f>
-        <v>511.50780556000001</v>
+        <v>509.98923442800003</v>
       </c>
       <c r="F154" t="s">
         <v>259</v>
@@ -24118,7 +24119,7 @@
       </c>
       <c r="E155">
         <f>runs!$C155+runs!$K155</f>
-        <v>862.08772588500005</v>
+        <v>845.31009434299995</v>
       </c>
       <c r="F155" t="s">
         <v>259</v>
@@ -24156,7 +24157,7 @@
       </c>
       <c r="E156">
         <f>runs!$C156+runs!$K156</f>
-        <v>341.15446116200002</v>
+        <v>334.43719032199999</v>
       </c>
       <c r="F156" t="s">
         <v>258</v>
@@ -24194,7 +24195,7 @@
       </c>
       <c r="E157">
         <f>runs!$C157+runs!$K157</f>
-        <v>558.55865214800008</v>
+        <v>559.08572035700001</v>
       </c>
       <c r="F157" t="s">
         <v>258</v>
@@ -24232,7 +24233,7 @@
       </c>
       <c r="E158">
         <f>runs!$C158+runs!$K158</f>
-        <v>35.049404196000005</v>
+        <v>35.064658097000006</v>
       </c>
       <c r="F158" t="s">
         <v>259</v>
@@ -24270,7 +24271,7 @@
       </c>
       <c r="E159">
         <f>runs!$C159+runs!$K159</f>
-        <v>809.58289696700001</v>
+        <v>796.64631971699998</v>
       </c>
       <c r="F159" t="s">
         <v>258</v>
@@ -24308,7 +24309,7 @@
       </c>
       <c r="E160">
         <f>runs!$C160+runs!$K160</f>
-        <v>950.22330866000004</v>
+        <v>950.21014122099996</v>
       </c>
       <c r="F160" t="s">
         <v>259</v>
@@ -24346,7 +24347,7 @@
       </c>
       <c r="E161">
         <f>runs!$C161+runs!$K161</f>
-        <v>35.378437785000003</v>
+        <v>35.230680417000002</v>
       </c>
       <c r="F161" t="s">
         <v>259</v>
@@ -24384,7 +24385,7 @@
       </c>
       <c r="E162">
         <f>runs!$C162+runs!$K162</f>
-        <v>87.316394446999993</v>
+        <v>87.277498194999993</v>
       </c>
       <c r="F162" t="s">
         <v>259</v>
@@ -24422,7 +24423,7 @@
       </c>
       <c r="E163">
         <f>runs!$C163+runs!$K163</f>
-        <v>267.23483944899999</v>
+        <v>267.24457224499997</v>
       </c>
       <c r="F163" t="s">
         <v>259</v>
@@ -24460,7 +24461,7 @@
       </c>
       <c r="E164">
         <f>runs!$C164+runs!$K164</f>
-        <v>337.11101482800001</v>
+        <v>336.708877884</v>
       </c>
       <c r="F164" t="s">
         <v>258</v>
@@ -24498,7 +24499,7 @@
       </c>
       <c r="E165">
         <f>runs!$C165+runs!$K165</f>
-        <v>44.420102546000003</v>
+        <v>44.509511979999999</v>
       </c>
       <c r="F165" t="s">
         <v>259</v>
@@ -24536,7 +24537,7 @@
       </c>
       <c r="E166">
         <f>runs!$C166+runs!$K166</f>
-        <v>89.437487959999999</v>
+        <v>89.377204879000004</v>
       </c>
       <c r="F166" t="s">
         <v>258</v>
@@ -24574,7 +24575,7 @@
       </c>
       <c r="E167">
         <f>runs!$C167+runs!$K167</f>
-        <v>5.0084718340000007</v>
+        <v>4.998278537</v>
       </c>
       <c r="F167" t="s">
         <v>259</v>
@@ -24612,7 +24613,7 @@
       </c>
       <c r="E168">
         <f>runs!$C168+runs!$K168</f>
-        <v>44.390940870999998</v>
+        <v>44.101660156000001</v>
       </c>
       <c r="F168" t="s">
         <v>259</v>
@@ -24650,7 +24651,7 @@
       </c>
       <c r="E169">
         <f>runs!$C169+runs!$K169</f>
-        <v>0.92795677900000006</v>
+        <v>0.92541942300000002</v>
       </c>
       <c r="F169" t="s">
         <v>258</v>
@@ -24688,7 +24689,7 @@
       </c>
       <c r="E170">
         <f>runs!$C170+runs!$K170</f>
-        <v>0.86620514999999998</v>
+        <v>0.866694992</v>
       </c>
       <c r="F170" t="s">
         <v>258</v>
@@ -24726,7 +24727,7 @@
       </c>
       <c r="E171">
         <f>runs!$C171+runs!$K171</f>
-        <v>2.3619899479999997</v>
+        <v>2.3432046949999998</v>
       </c>
       <c r="F171" t="s">
         <v>258</v>
@@ -24764,7 +24765,7 @@
       </c>
       <c r="E172">
         <f>runs!$C172+runs!$K172</f>
-        <v>80.131619192000002</v>
+        <v>79.675053513999998</v>
       </c>
       <c r="F172" t="s">
         <v>259</v>
@@ -24802,7 +24803,7 @@
       </c>
       <c r="E173">
         <f>runs!$C173+runs!$K173</f>
-        <v>558.18288350500006</v>
+        <v>547.00665409500004</v>
       </c>
       <c r="F173" t="s">
         <v>259</v>
@@ -24840,7 +24841,7 @@
       </c>
       <c r="E174">
         <f>runs!$C174+runs!$K174</f>
-        <v>654.62749451700006</v>
+        <v>655.60719160100007</v>
       </c>
       <c r="F174" t="s">
         <v>258</v>
@@ -24878,7 +24879,7 @@
       </c>
       <c r="E175">
         <f>runs!$C175+runs!$K175</f>
-        <v>982.46336426799996</v>
+        <v>982.57521082599999</v>
       </c>
       <c r="F175" t="s">
         <v>258</v>
@@ -24916,7 +24917,7 @@
       </c>
       <c r="E176">
         <f>runs!$C176+runs!$K176</f>
-        <v>982.80013860000008</v>
+        <v>982.796403424</v>
       </c>
       <c r="F176" t="s">
         <v>260</v>
@@ -24954,7 +24955,7 @@
       </c>
       <c r="E177">
         <f>runs!$C177+runs!$K177</f>
-        <v>982.75783769500003</v>
+        <v>982.653811292</v>
       </c>
       <c r="F177" t="s">
         <v>258</v>
@@ -24992,7 +24993,7 @@
       </c>
       <c r="E178">
         <f>runs!$C178+runs!$K178</f>
-        <v>982.94209021200004</v>
+        <v>982.95045827600006</v>
       </c>
       <c r="F178" t="s">
         <v>260</v>
@@ -25030,7 +25031,7 @@
       </c>
       <c r="E179">
         <f>runs!$C179+runs!$K179</f>
-        <v>983.13352052699997</v>
+        <v>983.12789446099998</v>
       </c>
       <c r="F179" t="s">
         <v>260</v>
@@ -25068,7 +25069,7 @@
       </c>
       <c r="E180">
         <f>runs!$C180+runs!$K180</f>
-        <v>983.31051330900004</v>
+        <v>983.30184886500001</v>
       </c>
       <c r="F180" t="s">
         <v>260</v>
@@ -25106,7 +25107,7 @@
       </c>
       <c r="E181">
         <f>runs!$C181+runs!$K181</f>
-        <v>983.43878090899989</v>
+        <v>983.53903273300011</v>
       </c>
       <c r="F181" t="s">
         <v>260</v>
@@ -25144,7 +25145,7 @@
       </c>
       <c r="E182">
         <f>runs!$C182+runs!$K182</f>
-        <v>983.74821425000005</v>
+        <v>983.75269808200005</v>
       </c>
       <c r="F182" t="s">
         <v>260</v>
@@ -25182,7 +25183,7 @@
       </c>
       <c r="E183" s="5">
         <f>runs!$C183+runs!$K183</f>
-        <v>901.72371741199993</v>
+        <v>901.62468618299999</v>
       </c>
       <c r="F183" s="5" t="s">
         <v>259</v>
@@ -25220,7 +25221,7 @@
       </c>
       <c r="E184">
         <f>runs!$C184+runs!$K184</f>
-        <v>464.57660951399998</v>
+        <v>443.69852724799995</v>
       </c>
       <c r="F184" t="s">
         <v>258</v>
@@ -25258,7 +25259,7 @@
       </c>
       <c r="E185">
         <f>runs!$C185+runs!$K185</f>
-        <v>415.90296352899998</v>
+        <v>422.25304046700001</v>
       </c>
       <c r="F185" t="s">
         <v>260</v>
@@ -25296,7 +25297,7 @@
       </c>
       <c r="E186">
         <f>runs!$C186+runs!$K186</f>
-        <v>18.497892371999999</v>
+        <v>14.931115457000001</v>
       </c>
       <c r="F186" t="s">
         <v>258</v>
@@ -25330,11 +25331,11 @@
         <v>149.08680703800002</v>
       </c>
       <c r="D187" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E187">
         <f>runs!$C187+runs!$K187</f>
-        <v>1002.63999547</v>
+        <v>391.295450018</v>
       </c>
       <c r="F187" t="s">
         <v>259</v>
@@ -25372,7 +25373,7 @@
       </c>
       <c r="E188">
         <f>runs!$C188+runs!$K188</f>
-        <v>219.57851469799999</v>
+        <v>123.869878443</v>
       </c>
       <c r="F188" t="s">
         <v>258</v>
@@ -25406,11 +25407,11 @@
         <v>323.18485175500001</v>
       </c>
       <c r="D189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E189">
         <f>runs!$C189+runs!$K189</f>
-        <v>1102.9967357609999</v>
+        <v>715.87950730299997</v>
       </c>
       <c r="F189" t="s">
         <v>259</v>
@@ -25448,7 +25449,7 @@
       </c>
       <c r="E190">
         <f>runs!$C190+runs!$K190</f>
-        <v>322.53567502599998</v>
+        <v>321.42925666100001</v>
       </c>
       <c r="F190" t="s">
         <v>258</v>
@@ -25486,7 +25487,7 @@
       </c>
       <c r="E191">
         <f>runs!$C191+runs!$K191</f>
-        <v>340.306084021</v>
+        <v>340.87181248299999</v>
       </c>
       <c r="F191" t="s">
         <v>260</v>
@@ -25524,7 +25525,7 @@
       </c>
       <c r="E192">
         <f>runs!$C192+runs!$K192</f>
-        <v>225.60147709</v>
+        <v>226.574817602</v>
       </c>
       <c r="F192" t="s">
         <v>259</v>
@@ -25562,7 +25563,7 @@
       </c>
       <c r="E193">
         <f>runs!$C193+runs!$K193</f>
-        <v>210.43043007400001</v>
+        <v>209.985968168</v>
       </c>
       <c r="F193" t="s">
         <v>259</v>
@@ -25600,7 +25601,7 @@
       </c>
       <c r="E194">
         <f>runs!$C194+runs!$K194</f>
-        <v>175.27889509799999</v>
+        <v>175.06356135499999</v>
       </c>
       <c r="F194" t="s">
         <v>259</v>
@@ -25638,7 +25639,7 @@
       </c>
       <c r="E195">
         <f>runs!$C195+runs!$K195</f>
-        <v>206.31152160900001</v>
+        <v>205.53763817200002</v>
       </c>
       <c r="F195" t="s">
         <v>260</v>
@@ -25676,7 +25677,7 @@
       </c>
       <c r="E196">
         <f>runs!$C196+runs!$K196</f>
-        <v>208.74171587000001</v>
+        <v>211.45014572600002</v>
       </c>
       <c r="F196" t="s">
         <v>260</v>
@@ -25714,7 +25715,7 @@
       </c>
       <c r="E197">
         <f>runs!$C197+runs!$K197</f>
-        <v>179.251936621</v>
+        <v>179.33651751799999</v>
       </c>
       <c r="F197" t="s">
         <v>260</v>
@@ -25752,7 +25753,7 @@
       </c>
       <c r="E198">
         <f>runs!$C198+runs!$K198</f>
-        <v>189.45188883599999</v>
+        <v>188.83361322300001</v>
       </c>
       <c r="F198" t="s">
         <v>260</v>
@@ -25790,7 +25791,7 @@
       </c>
       <c r="E199">
         <f>runs!$C199+runs!$K199</f>
-        <v>220.71435922000001</v>
+        <v>220.31432735300001</v>
       </c>
       <c r="F199" t="s">
         <v>260</v>
@@ -25828,7 +25829,7 @@
       </c>
       <c r="E200">
         <f>runs!$C200+runs!$K200</f>
-        <v>221.800317385</v>
+        <v>224.363019227</v>
       </c>
       <c r="F200" t="s">
         <v>260</v>
@@ -25866,7 +25867,7 @@
       </c>
       <c r="E201">
         <f>runs!$C201+runs!$K201</f>
-        <v>185.94807787400001</v>
+        <v>186.41738517499999</v>
       </c>
       <c r="F201" t="s">
         <v>260</v>
@@ -25904,7 +25905,7 @@
       </c>
       <c r="E202">
         <f>runs!$C202+runs!$K202</f>
-        <v>179.80931628599998</v>
+        <v>180.76106627799999</v>
       </c>
       <c r="F202" t="s">
         <v>260</v>
@@ -25942,7 +25943,7 @@
       </c>
       <c r="E203">
         <f>runs!$C203+runs!$K203</f>
-        <v>262.58955060200003</v>
+        <v>259.951368032</v>
       </c>
       <c r="F203" t="s">
         <v>260</v>
@@ -25980,7 +25981,7 @@
       </c>
       <c r="E204">
         <f>runs!$C204+runs!$K204</f>
-        <v>223.46634568799999</v>
+        <v>223.462883799</v>
       </c>
       <c r="F204" t="s">
         <v>260</v>
@@ -26018,7 +26019,7 @@
       </c>
       <c r="E205">
         <f>runs!$C205+runs!$K205</f>
-        <v>249.15793641400001</v>
+        <v>250.247273721</v>
       </c>
       <c r="F205" t="s">
         <v>258</v>
@@ -26056,7 +26057,7 @@
       </c>
       <c r="E206">
         <f>runs!$C206+runs!$K206</f>
-        <v>201.793083516</v>
+        <v>201.67044461500001</v>
       </c>
       <c r="F206" t="s">
         <v>259</v>
@@ -26094,7 +26095,7 @@
       </c>
       <c r="E207">
         <f>runs!$C207+runs!$K207</f>
-        <v>166.49490384800001</v>
+        <v>166.733593856</v>
       </c>
       <c r="F207" t="s">
         <v>259</v>
@@ -26132,7 +26133,7 @@
       </c>
       <c r="E208">
         <f>runs!$C208+runs!$K208</f>
-        <v>212.80094303800001</v>
+        <v>230.536493151</v>
       </c>
       <c r="F208" t="s">
         <v>259</v>
@@ -26170,7 +26171,7 @@
       </c>
       <c r="E209">
         <f>runs!$C209+runs!$K209</f>
-        <v>353.57381056500003</v>
+        <v>352.213530983</v>
       </c>
       <c r="F209" t="s">
         <v>259</v>
@@ -26208,7 +26209,7 @@
       </c>
       <c r="E210">
         <f>runs!$C210+runs!$K210</f>
-        <v>224.99307108500003</v>
+        <v>225.75662458000002</v>
       </c>
       <c r="F210" t="s">
         <v>259</v>
@@ -26246,7 +26247,7 @@
       </c>
       <c r="E211">
         <f>runs!$C211+runs!$K211</f>
-        <v>222.12798489400001</v>
+        <v>221.275881844</v>
       </c>
       <c r="F211" t="s">
         <v>259</v>
@@ -26284,7 +26285,7 @@
       </c>
       <c r="E212">
         <f>runs!$C212+runs!$K212</f>
-        <v>270.94018061599996</v>
+        <v>293.66032204999999</v>
       </c>
       <c r="F212" t="s">
         <v>259</v>
@@ -26322,7 +26323,7 @@
       </c>
       <c r="E213">
         <f>runs!$C213+runs!$K213</f>
-        <v>257.07665443999997</v>
+        <v>258.64994318200002</v>
       </c>
       <c r="F213" t="s">
         <v>259</v>
@@ -26360,7 +26361,7 @@
       </c>
       <c r="E214">
         <f>runs!$C214+runs!$K214</f>
-        <v>260.68368545300001</v>
+        <v>244.08090867599998</v>
       </c>
       <c r="F214" t="s">
         <v>259</v>
@@ -26398,7 +26399,7 @@
       </c>
       <c r="E215">
         <f>runs!$C215+runs!$K215</f>
-        <v>358.894300574</v>
+        <v>339.048459294</v>
       </c>
       <c r="F215" t="s">
         <v>259</v>
@@ -26436,7 +26437,7 @@
       </c>
       <c r="E216">
         <f>runs!$C216+runs!$K216</f>
-        <v>256.07425147499998</v>
+        <v>261.81016741099995</v>
       </c>
       <c r="F216" t="s">
         <v>259</v>
@@ -26474,7 +26475,7 @@
       </c>
       <c r="E217">
         <f>runs!$C217+runs!$K217</f>
-        <v>305.900554301</v>
+        <v>305.40508562299999</v>
       </c>
       <c r="F217" t="s">
         <v>259</v>
@@ -26512,7 +26513,7 @@
       </c>
       <c r="E218">
         <f>runs!$C218+runs!$K218</f>
-        <v>327.44898796199999</v>
+        <v>327.45275588700002</v>
       </c>
       <c r="F218" t="s">
         <v>259</v>
@@ -26550,7 +26551,7 @@
       </c>
       <c r="E219">
         <f>runs!$C219+runs!$K219</f>
-        <v>293.61655547499998</v>
+        <v>310.70883909499997</v>
       </c>
       <c r="F219" t="s">
         <v>259</v>
@@ -26588,7 +26589,7 @@
       </c>
       <c r="E220">
         <f>runs!$C220+runs!$K220</f>
-        <v>346.82310504899999</v>
+        <v>386.75751128899998</v>
       </c>
       <c r="F220" t="s">
         <v>259</v>
@@ -26626,7 +26627,7 @@
       </c>
       <c r="E221">
         <f>runs!$C221+runs!$K221</f>
-        <v>334.66101312300003</v>
+        <v>334.00734838200003</v>
       </c>
       <c r="F221" t="s">
         <v>259</v>
@@ -26664,7 +26665,7 @@
       </c>
       <c r="E222">
         <f>runs!$C222+runs!$K222</f>
-        <v>328.12590011199995</v>
+        <v>357.09796260499996</v>
       </c>
       <c r="F222" t="s">
         <v>259</v>
@@ -26702,7 +26703,7 @@
       </c>
       <c r="E223">
         <f>runs!$C223+runs!$K223</f>
-        <v>423.62462388099999</v>
+        <v>422.84784370599999</v>
       </c>
       <c r="F223" t="s">
         <v>259</v>
@@ -26740,7 +26741,7 @@
       </c>
       <c r="E224">
         <f>runs!$C224+runs!$K224</f>
-        <v>314.09098457599998</v>
+        <v>316.32754753699999</v>
       </c>
       <c r="F224" t="s">
         <v>259</v>
@@ -26778,7 +26779,7 @@
       </c>
       <c r="E225">
         <f>runs!$C225+runs!$K225</f>
-        <v>156.25038266300001</v>
+        <v>157.384728094</v>
       </c>
       <c r="F225" t="s">
         <v>259</v>
@@ -26816,7 +26817,7 @@
       </c>
       <c r="E226">
         <f>runs!$C226+runs!$K226</f>
-        <v>94.087737074000003</v>
+        <v>93.844491062000003</v>
       </c>
       <c r="F226" t="s">
         <v>259</v>
@@ -26854,7 +26855,7 @@
       </c>
       <c r="E227">
         <f>runs!$C227+runs!$K227</f>
-        <v>48.928082289999999</v>
+        <v>49.096891886000002</v>
       </c>
       <c r="F227" t="s">
         <v>259</v>
@@ -26888,11 +26889,11 @@
         <v>901.97173248399997</v>
       </c>
       <c r="D228" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E228">
         <f>runs!$C228+runs!$K228</f>
-        <v>6.0525382610000005</v>
+        <v>5.9479823750000005</v>
       </c>
       <c r="F228" t="s">
         <v>259</v>
@@ -26930,7 +26931,7 @@
       </c>
       <c r="E229">
         <f>runs!$C229+runs!$K229</f>
-        <v>96.468493545000001</v>
+        <v>96.419977336999992</v>
       </c>
       <c r="F229" t="s">
         <v>259</v>
@@ -26968,7 +26969,7 @@
       </c>
       <c r="E230">
         <f>runs!$C230+runs!$K230</f>
-        <v>179.09683601099999</v>
+        <v>179.26470774399999</v>
       </c>
       <c r="F230" t="s">
         <v>259</v>
@@ -27006,7 +27007,7 @@
       </c>
       <c r="E231">
         <f>runs!$C231+runs!$K231</f>
-        <v>179.782312451</v>
+        <v>179.5122844</v>
       </c>
       <c r="F231" t="s">
         <v>258</v>
@@ -27044,7 +27045,7 @@
       </c>
       <c r="E232">
         <f>runs!$C232+runs!$K232</f>
-        <v>148.514269662</v>
+        <v>148.64170022299999</v>
       </c>
       <c r="F232" t="s">
         <v>259</v>
@@ -27082,7 +27083,7 @@
       </c>
       <c r="E233">
         <f>runs!$C233+runs!$K233</f>
-        <v>184.26722945099999</v>
+        <v>184.61067947000001</v>
       </c>
       <c r="F233" t="s">
         <v>259</v>
@@ -27120,7 +27121,7 @@
       </c>
       <c r="E234">
         <f>runs!$C234+runs!$K234</f>
-        <v>190.42091025799999</v>
+        <v>191.87967565900001</v>
       </c>
       <c r="F234" t="s">
         <v>258</v>
@@ -27158,7 +27159,7 @@
       </c>
       <c r="E235">
         <f>runs!$C235+runs!$K235</f>
-        <v>256.60309207400002</v>
+        <v>292.48287142100003</v>
       </c>
       <c r="F235" t="s">
         <v>259</v>
@@ -27196,7 +27197,7 @@
       </c>
       <c r="E236">
         <f>runs!$C236+runs!$K236</f>
-        <v>208.68480430599999</v>
+        <v>202.11630653999998</v>
       </c>
       <c r="F236" t="s">
         <v>259</v>
@@ -27234,7 +27235,7 @@
       </c>
       <c r="E237">
         <f>runs!$C237+runs!$K237</f>
-        <v>197.95393671100001</v>
+        <v>199.35448550999999</v>
       </c>
       <c r="F237" t="s">
         <v>259</v>
@@ -27272,7 +27273,7 @@
       </c>
       <c r="E238">
         <f>runs!$C238+runs!$K238</f>
-        <v>191.86742389099999</v>
+        <v>192.129312403</v>
       </c>
       <c r="F238" t="s">
         <v>259</v>
@@ -27310,7 +27311,7 @@
       </c>
       <c r="E239">
         <f>runs!$C239+runs!$K239</f>
-        <v>162.707228466</v>
+        <v>161.89502579100002</v>
       </c>
       <c r="F239" t="s">
         <v>258</v>
@@ -27348,7 +27349,7 @@
       </c>
       <c r="E240">
         <f>runs!$C240+runs!$K240</f>
-        <v>166.35133221799998</v>
+        <v>166.29278496299997</v>
       </c>
       <c r="F240" t="s">
         <v>259</v>
@@ -27386,7 +27387,7 @@
       </c>
       <c r="E241">
         <f>runs!$C241+runs!$K241</f>
-        <v>195.09840010400001</v>
+        <v>195.307396977</v>
       </c>
       <c r="F241" t="s">
         <v>259</v>
@@ -27424,7 +27425,7 @@
       </c>
       <c r="E242">
         <f>runs!$C242+runs!$K242</f>
-        <v>189.52973207900001</v>
+        <v>189.75055817700002</v>
       </c>
       <c r="F242" t="s">
         <v>259</v>
@@ -27462,7 +27463,7 @@
       </c>
       <c r="E243">
         <f>runs!$C243+runs!$K243</f>
-        <v>168.23195987</v>
+        <v>168.19868213399999</v>
       </c>
       <c r="F243" t="s">
         <v>259</v>
@@ -27500,7 +27501,7 @@
       </c>
       <c r="E244">
         <f>runs!$C244+runs!$K244</f>
-        <v>152.23473020700001</v>
+        <v>152.12829121500002</v>
       </c>
       <c r="F244" t="s">
         <v>259</v>
@@ -27538,7 +27539,7 @@
       </c>
       <c r="E245">
         <f>runs!$C245+runs!$K245</f>
-        <v>151.48113371299999</v>
+        <v>151.53809043999999</v>
       </c>
       <c r="F245" t="s">
         <v>259</v>
@@ -27576,7 +27577,7 @@
       </c>
       <c r="E246">
         <f>runs!$C246+runs!$K246</f>
-        <v>255.06181017899999</v>
+        <v>251.034706274</v>
       </c>
       <c r="F246" t="s">
         <v>259</v>
@@ -27614,7 +27615,7 @@
       </c>
       <c r="E247">
         <f>runs!$C247+runs!$K247</f>
-        <v>166.18515877199999</v>
+        <v>161.586939723</v>
       </c>
       <c r="F247" t="s">
         <v>259</v>
@@ -27648,11 +27649,11 @@
         <v>92.705528780000009</v>
       </c>
       <c r="D248" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E248">
         <f>runs!$C248+runs!$K248</f>
-        <v>982.41483407800001</v>
+        <v>663.16443557000002</v>
       </c>
       <c r="F248" t="s">
         <v>259</v>
@@ -27690,7 +27691,7 @@
       </c>
       <c r="E249">
         <f>runs!$C249+runs!$K249</f>
-        <v>963.28647217599996</v>
+        <v>963.27976486099999</v>
       </c>
       <c r="F249" t="s">
         <v>260</v>
@@ -27723,7 +27724,7 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B251">
         <f>COUNTIF(B$4:B$249,"sat")</f>
@@ -27739,7 +27740,7 @@
       </c>
       <c r="E251">
         <f>SUMIF(D$4:D$249, "sat", E$4:E$249)</f>
-        <v>1959.6412235990001</v>
+        <v>1875.9177941630001</v>
       </c>
       <c r="F251">
         <f>COUNTIF(F$4:F$249,"sat")</f>
@@ -27769,7 +27770,7 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B252">
         <f>COUNTIF(B$4:B$249,"unsat")</f>
@@ -27781,11 +27782,11 @@
       </c>
       <c r="D252">
         <f>COUNTIF(D$4:D$249,"unsat")</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E252">
         <f>SUMIF(D$4:D$249, "unsat", E$4:E$249)</f>
-        <v>2959.1309237550008</v>
+        <v>5614.2418082189988</v>
       </c>
       <c r="F252">
         <f>COUNTIF(F$4:F$249,"unsat")</f>
@@ -27815,7 +27816,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B253" s="4">
         <f>COUNTIF(B$4:B$249,"sat") + COUNTIF(B$4:B$249,"unsat")</f>
@@ -27827,11 +27828,11 @@
       </c>
       <c r="D253" s="4">
         <f>COUNTIF(D$4:D$249,"sat") + COUNTIF(D$4:D$249,"unsat")</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E253">
         <f>SUMIF(D$4:D$249, "sat", E$4:E$249)+SUMIF(D$4:D$249, "unsat", E$4:E$249)</f>
-        <v>4918.7721473540005</v>
+        <v>7490.1596023819984</v>
       </c>
       <c r="F253" s="4">
         <f>COUNTIF(F$4:F$249,"sat") + COUNTIF(F$4:F$249,"unsat")</f>
@@ -27860,7 +27861,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B254" s="4">
         <v>1</v>
@@ -27883,7 +27884,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B255">
         <f>COUNTIF(B$4:B$249,"OUT OF MEMORY")</f>
@@ -27908,7 +27909,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B256">
         <f>COUNTIF(B$4:B$249,"TIMEOUT")</f>
@@ -27916,7 +27917,7 @@
       </c>
       <c r="D256">
         <f>COUNTIF(D$4:D$249,"TIMEOUT")</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F256">
         <f>COUNTIF(F$4:F$249,"TIMEOUT")</f>
@@ -27933,7 +27934,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B257">
         <f>246-B253-B255-B256</f>
@@ -27941,7 +27942,7 @@
       </c>
       <c r="D257">
         <f>246-D253-D255-D256</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
         <f>246-F253-F255-F256</f>
@@ -27957,7 +27958,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K249" xr:uid="{41F7E668-9280-2342-8805-1ED509AB1354}"/>
+  <autoFilter ref="A1:K249" xr:uid="{7C7F1F47-3866-714D-A590-6FDBCE45BF31}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27980,139 +27981,139 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AH1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AI1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AN1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AO1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AP1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AQ1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AR1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AS1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AT1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.2">
@@ -28120,144 +28121,144 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G2" t="s">
         <v>273</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>273</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>273</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>273</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>273</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>274</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>274</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>274</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>274</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>274</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
+        <v>270</v>
+      </c>
+      <c r="R2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U2" t="s">
+        <v>270</v>
+      </c>
+      <c r="V2" t="s">
         <v>275</v>
       </c>
-      <c r="M2" t="s">
+      <c r="W2" t="s">
         <v>275</v>
       </c>
-      <c r="N2" t="s">
+      <c r="X2" t="s">
         <v>275</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
         <v>275</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" t="s">
-        <v>271</v>
-      </c>
-      <c r="R2" t="s">
-        <v>271</v>
-      </c>
-      <c r="S2" t="s">
-        <v>271</v>
-      </c>
-      <c r="T2" t="s">
-        <v>271</v>
-      </c>
-      <c r="U2" t="s">
-        <v>271</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>276</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
         <v>276</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AC2" t="s">
         <v>276</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AD2" t="s">
         <v>276</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AE2" t="s">
         <v>276</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="s">
         <v>277</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AG2" t="s">
         <v>277</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AH2" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
         <v>277</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AJ2" t="s">
         <v>277</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AK2" t="s">
         <v>278</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AL2" t="s">
         <v>278</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AM2" t="s">
         <v>278</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AN2" t="s">
         <v>278</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
         <v>278</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AP2" t="s">
         <v>279</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AQ2" t="s">
         <v>279</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AR2" t="s">
         <v>279</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AS2" t="s">
         <v>279</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AT2" t="s">
         <v>279</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -28272,7 +28273,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -28287,7 +28288,7 @@
         <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
@@ -28302,7 +28303,7 @@
         <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q3" t="s">
         <v>5</v>
@@ -28317,7 +28318,7 @@
         <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V3" t="s">
         <v>5</v>
@@ -28332,7 +28333,7 @@
         <v>8</v>
       </c>
       <c r="Z3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA3" t="s">
         <v>5</v>
@@ -28347,7 +28348,7 @@
         <v>8</v>
       </c>
       <c r="AE3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF3" t="s">
         <v>5</v>
@@ -28362,7 +28363,7 @@
         <v>8</v>
       </c>
       <c r="AJ3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK3" t="s">
         <v>5</v>
@@ -28377,7 +28378,7 @@
         <v>8</v>
       </c>
       <c r="AO3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AP3" t="s">
         <v>5</v>
@@ -28392,7 +28393,7 @@
         <v>8</v>
       </c>
       <c r="AT3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
@@ -62837,7 +62838,7 @@
     </row>
     <row r="251" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B251" s="4">
         <f>COUNTIF(B4:B249,"sat") + COUNTIF(B4:B249,"unsat")</f>
